--- a/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonProjects\IRAS_plot\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389C999-DA48-4BAD-BC0D-00C793B46EE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10172" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="10170" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="uptake old" sheetId="1" r:id="rId1"/>
@@ -233,11 +232,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -351,12 +350,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -382,7 +381,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,7 +422,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3CE51B82-473D-44A0-8D7F-A9F62B276739}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -508,7 +507,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -646,7 +645,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8081-4262-94E7-65E90F41253D}"/>
             </c:ext>
@@ -771,7 +770,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8081-4262-94E7-65E90F41253D}"/>
             </c:ext>
@@ -785,8 +784,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1905318064"/>
-        <c:axId val="1905312080"/>
+        <c:axId val="1027021352"/>
+        <c:axId val="1123249752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -910,7 +909,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8081-4262-94E7-65E90F41253D}"/>
             </c:ext>
@@ -1049,7 +1048,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8081-4262-94E7-65E90F41253D}"/>
             </c:ext>
@@ -1063,11 +1062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1907483168"/>
-        <c:axId val="1907485344"/>
+        <c:axId val="1123241520"/>
+        <c:axId val="1123237992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1905318064"/>
+        <c:axId val="1027021352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,12 +1178,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905312080"/>
+        <c:crossAx val="1123249752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1905312080"/>
+        <c:axId val="1123249752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,12 +1303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905318064"/>
+        <c:crossAx val="1027021352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1907485344"/>
+        <c:axId val="1123237992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,12 +1411,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907483168"/>
+        <c:crossAx val="1123241520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1907483168"/>
+        <c:axId val="1123241520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1907485344"/>
+        <c:crossAx val="1123237992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,7 +1507,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1522,6 +1521,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1720,7 +1720,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B249-4A76-A610-64CF7B8982F3}"/>
             </c:ext>
@@ -1849,7 +1849,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B249-4A76-A610-64CF7B8982F3}"/>
             </c:ext>
@@ -1978,7 +1978,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B249-4A76-A610-64CF7B8982F3}"/>
             </c:ext>
@@ -1994,12 +1994,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1829044863"/>
-        <c:axId val="1595246271"/>
+        <c:axId val="1538582456"/>
+        <c:axId val="1538582848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1829044863"/>
+        <c:axId val="1538582456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +2036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1595246271"/>
+        <c:crossAx val="1538582848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2044,7 +2044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1595246271"/>
+        <c:axId val="1538582848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829044863"/>
+        <c:crossAx val="1538582456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,6 +2109,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2140,14 +2141,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2183,7 +2184,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2321,7 +2322,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4889-48C3-B543-099F75C73989}"/>
             </c:ext>
@@ -2335,8 +2336,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1905322416"/>
-        <c:axId val="1905324592"/>
+        <c:axId val="989926464"/>
+        <c:axId val="989948808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2460,7 +2461,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4889-48C3-B543-099F75C73989}"/>
             </c:ext>
@@ -2474,11 +2475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1993267648"/>
-        <c:axId val="1993269824"/>
+        <c:axId val="1071531096"/>
+        <c:axId val="1071519728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1905322416"/>
+        <c:axId val="989926464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.16000000000000003"/>
@@ -2591,12 +2592,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905324592"/>
+        <c:crossAx val="989948808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1905324592"/>
+        <c:axId val="989948808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,12 +2709,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905322416"/>
+        <c:crossAx val="989926464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1993269824"/>
+        <c:axId val="1071519728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,12 +2724,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1993267648"/>
+        <c:crossAx val="1071531096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1993267648"/>
+        <c:axId val="1071531096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1993269824"/>
+        <c:crossAx val="1071519728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2819,7 +2820,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2987,7 +2988,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-809B-4450-9571-0B7DC07BCD77}"/>
             </c:ext>
@@ -3001,11 +3002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1828034224"/>
-        <c:axId val="1828029872"/>
+        <c:axId val="869631592"/>
+        <c:axId val="869632376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1828034224"/>
+        <c:axId val="869631592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.16000000000000003"/>
@@ -3118,12 +3119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828029872"/>
+        <c:crossAx val="869632376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1828029872"/>
+        <c:axId val="869632376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,7 +3236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828034224"/>
+        <c:crossAx val="869631592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3316,7 +3317,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3464,7 +3465,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-19A2-4716-BD73-C9D2ECB062E3}"/>
             </c:ext>
@@ -3599,7 +3600,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-19A2-4716-BD73-C9D2ECB062E3}"/>
             </c:ext>
@@ -3734,7 +3735,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-19A2-4716-BD73-C9D2ECB062E3}"/>
             </c:ext>
@@ -3869,7 +3870,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-19A2-4716-BD73-C9D2ECB062E3}"/>
             </c:ext>
@@ -3950,7 +3951,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-19A2-4716-BD73-C9D2ECB062E3}"/>
             </c:ext>
@@ -3964,11 +3965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1256838192"/>
-        <c:axId val="765881760"/>
+        <c:axId val="1070258760"/>
+        <c:axId val="847613592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1256838192"/>
+        <c:axId val="1070258760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -4026,12 +4027,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765881760"/>
+        <c:crossAx val="847613592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765881760"/>
+        <c:axId val="847613592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4089,7 +4090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1256838192"/>
+        <c:crossAx val="1070258760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4134,14 +4135,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4177,7 +4178,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4325,7 +4326,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7D8-42EF-9AB4-9057583A3CB9}"/>
             </c:ext>
@@ -4460,7 +4461,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7D8-42EF-9AB4-9057583A3CB9}"/>
             </c:ext>
@@ -4595,7 +4596,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B7D8-42EF-9AB4-9057583A3CB9}"/>
             </c:ext>
@@ -4730,7 +4731,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B7D8-42EF-9AB4-9057583A3CB9}"/>
             </c:ext>
@@ -4811,7 +4812,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B7D8-42EF-9AB4-9057583A3CB9}"/>
             </c:ext>
@@ -4825,11 +4826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1256838192"/>
-        <c:axId val="765881760"/>
+        <c:axId val="847622608"/>
+        <c:axId val="847623000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1256838192"/>
+        <c:axId val="847622608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -4887,12 +4888,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="765881760"/>
+        <c:crossAx val="847623000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="765881760"/>
+        <c:axId val="847623000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4950,7 +4951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1256838192"/>
+        <c:crossAx val="847622608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4995,14 +4996,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5035,7 +5036,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5248,7 +5249,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -5383,7 +5384,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -5518,7 +5519,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -5648,7 +5649,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -5713,7 +5714,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -5854,7 +5855,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -5987,7 +5988,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -6001,9 +6002,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1829067743"/>
-        <c:axId val="1599992959"/>
-        <c:extLst>
+        <c:axId val="851302056"/>
+        <c:axId val="1028449696"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -6011,7 +6012,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$Q$1</c15:sqref>
@@ -6052,7 +6053,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -6103,7 +6104,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$Q$2:$Q$13</c15:sqref>
@@ -6153,7 +6154,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0250-4F93-A4B1-1E2AFE5B949B}"/>
                   </c:ext>
@@ -6166,7 +6167,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$R$1</c15:sqref>
@@ -6207,7 +6208,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -6258,7 +6259,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$R$2:$R$13</c15:sqref>
@@ -6308,7 +6309,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0250-4F93-A4B1-1E2AFE5B949B}"/>
                   </c:ext>
@@ -6321,7 +6322,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$S$1</c15:sqref>
@@ -6362,7 +6363,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -6413,7 +6414,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$S$2:$S$13</c15:sqref>
@@ -6463,7 +6464,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-0250-4F93-A4B1-1E2AFE5B949B}"/>
                   </c:ext>
@@ -6611,7 +6612,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -6752,7 +6753,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -6891,7 +6892,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-0250-4F93-A4B1-1E2AFE5B949B}"/>
             </c:ext>
@@ -6905,11 +6906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1649578879"/>
-        <c:axId val="1649576287"/>
+        <c:axId val="1538582064"/>
+        <c:axId val="1038858848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1829067743"/>
+        <c:axId val="851302056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -7008,12 +7009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599992959"/>
+        <c:crossAx val="1028449696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1599992959"/>
+        <c:axId val="1028449696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7111,12 +7112,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829067743"/>
+        <c:crossAx val="851302056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1649576287"/>
+        <c:axId val="1038858848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7219,12 +7220,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649578879"/>
+        <c:crossAx val="1538582064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1649578879"/>
+        <c:axId val="1538582064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7234,7 +7235,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1649576287"/>
+        <c:crossAx val="1038858848"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7282,14 +7284,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7322,7 +7324,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7470,7 +7472,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -7605,7 +7607,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -7740,7 +7742,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -7819,7 +7821,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -7884,7 +7886,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -7898,9 +7900,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1829067743"/>
-        <c:axId val="1599992959"/>
-        <c:extLst>
+        <c:axId val="1538579712"/>
+        <c:axId val="1538584024"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -7908,7 +7910,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$Q$1</c15:sqref>
@@ -7949,7 +7951,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -8000,7 +8002,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$Q$2:$Q$13</c15:sqref>
@@ -8050,7 +8052,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-E9AF-4705-B336-26F45DAEC541}"/>
                   </c:ext>
@@ -8063,7 +8065,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$R$1</c15:sqref>
@@ -8104,7 +8106,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -8155,7 +8157,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$R$2:$R$13</c15:sqref>
@@ -8205,7 +8207,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E9AF-4705-B336-26F45DAEC541}"/>
                   </c:ext>
@@ -8218,7 +8220,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$S$1</c15:sqref>
@@ -8259,7 +8261,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -8310,7 +8312,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$S$2:$S$13</c15:sqref>
@@ -8360,7 +8362,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-E9AF-4705-B336-26F45DAEC541}"/>
                   </c:ext>
@@ -8508,7 +8510,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -8649,7 +8651,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -8788,7 +8790,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-E9AF-4705-B336-26F45DAEC541}"/>
             </c:ext>
@@ -8802,11 +8804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1649578879"/>
-        <c:axId val="1649576287"/>
+        <c:axId val="1538583240"/>
+        <c:axId val="1538580104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1829067743"/>
+        <c:axId val="1538579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0000000000000008E-2"/>
@@ -8905,12 +8907,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599992959"/>
+        <c:crossAx val="1538584024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1599992959"/>
+        <c:axId val="1538584024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1600000"/>
@@ -9009,12 +9011,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829067743"/>
+        <c:crossAx val="1538579712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1649576287"/>
+        <c:axId val="1538580104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9084,12 +9086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1649578879"/>
+        <c:crossAx val="1538583240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1649578879"/>
+        <c:axId val="1538583240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9099,7 +9101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1649576287"/>
+        <c:crossAx val="1538580104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9148,14 +9150,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9188,7 +9190,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9336,7 +9338,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -9471,7 +9473,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -9606,7 +9608,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -9685,7 +9687,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -9750,7 +9752,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -9764,9 +9766,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1829067743"/>
-        <c:axId val="1599992959"/>
-        <c:extLst>
+        <c:axId val="1538580496"/>
+        <c:axId val="1538581280"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -9774,7 +9776,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$Q$1</c15:sqref>
@@ -9815,7 +9817,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -9866,7 +9868,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$Q$2:$Q$13</c15:sqref>
@@ -9916,7 +9918,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-7B48-417F-82F2-7A4992B821CF}"/>
                   </c:ext>
@@ -9929,7 +9931,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$R$1</c15:sqref>
@@ -9970,7 +9972,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -10021,7 +10023,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$R$2:$R$13</c15:sqref>
@@ -10071,7 +10073,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-7B48-417F-82F2-7A4992B821CF}"/>
                   </c:ext>
@@ -10084,7 +10086,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$S$1</c15:sqref>
@@ -10125,7 +10127,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$A$2:$A$13</c15:sqref>
@@ -10176,7 +10178,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area'!$S$2:$S$13</c15:sqref>
@@ -10226,7 +10228,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-7B48-417F-82F2-7A4992B821CF}"/>
                   </c:ext>
@@ -10374,7 +10376,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -10515,7 +10517,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -10654,7 +10656,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-7B48-417F-82F2-7A4992B821CF}"/>
             </c:ext>
@@ -10668,11 +10670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1649578879"/>
-        <c:axId val="1649576287"/>
+        <c:axId val="1538577360"/>
+        <c:axId val="1538578144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1829067743"/>
+        <c:axId val="1538580496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10770,12 +10772,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599992959"/>
+        <c:crossAx val="1538581280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1599992959"/>
+        <c:axId val="1538581280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10873,12 +10875,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1829067743"/>
+        <c:crossAx val="1538580496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1649576287"/>
+        <c:axId val="1538578144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10948,12 +10950,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1649578879"/>
+        <c:crossAx val="1538577360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1649578879"/>
+        <c:axId val="1538577360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10963,7 +10965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1649576287"/>
+        <c:crossAx val="1538578144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11022,14 +11024,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11062,7 +11064,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11076,6 +11078,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11240,7 +11243,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -11375,7 +11378,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -11510,7 +11513,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -11645,7 +11648,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -11786,7 +11789,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -11927,7 +11930,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -12071,7 +12074,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -12215,7 +12218,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -12356,7 +12359,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-130C-455A-BF21-BB687BA3B641}"/>
             </c:ext>
@@ -12370,9 +12373,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1740051695"/>
-        <c:axId val="1744243103"/>
-        <c:extLst>
+        <c:axId val="1538578928"/>
+        <c:axId val="1538581672"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -12380,7 +12383,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$F$1</c15:sqref>
@@ -12421,7 +12424,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$A$2:$A$13</c15:sqref>
@@ -12472,7 +12475,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$F$2:$F$13</c15:sqref>
@@ -12522,7 +12525,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-130C-455A-BF21-BB687BA3B641}"/>
                   </c:ext>
@@ -12535,7 +12538,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$G$1</c15:sqref>
@@ -12576,7 +12579,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$A$2:$A$13</c15:sqref>
@@ -12627,7 +12630,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$G$2:$G$13</c15:sqref>
@@ -12677,7 +12680,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-130C-455A-BF21-BB687BA3B641}"/>
                   </c:ext>
@@ -12690,7 +12693,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$H$1</c15:sqref>
@@ -12737,7 +12740,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$A$2:$A$13</c15:sqref>
@@ -12788,7 +12791,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$H$2:$H$13</c15:sqref>
@@ -12838,7 +12841,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-130C-455A-BF21-BB687BA3B641}"/>
                   </c:ext>
@@ -12851,7 +12854,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$I$1</c15:sqref>
@@ -12898,7 +12901,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$A$2:$A$13</c15:sqref>
@@ -12949,7 +12952,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$I$2:$I$13</c15:sqref>
@@ -12999,7 +13002,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-130C-455A-BF21-BB687BA3B641}"/>
                   </c:ext>
@@ -13012,7 +13015,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$J$1</c15:sqref>
@@ -13059,7 +13062,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$A$2:$A$13</c15:sqref>
@@ -13110,7 +13113,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$J$2:$J$13</c15:sqref>
@@ -13160,7 +13163,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-130C-455A-BF21-BB687BA3B641}"/>
                   </c:ext>
@@ -13173,7 +13176,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$B$17</c15:sqref>
@@ -13220,7 +13223,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$A$18:$A$29</c15:sqref>
@@ -13271,7 +13274,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'uptake area - peaks'!$B$18:$B$29</c15:sqref>
@@ -13321,7 +13324,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-130C-455A-BF21-BB687BA3B641}"/>
                   </c:ext>
@@ -13332,7 +13335,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1740051695"/>
+        <c:axId val="1538578928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000006E-2"/>
@@ -13390,12 +13393,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1744243103"/>
+        <c:crossAx val="1538581672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1744243103"/>
+        <c:axId val="1538581672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000000"/>
@@ -13454,7 +13457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740051695"/>
+        <c:crossAx val="1538578928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13468,6 +13471,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13499,14 +13503,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -19099,7 +19103,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19135,7 +19139,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19173,7 +19177,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19216,7 +19220,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC74FBB-D07B-4CC5-B07A-13144E4C4589}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFC74FBB-D07B-4CC5-B07A-13144E4C4589}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19257,7 +19261,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC3DB07-9D25-4214-AED6-8FAFD0B8C0E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBC3DB07-9D25-4214-AED6-8FAFD0B8C0E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19295,7 +19299,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8E86A7-981B-4BBA-B7E9-FA431D8B31B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E8E86A7-981B-4BBA-B7E9-FA431D8B31B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19333,7 +19337,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CBA8C8-4EFF-48B4-AAEA-AC8073EDCF65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89CBA8C8-4EFF-48B4-AAEA-AC8073EDCF65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19371,7 +19375,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3522A08-AF0F-4168-AA76-484CED0DA351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3522A08-AF0F-4168-AA76-484CED0DA351}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19414,7 +19418,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06D2E01-633B-4CFF-AB58-22E0D6DB5459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06D2E01-633B-4CFF-AB58-22E0D6DB5459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19450,7 +19454,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE7D72E-72D7-48A9-B0E5-CB3EFE53EF74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CE7D72E-72D7-48A9-B0E5-CB3EFE53EF74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19733,19 +19737,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19777,7 +19781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -19803,7 +19807,7 @@
         <v>100.943872666519</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5E-3</v>
       </c>
@@ -19829,7 +19833,7 @@
         <v>223.034305929223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -19855,7 +19859,7 @@
         <v>339.277681832702</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -19881,7 +19885,7 @@
         <v>465.17623466400698</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -19907,7 +19911,7 @@
         <v>394.80304815039102</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.01</v>
       </c>
@@ -19933,7 +19937,7 @@
         <v>646.54592365087206</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -19959,7 +19963,7 @@
         <v>771.40879700764901</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -19985,7 +19989,7 @@
         <v>772.35538138385095</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -20011,7 +20015,7 @@
         <v>937.84019066407996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.05</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>751.37458007567898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -20063,7 +20067,7 @@
         <v>703.54074259321999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.15</v>
       </c>
@@ -20097,27 +20101,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2ABD79-0754-4D87-9A2A-4E888AD35605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.5546875" customWidth="1"/>
+    <col min="1" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="6" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20167,7 +20171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -20217,7 +20221,7 @@
         <v>-1.8268072920264571E-19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5E-3</v>
       </c>
@@ -20267,7 +20271,7 @@
         <v>4.256571812044049E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -20317,7 +20321,7 @@
         <v>1.2735989309537683E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -20367,7 +20371,7 @@
         <v>2.1557061103575199E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -20417,7 +20421,7 @@
         <v>2.2723350402530713E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.01</v>
       </c>
@@ -20467,7 +20471,7 @@
         <v>4.1296178472659512E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -20517,7 +20521,7 @@
         <v>5.5856704264425933E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -20567,7 +20571,7 @@
         <v>6.7305726594567197E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -20617,7 +20621,7 @@
         <v>7.4267857499158249E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.05</v>
       </c>
@@ -20667,7 +20671,7 @@
         <v>7.5417965985642335E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -20717,7 +20721,7 @@
         <v>7.928466349323765E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.15</v>
       </c>
@@ -20767,7 +20771,7 @@
         <v>7.3579958087543196E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>19</v>
       </c>
@@ -20792,7 +20796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>14</v>
       </c>
@@ -20807,7 +20811,7 @@
         <v>5834.2995908334397</v>
       </c>
     </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>18</v>
       </c>
@@ -20821,7 +20825,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>22</v>
       </c>
@@ -20832,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="12:15" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>0.1</v>
       </c>
@@ -20840,7 +20844,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="12:15" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>0.2</v>
       </c>
@@ -20856,36 +20860,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B334C1-2F8A-47B5-866F-6BCADFEC8399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D49" sqref="D49:E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="1028" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="1028" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20939,7 +20943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -20968,35 +20972,35 @@
         <v>100.943872666519</v>
       </c>
       <c r="M2" s="7">
-        <f>(F2-$F$2)</f>
+        <f t="shared" ref="M2:M13" si="0">(F2-$F$2)</f>
         <v>0</v>
       </c>
       <c r="N2" s="7">
-        <f>(C2-$C$2)</f>
+        <f t="shared" ref="N2:N13" si="1">(C2-$C$2)</f>
         <v>0</v>
       </c>
       <c r="O2" s="7">
-        <f>(D2-$D$2)</f>
+        <f t="shared" ref="O2:O13" si="2">(D2-$D$2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <f>(E2-$E$2)</f>
+        <f t="shared" ref="P2:P13" si="3">(E2-$E$2)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="7">
-        <f>(H2-$H$2)</f>
+        <f t="shared" ref="Q2:Q13" si="4">(H2-$H$2)</f>
         <v>0</v>
       </c>
       <c r="R2" s="7">
-        <f>(K2-$K$2)</f>
+        <f t="shared" ref="R2:R13" si="5">(K2-$K$2)</f>
         <v>0</v>
       </c>
       <c r="S2" s="7">
-        <f>(H2+K2-$H$2-$K$2)</f>
+        <f t="shared" ref="S2:S13" si="6">(H2+K2-$H$2-$K$2)</f>
         <v>-1.4210854715202004E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5E-3</v>
       </c>
@@ -21025,35 +21029,35 @@
         <v>223.034305929223</v>
       </c>
       <c r="M3" s="7">
-        <f>(F3-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>378316.59492356179</v>
       </c>
       <c r="N3" s="7">
-        <f>(C3-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>369492.7050874859</v>
       </c>
       <c r="O3" s="7">
-        <f>(D3-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>1123.00137455612</v>
       </c>
       <c r="P3" s="7">
-        <f>(E3-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>61.702380744041022</v>
       </c>
       <c r="Q3" s="7">
-        <f>(H3-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>209.03110248878599</v>
       </c>
       <c r="R3" s="7">
-        <f>(K3-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>122.090433262704</v>
       </c>
       <c r="S3" s="7">
-        <f>(H3+K3-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>331.12153575149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -21082,35 +21086,35 @@
         <v>339.277681832702</v>
       </c>
       <c r="M4" s="7">
-        <f>(F4-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>456564.08049371984</v>
       </c>
       <c r="N4" s="7">
-        <f>(C4-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>422236.3561464579</v>
       </c>
       <c r="O4" s="7">
-        <f>(D4-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>2301.12185685962</v>
       </c>
       <c r="P4" s="7">
-        <f>(E4-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>153.49410905686699</v>
       </c>
       <c r="Q4" s="7">
-        <f>(H4-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>752.40722040041396</v>
       </c>
       <c r="R4" s="7">
-        <f>(K4-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>238.33380916618302</v>
       </c>
       <c r="S4" s="7">
-        <f>(H4+K4-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>990.74102956659692</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -21139,35 +21143,35 @@
         <v>465.17623466400698</v>
       </c>
       <c r="M5" s="7">
-        <f>(F5-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>546424.75885362271</v>
       </c>
       <c r="N5" s="7">
-        <f>(C5-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>521633.49715564487</v>
       </c>
       <c r="O5" s="7">
-        <f>(D5-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>4976.5685710838397</v>
       </c>
       <c r="P5" s="7">
-        <f>(E5-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>229.73054905644801</v>
       </c>
       <c r="Q5" s="7">
-        <f>(H5-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>1312.705675017982</v>
       </c>
       <c r="R5" s="7">
-        <f>(K5-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>364.232361997488</v>
       </c>
       <c r="S5" s="7">
-        <f>(H5+K5-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>1676.9380370154699</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -21196,35 +21200,35 @@
         <v>394.80304815039102</v>
       </c>
       <c r="M6" s="7">
-        <f>(F6-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>582993.19896917476</v>
       </c>
       <c r="N6" s="7">
-        <f>(C6-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>537848.35568739695</v>
       </c>
       <c r="O6" s="7">
-        <f>(D6-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>5667.7215864543805</v>
       </c>
       <c r="P6" s="7">
-        <f>(E6-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>342.87304976849401</v>
       </c>
       <c r="Q6" s="7">
-        <f>(H6-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>1473.8052772607921</v>
       </c>
       <c r="R6" s="7">
-        <f>(K6-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>293.85917548387204</v>
       </c>
       <c r="S6" s="7">
-        <f>(H6+K6-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>1767.6644527446642</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.01</v>
       </c>
@@ -21253,35 +21257,35 @@
         <v>646.54592365087206</v>
       </c>
       <c r="M7" s="7">
-        <f>(F7-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>655850.01726366673</v>
       </c>
       <c r="N7" s="7">
-        <f>(C7-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>582976.11102702294</v>
       </c>
       <c r="O7" s="7">
-        <f>(D7-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>13289.14960999677</v>
       </c>
       <c r="P7" s="7">
-        <f>(E7-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>547.75542111203504</v>
       </c>
       <c r="Q7" s="7">
-        <f>(H7-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>2666.8549778959418</v>
       </c>
       <c r="R7" s="7">
-        <f>(K7-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>545.60205098435301</v>
       </c>
       <c r="S7" s="7">
-        <f>(H7+K7-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>3212.4570288802947</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -21310,35 +21314,35 @@
         <v>771.40879700764901</v>
       </c>
       <c r="M8" s="7">
-        <f>(F8-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>692757.66112320474</v>
       </c>
       <c r="N8" s="7">
-        <f>(C8-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>620979.88597424596</v>
       </c>
       <c r="O8" s="7">
-        <f>(D8-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>18131.69995798697</v>
       </c>
       <c r="P8" s="7">
-        <f>(E8-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>696.85043635950103</v>
       </c>
       <c r="Q8" s="7">
-        <f>(H8-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>3674.6650334621322</v>
       </c>
       <c r="R8" s="7">
-        <f>(K8-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>670.46492434112997</v>
       </c>
       <c r="S8" s="7">
-        <f>(H8+K8-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>4345.1299578032622</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -21367,35 +21371,35 @@
         <v>772.35538138385095</v>
       </c>
       <c r="M9" s="7">
-        <f>(F9-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>688569.2073738958</v>
       </c>
       <c r="N9" s="7">
-        <f>(C9-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>620346.05421118694</v>
       </c>
       <c r="O9" s="7">
-        <f>(D9-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>29211.944885514167</v>
       </c>
       <c r="P9" s="7">
-        <f>(E9-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>909.93309697389407</v>
       </c>
       <c r="Q9" s="7">
-        <f>(H9-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>4564.3454663684124</v>
       </c>
       <c r="R9" s="7">
-        <f>(K9-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>671.41150871733191</v>
       </c>
       <c r="S9" s="7">
-        <f>(H9+K9-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>5235.7569750857438</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -21424,35 +21428,35 @@
         <v>937.84019066407996</v>
       </c>
       <c r="M10" s="7">
-        <f>(F10-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>689095.27819479071</v>
       </c>
       <c r="N10" s="7">
-        <f>(C10-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>619237.17915069393</v>
       </c>
       <c r="O10" s="7">
-        <f>(D10-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>33242.740827981273</v>
       </c>
       <c r="P10" s="7">
-        <f>(E10-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>902.80313072230399</v>
       </c>
       <c r="Q10" s="7">
-        <f>(H10-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>4940.4494235946422</v>
       </c>
       <c r="R10" s="7">
-        <f>(K10-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>836.89631799756091</v>
       </c>
       <c r="S10" s="7">
-        <f>(H10+K10-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>5777.345741592203</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.05</v>
       </c>
@@ -21481,35 +21485,35 @@
         <v>751.37458007567898</v>
       </c>
       <c r="M11" s="7">
-        <f>(F11-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>697897.10451467172</v>
       </c>
       <c r="N11" s="7">
-        <f>(C11-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>615459.65715645498</v>
       </c>
       <c r="O11" s="7">
-        <f>(D11-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>50241.094344269375</v>
       </c>
       <c r="P11" s="7">
-        <f>(E11-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>1020.0124737153441</v>
       </c>
       <c r="Q11" s="7">
-        <f>(H11-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>5216.3827338111523</v>
       </c>
       <c r="R11" s="7">
-        <f>(K11-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>650.43070740915994</v>
       </c>
       <c r="S11" s="7">
-        <f>(H11+K11-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>5866.8134412203117</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -21538,35 +21542,35 @@
         <v>703.54074259321999</v>
       </c>
       <c r="M12" s="7">
-        <f>(F12-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>684252.72730500577</v>
       </c>
       <c r="N12" s="7">
-        <f>(C12-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>618200.79064232192</v>
       </c>
       <c r="O12" s="7">
-        <f>(D12-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>100968.93317280397</v>
       </c>
       <c r="P12" s="7">
-        <f>(E12-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>1071.3432244094338</v>
       </c>
       <c r="Q12" s="7">
-        <f>(H12-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>5565.0095271128121</v>
       </c>
       <c r="R12" s="7">
-        <f>(K12-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>602.59686992670095</v>
       </c>
       <c r="S12" s="7">
-        <f>(H12+K12-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>6167.6063970395126</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.15</v>
       </c>
@@ -21595,35 +21599,35 @@
         <v>1041.8256310315001</v>
       </c>
       <c r="M13" s="7">
-        <f>(F13-$F$2)</f>
+        <f t="shared" si="0"/>
         <v>703130.31549126573</v>
       </c>
       <c r="N13" s="7">
-        <f>(C13-$C$2)</f>
+        <f t="shared" si="1"/>
         <v>622698.5244904859</v>
       </c>
       <c r="O13" s="7">
-        <f>(D13-$D$2)</f>
+        <f t="shared" si="2"/>
         <v>204764.89592210797</v>
       </c>
       <c r="P13" s="7">
-        <f>(E13-$E$2)</f>
+        <f t="shared" si="3"/>
         <v>1021.8198180778239</v>
       </c>
       <c r="Q13" s="7">
-        <f>(H13-$H$2)</f>
+        <f t="shared" si="4"/>
         <v>4782.9518331509516</v>
       </c>
       <c r="R13" s="7">
-        <f>(K13-$K$2)</f>
+        <f t="shared" si="5"/>
         <v>940.88175836498101</v>
       </c>
       <c r="S13" s="7">
-        <f>(H13+K13-$H$2-$K$2)</f>
+        <f t="shared" si="6"/>
         <v>5723.8335915159323</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
@@ -21639,12 +21643,12 @@
         <v>791.27772367920738</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -21679,16 +21683,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="8">
-        <f>A2*$C$16</f>
+        <f t="shared" ref="B17:B28" si="7">A2*$C$16</f>
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <f>B17-N2</f>
+        <f t="shared" ref="D17:D28" si="8">B17-N2</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
@@ -21696,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>N2+$E$30*(O2+P2)</f>
+        <f t="shared" ref="F17:F28" si="9">N2+$E$30*(O2+P2)</f>
         <v>0</v>
       </c>
       <c r="G17" s="8">
@@ -21720,24 +21724,24 @@
         <v>5834.2995908334397</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1.5E-3</v>
       </c>
       <c r="B18" s="8">
-        <f>A3*$C$16</f>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
       <c r="D18" s="8">
-        <f>B18-N3</f>
+        <f t="shared" si="8"/>
         <v>-69492.705087485898</v>
       </c>
       <c r="E18" s="11">
-        <f>D18/(O3+P3)</f>
+        <f t="shared" ref="E18:E28" si="10">D18/(O3+P3)</f>
         <v>-58.658297297182926</v>
       </c>
       <c r="F18" s="8">
-        <f>N3+$E$30*(O3+P3)</f>
+        <f t="shared" si="9"/>
         <v>558016.78126647545</v>
       </c>
       <c r="G18" s="8">
@@ -21770,61 +21774,61 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="B19" s="8">
-        <f>A4*$C$16</f>
+        <f t="shared" si="7"/>
         <v>500000</v>
       </c>
       <c r="D19" s="8">
-        <f>B19-N4</f>
+        <f t="shared" si="8"/>
         <v>77763.643853542104</v>
       </c>
       <c r="E19" s="11">
-        <f>D19/(O4+P4)</f>
+        <f t="shared" si="10"/>
         <v>31.680574449660305</v>
       </c>
       <c r="F19" s="8">
-        <f>N4+$E$30*(O4+P4)</f>
+        <f t="shared" si="9"/>
         <v>812843.88590089721</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" ref="G19:G27" si="0">(F19-B19)^2</f>
+        <f t="shared" ref="G19:G27" si="11">(F19-B19)^2</f>
         <v>97871296945.573593</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" ref="H19:H28" si="1">(B19-F19)/B19</f>
+        <f t="shared" ref="H19:H28" si="12">(B19-F19)/B19</f>
         <v>-0.62568777180179447</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B20" s="8">
-        <f>A5*$C$16</f>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
       <c r="D20" s="8">
-        <f>B20-N5</f>
+        <f t="shared" si="8"/>
         <v>478366.50284435513</v>
       </c>
       <c r="E20" s="11">
-        <f>D20/(O5+P5)</f>
+        <f t="shared" si="10"/>
         <v>91.882254900380218</v>
       </c>
       <c r="F20" s="8">
-        <f>N5+$E$30*(O5+P5)</f>
+        <f t="shared" si="9"/>
         <v>1350121.4018700635</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>122584996047.45851</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>-0.35012140187006352</v>
       </c>
       <c r="N20" t="s">
@@ -21837,32 +21841,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="B21" s="8">
-        <f>A6*$C$16</f>
+        <f t="shared" si="7"/>
         <v>1500000</v>
       </c>
       <c r="D21" s="8">
-        <f>B21-N6</f>
+        <f t="shared" si="8"/>
         <v>962151.64431260305</v>
       </c>
       <c r="E21" s="11">
-        <f>D21/(O6+P6)</f>
+        <f t="shared" si="10"/>
         <v>160.07594964301737</v>
       </c>
       <c r="F21" s="8">
-        <f>N6+$E$30*(O6+P6)</f>
+        <f t="shared" si="9"/>
         <v>1494325.2774586207</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>32202475.921638075</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>3.7831483609195179E-3</v>
       </c>
       <c r="O21">
@@ -21872,32 +21876,32 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.01</v>
       </c>
       <c r="B22" s="8">
-        <f>A7*$C$16</f>
+        <f t="shared" si="7"/>
         <v>2000000</v>
       </c>
       <c r="D22" s="8">
-        <f>B22-N7</f>
+        <f t="shared" si="8"/>
         <v>1417023.8889729772</v>
       </c>
       <c r="E22" s="11">
-        <f>D22/(O7+P7)</f>
+        <f t="shared" si="10"/>
         <v>102.40902035441849</v>
       </c>
       <c r="F22" s="8">
-        <f>N7+$E$30*(O7+P7)</f>
+        <f t="shared" si="9"/>
         <v>2784868.1253772918</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>616017974233.26428</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>-0.39243406268864589</v>
       </c>
       <c r="O22">
@@ -21907,169 +21911,169 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B23" s="8">
-        <f>A8*$C$16</f>
+        <f t="shared" si="7"/>
         <v>3000000</v>
       </c>
       <c r="D23" s="8">
-        <f>B23-N8</f>
+        <f t="shared" si="8"/>
         <v>2379020.1140257539</v>
       </c>
       <c r="E23" s="14">
-        <f>D23/(O8+P8)</f>
+        <f t="shared" si="10"/>
         <v>126.35174053229754</v>
       </c>
       <c r="F23" s="8">
-        <f>N8+$E$30*(O8+P8)</f>
+        <f t="shared" si="9"/>
         <v>3617201.5599608948</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>380937765618.16199</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>-0.20573385332029825</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B24" s="8">
-        <f>A9*$C$16</f>
+        <f t="shared" si="7"/>
         <v>5000000</v>
       </c>
       <c r="D24" s="8">
-        <f>B24-N9</f>
+        <f t="shared" si="8"/>
         <v>4379653.9457888128</v>
       </c>
       <c r="E24" s="11">
-        <f>D24/(O9+P9)</f>
+        <f t="shared" si="10"/>
         <v>145.39777195615125</v>
       </c>
       <c r="F24" s="8">
-        <f>N9+$E$30*(O9+P9)</f>
+        <f t="shared" si="9"/>
         <v>5413695.6101818532</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>171144057883.73581</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>-8.2739122036370641E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B25" s="8">
-        <f>A10*$C$16</f>
+        <f t="shared" si="7"/>
         <v>7000000.0000000009</v>
       </c>
       <c r="D25" s="8">
-        <f>B25-N10</f>
+        <f t="shared" si="8"/>
         <v>6380762.8208493069</v>
       </c>
       <c r="E25" s="11">
-        <f>D25/(O10+P10)</f>
+        <f t="shared" si="10"/>
         <v>186.86956132742682</v>
       </c>
       <c r="F25" s="8">
-        <f>N10+$E$30*(O10+P10)</f>
+        <f t="shared" si="9"/>
         <v>6052880.0638334574</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>897036173484.11743</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.13530284802379192</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.05</v>
       </c>
       <c r="B26" s="8">
-        <f>A11*$C$16</f>
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
       <c r="D26" s="8">
-        <f>B26-N11</f>
+        <f t="shared" si="8"/>
         <v>9384540.3428435456</v>
       </c>
       <c r="E26" s="11">
-        <f>D26/(O11+P11)</f>
+        <f t="shared" si="10"/>
         <v>183.07330694527695</v>
       </c>
       <c r="F26" s="8">
-        <f>N11+$E$30*(O11+P11)</f>
+        <f t="shared" si="9"/>
         <v>8772733.3751962651</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1506183368357.1516</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>0.12272666248037349</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.09</v>
       </c>
       <c r="B27" s="8">
-        <f>A12*$C$16</f>
+        <f t="shared" si="7"/>
         <v>18000000</v>
       </c>
       <c r="D27" s="8">
-        <f>B27-N12</f>
+        <f t="shared" si="8"/>
         <v>17381799.209357679</v>
       </c>
       <c r="E27" s="11">
-        <f>D27/(O12+P12)</f>
+        <f t="shared" si="10"/>
         <v>170.34253358639819</v>
       </c>
       <c r="F27" s="8">
-        <f>N12+$E$30*(O12+P12)</f>
+        <f t="shared" si="9"/>
         <v>16856056.672140252</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1308606337354.8352</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>6.3552407103319344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.15</v>
       </c>
       <c r="B28" s="8">
-        <f>A13*$C$16</f>
+        <f t="shared" si="7"/>
         <v>30000000</v>
       </c>
       <c r="D28" s="8">
-        <f>B28-N13</f>
+        <f t="shared" si="8"/>
         <v>29377301.475509513</v>
       </c>
       <c r="E28" s="11">
-        <f>D28/(O13+P13)</f>
+        <f t="shared" si="10"/>
         <v>142.75606357700741</v>
       </c>
       <c r="F28" s="8">
-        <f>N13+$E$30*(O13+P13)</f>
+        <f t="shared" si="9"/>
         <v>33369915.118732996</v>
       </c>
       <c r="G28" s="8">
@@ -22077,11 +22081,11 @@
         <v>11356327907465.225</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>-0.11233050395776654</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -22093,7 +22097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>89.999999713521106</v>
       </c>
@@ -22113,13 +22117,13 @@
         <v>-0.19197813227178781</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f>ATAN(B18/A18)*180/PI()</f>
         <v>89.999999713521106</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>40</v>
       </c>
@@ -22131,9 +22135,9 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
-        <f t="shared" ref="A33:H33" si="2">A16</f>
+        <f t="shared" ref="A33:H33" si="13">A16</f>
         <v>trendline</v>
       </c>
       <c r="B33" s="5" t="str">
@@ -22141,11 +22145,11 @@
         <v>slope:</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>200000000</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>delta (slope-CO)</v>
       </c>
       <c r="E33" s="22" t="s">
@@ -22155,15 +22159,15 @@
         <v>29</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>SSE (Slope vs factor)</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>% +/- over trendline</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>0</v>
       </c>
@@ -22177,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34" si="3">E17</f>
+        <f t="shared" ref="E34" si="14">E17</f>
         <v>0</v>
       </c>
       <c r="F34" s="25">
@@ -22193,29 +22197,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>1.5E-3</v>
       </c>
       <c r="B35" s="25">
-        <f t="shared" ref="B35:B44" si="4">A3*$C$16</f>
+        <f t="shared" ref="B35:B44" si="15">A3*$C$16</f>
         <v>300000</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="25">
-        <f t="shared" ref="D35:D44" si="5">B35-N3</f>
+        <f t="shared" ref="D35:D44" si="16">B35-N3</f>
         <v>-69492.705087485898</v>
       </c>
       <c r="E35" s="5">
-        <f>D18/(O3+P3)</f>
+        <f t="shared" ref="E35:E45" si="17">D18/(O3+P3)</f>
         <v>-58.658297297182926</v>
       </c>
       <c r="F35" s="5">
-        <f>N3+$E$49*(O3+P3)</f>
+        <f t="shared" ref="F35:F45" si="18">N3+$E$49*(O3+P3)</f>
         <v>547423.64933491149</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" ref="G35:G47" si="6">(F35-B35)^2</f>
+        <f t="shared" ref="G35:G47" si="19">(F35-B35)^2</f>
         <v>61218462250.205246</v>
       </c>
       <c r="H35" s="27">
@@ -22223,289 +22227,289 @@
         <v>0.82474549778303829</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" ref="I35:K35" si="7">I18</f>
+        <f t="shared" ref="I35:K35" si="20">I18</f>
         <v>vert dotted line</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>650000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="B36" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>500000</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>77763.643853542104</v>
       </c>
       <c r="E36" s="5">
-        <f>D19/(O4+P4)</f>
+        <f t="shared" si="17"/>
         <v>31.680574449660305</v>
       </c>
       <c r="F36" s="5">
-        <f>N4+$E$49*(O4+P4)</f>
+        <f t="shared" si="18"/>
         <v>790895.72320457117</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>84620321778.71048</v>
       </c>
       <c r="H36" s="27">
-        <f t="shared" ref="H36:H45" si="8">(F36-B36)/B19</f>
+        <f t="shared" ref="H36:H45" si="21">(F36-B36)/B19</f>
         <v>0.58179144640914238</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B37" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1000000</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>478366.50284435513</v>
       </c>
       <c r="E37" s="5">
-        <f>D20/(O5+P5)</f>
+        <f t="shared" si="17"/>
         <v>91.882254900380218</v>
       </c>
       <c r="F37" s="5">
-        <f>N5+$E$49*(O5+P5)</f>
+        <f t="shared" si="18"/>
         <v>1303568.8243095595</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>92154031092.688232</v>
       </c>
       <c r="H37" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.30356882430955956</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="B38" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1500000</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>962151.64431260305</v>
       </c>
       <c r="E38" s="5">
-        <f>D21/(O6+P6)</f>
+        <f t="shared" si="17"/>
         <v>160.07594964301737</v>
       </c>
       <c r="F38" s="5">
-        <f>N6+$E$49*(O6+P6)</f>
+        <f t="shared" si="18"/>
         <v>1440581.0214082738</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3530615016.8840117</v>
       </c>
       <c r="H38" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-3.961265239448411E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>0.01</v>
       </c>
       <c r="B39" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>2000000</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1417023.8889729772</v>
       </c>
       <c r="E39" s="5">
-        <f>D22/(O7+P7)</f>
+        <f t="shared" si="17"/>
         <v>102.40902035441849</v>
       </c>
       <c r="F39" s="5">
-        <f>N7+$E$49*(O7+P7)</f>
+        <f t="shared" si="18"/>
         <v>2661144.2324941144</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>437111696160.23163</v>
       </c>
       <c r="H39" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.33057211624705723</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B40" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>3000000</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2379020.1140257539</v>
       </c>
       <c r="E40" s="28">
-        <f>D23/(O8+P8)</f>
+        <f t="shared" si="17"/>
         <v>126.35174053229754</v>
       </c>
       <c r="F40" s="5">
-        <f>N8+$E$49*(O8+P8)</f>
+        <f t="shared" si="18"/>
         <v>3448844.434801891</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>201461326652.62897</v>
       </c>
       <c r="H40" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.14961481160063034</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B41" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>5000000</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>4379653.9457888128</v>
       </c>
       <c r="E41" s="5">
-        <f>D24/(O9+P9)</f>
+        <f t="shared" si="17"/>
         <v>145.39777195615125</v>
       </c>
       <c r="F41" s="5">
-        <f>N9+$E$49*(O9+P9)</f>
+        <f t="shared" si="18"/>
         <v>5144358.21164029</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>20839293267.982754</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2.8871642328057997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B42" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>7000000.0000000009</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>6380762.8208493069</v>
       </c>
       <c r="E42" s="5">
-        <f>D25/(O10+P10)</f>
+        <f t="shared" si="17"/>
         <v>186.86956132742682</v>
       </c>
       <c r="F42" s="5">
-        <f>N10+$E$49*(O10+P10)</f>
+        <f t="shared" si="18"/>
         <v>5747564.7051107893</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>1568594167884.2266</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.17891932784131592</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>0.05</v>
       </c>
       <c r="B43" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>9384540.3428435456</v>
       </c>
       <c r="E43" s="5">
-        <f>D26/(O11+P11)</f>
+        <f t="shared" si="17"/>
         <v>183.07330694527695</v>
       </c>
       <c r="F43" s="5">
-        <f>N11+$E$49*(O11+P11)</f>
+        <f t="shared" si="18"/>
         <v>8314377.7187281055</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2841322475120.2656</v>
       </c>
       <c r="H43" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.16856222812718943</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>0.09</v>
       </c>
       <c r="B44" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>18000000</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>17381799.209357679</v>
       </c>
       <c r="E44" s="5">
-        <f>D27/(O12+P12)</f>
+        <f t="shared" si="17"/>
         <v>170.34253358639819</v>
       </c>
       <c r="F44" s="5">
-        <f>N12+$E$49*(O12+P12)</f>
+        <f t="shared" si="18"/>
         <v>15943654.64304813</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4228556227057.5137</v>
       </c>
       <c r="H44" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.11424140871954834</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>0.15</v>
       </c>
@@ -22519,23 +22523,23 @@
         <v>29377301.475509513</v>
       </c>
       <c r="E45" s="5">
-        <f>D28/(O13+P13)</f>
+        <f t="shared" si="17"/>
         <v>142.75606357700741</v>
       </c>
       <c r="F45" s="5">
-        <f>N13+$E$49*(O13+P13)</f>
+        <f t="shared" si="18"/>
         <v>31529855.255795609</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>2340457103685.4487</v>
       </c>
       <c r="H45" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>5.099517519318697E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
@@ -22545,9 +22549,9 @@
       <c r="G46" s="31"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="str">
-        <f t="shared" ref="A47" si="9">A29</f>
+        <f t="shared" ref="A47" si="22">A29</f>
         <v>angle</v>
       </c>
       <c r="B47" s="5"/>
@@ -22556,22 +22560,22 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <f t="shared" ref="A48:D48" si="10">A30</f>
+        <f t="shared" ref="A48:D48" si="23">A30</f>
         <v>89.999999713521106</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">factor </v>
       </c>
       <c r="E48" s="26">
@@ -22588,7 +22592,7 @@
         <v>0.14740199139901125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>35</v>
       </c>
@@ -22596,7 +22600,7 @@
         <v>150.19024245630453</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>36</v>
       </c>
@@ -22604,7 +22608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>0</v>
       </c>
@@ -22622,7 +22626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>1.5E-3</v>
       </c>
@@ -22631,7 +22635,7 @@
         <v>495995.61158325878</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" ref="C52:C62" si="11">(B52-B35)^2</f>
+        <f t="shared" ref="C52:C62" si="24">(B52-B35)^2</f>
         <v>38414279759.895645</v>
       </c>
       <c r="E52">
@@ -22641,7 +22645,7 @@
         <v>150.38705124096174</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -22650,11 +22654,11 @@
         <v>684340.7452227727</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>33981510349.287197</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -22663,11 +22667,11 @@
         <v>1077563.1697321136</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6016045298.892664</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -22676,11 +22680,11 @@
         <v>1179660.8660710154</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>102617160726.37196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>0.01</v>
       </c>
@@ -22689,11 +22693,11 @@
         <v>2060483.6275772313</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3658269204.9012103</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -22702,76 +22706,76 @@
         <v>3452550.0589218591</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>204801555830.17816</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B58" s="5">
-        <f t="shared" ref="B58:B62" si="12">N9+$F$52*(O9+P9)</f>
+        <f t="shared" ref="B58:B62" si="25">N9+$F$52*(O9+P9)</f>
         <v>5150286.4618376167</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>22586020611.669434</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B59" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5754284.8481187606</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1551806239626.5017</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>0.05</v>
       </c>
       <c r="B60" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8324466.3548611365</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2807412995992.3267</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>0.09</v>
       </c>
       <c r="B61" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>15963737.065831952</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4146366737066.6689</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>0.15</v>
       </c>
       <c r="B62" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>31570355.889219034</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2466017618804.9043</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>39</v>
       </c>
@@ -22788,31 +22792,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0D93E-70C1-44CF-AD24-4422BB70BCE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22865,7 +22869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22924,7 +22928,7 @@
         <v>-2.1343317151875074E-12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5E-3</v>
       </c>
@@ -22963,27 +22967,27 @@
         <v>168663.84872334692</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M29" si="1">L3-Q3</f>
+        <f t="shared" ref="M3:M13" si="1">L3-Q3</f>
         <v>118932.62498632673</v>
       </c>
       <c r="N3" s="7">
-        <f>G3*$B$15</f>
+        <f t="shared" ref="N3:N13" si="2">G3*$B$15</f>
         <v>9267.0955240787371</v>
       </c>
       <c r="O3" s="7">
-        <f t="shared" ref="O3:O13" si="2">H3*$B$15</f>
+        <f t="shared" ref="O3:O13" si="3">H3*$B$15</f>
         <v>31394.431963699408</v>
       </c>
       <c r="P3" s="7">
-        <f t="shared" ref="P3:P13" si="3">I3*$B$15</f>
+        <f t="shared" ref="P3:P13" si="4">I3*$B$15</f>
         <v>18336.79177332078</v>
       </c>
       <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q13" si="4">J3*$B$15</f>
+        <f t="shared" ref="Q3:Q13" si="5">J3*$B$15</f>
         <v>49731.223737020191</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -23026,23 +23030,23 @@
         <v>196806.41416123204</v>
       </c>
       <c r="N4" s="7">
-        <f>G4*$B$15</f>
+        <f t="shared" si="2"/>
         <v>23053.317454865304</v>
       </c>
       <c r="O4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113004.22285781233</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35795.412584203645</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148799.63544201598</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -23085,23 +23089,23 @@
         <v>495572.30992795411</v>
       </c>
       <c r="N5" s="7">
-        <f>G5*$B$15</f>
+        <f t="shared" si="2"/>
         <v>34503.286862407891</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>197155.58360471763</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54704.146758835202</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>251859.73036355281</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -23144,23 +23148,23 @@
         <v>585750.5265053024</v>
       </c>
       <c r="N6" s="7">
-        <f>G6*$B$15</f>
+        <f t="shared" si="2"/>
         <v>51496.186476462688</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>221351.17192517949</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44134.780813932484</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>265485.95273911196</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.01</v>
       </c>
@@ -23203,23 +23207,23 @@
         <v>1513420.9019155283</v>
       </c>
       <c r="N7" s="7">
-        <f>G7*$B$15</f>
+        <f t="shared" si="2"/>
         <v>82267.519503571733</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400535.59572599415</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81944.104321997002</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>482479.70004799118</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -23262,23 +23266,23 @@
         <v>2070608.2909684055</v>
       </c>
       <c r="N8" s="7">
-        <f>G8*$B$15</f>
+        <f t="shared" si="2"/>
         <v>104660.13599261508</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>551898.83232138201</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100697.28954524218</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>652596.12186662422</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -23321,23 +23325,23 @@
         <v>3600989.4754451625</v>
       </c>
       <c r="N9" s="7">
-        <f>G9*$B$15</f>
+        <f t="shared" si="2"/>
         <v>136663.07245352521</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>685520.1522482062</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100839.4572822093</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>786359.6095304155</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -23380,23 +23384,23 @@
         <v>4125034.3471829696</v>
       </c>
       <c r="N10" s="7">
-        <f>G10*$B$15</f>
+        <f t="shared" si="2"/>
         <v>135592.22109349363</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>742007.29677278933</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125693.66091084221</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>867700.95768363145</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.05</v>
       </c>
@@ -23439,23 +23443,23 @@
         <v>6664584.0076531032</v>
       </c>
       <c r="N11" s="7">
-        <f>G11*$B$15</f>
+        <f t="shared" si="2"/>
         <v>153195.92073576248</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>783449.78753597767</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97688.3456468074</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>881138.13318278489</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -23498,23 +23502,23 @@
         <v>14238234.253631419</v>
       </c>
       <c r="N12" s="7">
-        <f>G12*$B$15</f>
+        <f t="shared" si="2"/>
         <v>160905.29862797193</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>835810.1301487179</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90504.169997701421</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>926314.30014641921</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.15</v>
       </c>
@@ -23557,29 +23561,29 @@
         <v>29894025.410192039</v>
       </c>
       <c r="N13" s="7">
-        <f>G13*$B$15</f>
+        <f t="shared" si="2"/>
         <v>153467.36622376536</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>718352.69547776761</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141311.25941155062</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>859663.95488931821</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -23588,13 +23592,13 @@
       </c>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -23615,7 +23619,7 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -23627,290 +23631,290 @@
         <v>0</v>
       </c>
       <c r="E18" s="17">
-        <f>P2/$M$13</f>
+        <f t="shared" ref="E18:E29" si="6">P2/$M$13</f>
         <v>0</v>
       </c>
       <c r="F18" s="17">
-        <f>O2/$M$13</f>
+        <f t="shared" ref="F18:F29" si="7">O2/$M$13</f>
         <v>0</v>
       </c>
       <c r="G18" s="17">
-        <f>M2/$M$13</f>
+        <f t="shared" ref="G18:G29" si="8">M2/$M$13</f>
         <v>7.1396598012518938E-20</v>
       </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.5E-3</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" ref="B19:B29" si="5">SUM(E3,L3,N3)</f>
+        <f t="shared" ref="B19:B29" si="9">SUM(E3,L3,N3)</f>
         <v>547423.64933491149</v>
       </c>
       <c r="D19" s="1">
         <v>1.5E-3</v>
       </c>
       <c r="E19" s="17">
-        <f>P3/$M$13</f>
+        <f t="shared" si="6"/>
         <v>6.1339319552023439E-4</v>
       </c>
       <c r="F19" s="17">
-        <f>O3/$M$13</f>
+        <f t="shared" si="7"/>
         <v>1.0501908502759158E-3</v>
       </c>
       <c r="G19" s="17">
-        <f>M3/$M$13</f>
+        <f t="shared" si="8"/>
         <v>3.9784747405004197E-3</v>
       </c>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>790895.72320457117</v>
       </c>
       <c r="D20" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E20" s="17">
-        <f>P4/$M$13</f>
+        <f t="shared" si="6"/>
         <v>1.1974102548263572E-3</v>
       </c>
       <c r="F20" s="17">
-        <f>O4/$M$13</f>
+        <f t="shared" si="7"/>
         <v>3.7801607949153877E-3</v>
       </c>
       <c r="G20" s="17">
-        <f>M4/$M$13</f>
+        <f t="shared" si="8"/>
         <v>6.5834698225061741E-3</v>
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1303568.8243095595</v>
       </c>
       <c r="D21" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="17">
-        <f>P5/$M$13</f>
+        <f t="shared" si="6"/>
         <v>1.829935781756057E-3</v>
       </c>
       <c r="F21" s="17">
-        <f>O5/$M$13</f>
+        <f t="shared" si="7"/>
         <v>6.5951500642499484E-3</v>
       </c>
       <c r="G21" s="17">
-        <f>M5/$M$13</f>
+        <f t="shared" si="8"/>
         <v>1.6577637274603846E-2</v>
       </c>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1440581.0214082741</v>
       </c>
       <c r="D22" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E22" s="17">
-        <f>P6/$M$13</f>
+        <f t="shared" si="6"/>
         <v>1.4763746336712892E-3</v>
       </c>
       <c r="F22" s="17">
-        <f>O6/$M$13</f>
+        <f t="shared" si="7"/>
         <v>7.4045287942289713E-3</v>
       </c>
       <c r="G22" s="17">
-        <f>M6/$M$13</f>
+        <f t="shared" si="8"/>
         <v>1.9594233913563117E-2</v>
       </c>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.01</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2661144.232494114</v>
       </c>
       <c r="D23" s="1">
         <v>0.01</v>
       </c>
       <c r="E23" s="17">
-        <f>P7/$M$13</f>
+        <f t="shared" si="6"/>
         <v>2.7411532303728845E-3</v>
       </c>
       <c r="F23" s="17">
-        <f>O7/$M$13</f>
+        <f t="shared" si="7"/>
         <v>1.3398516600893634E-2</v>
       </c>
       <c r="G23" s="17">
-        <f>M7/$M$13</f>
+        <f t="shared" si="8"/>
         <v>5.0626199755605485E-2</v>
       </c>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B24" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3448844.434801891</v>
       </c>
       <c r="D24" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E24" s="17">
-        <f>P8/$M$13</f>
+        <f t="shared" si="6"/>
         <v>3.3684754115084997E-3</v>
       </c>
       <c r="F24" s="17">
-        <f>O8/$M$13</f>
+        <f t="shared" si="7"/>
         <v>1.846184395538843E-2</v>
       </c>
       <c r="G24" s="17">
-        <f>M8/$M$13</f>
+        <f t="shared" si="8"/>
         <v>6.9264953868088119E-2</v>
       </c>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5144358.21164029</v>
       </c>
       <c r="D25" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E25" s="17">
-        <f>P9/$M$13</f>
+        <f t="shared" si="6"/>
         <v>3.373231135604414E-3</v>
       </c>
       <c r="F25" s="17">
-        <f>O9/$M$13</f>
+        <f t="shared" si="7"/>
         <v>2.2931677579108689E-2</v>
       </c>
       <c r="G25" s="17">
-        <f>M9/$M$13</f>
+        <f t="shared" si="8"/>
         <v>0.12045850052089153</v>
       </c>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5747564.7051107883</v>
       </c>
       <c r="D26" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E26" s="17">
-        <f>P10/$M$13</f>
+        <f t="shared" si="6"/>
         <v>4.2046415357628068E-3</v>
       </c>
       <c r="F26" s="17">
-        <f>O10/$M$13</f>
+        <f t="shared" si="7"/>
         <v>2.4821257311161918E-2</v>
       </c>
       <c r="G26" s="17">
-        <f>M10/$M$13</f>
+        <f t="shared" si="8"/>
         <v>0.13798858770544112</v>
       </c>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.05</v>
       </c>
       <c r="B27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8314377.7187281055</v>
       </c>
       <c r="D27" s="1">
         <v>0.05</v>
       </c>
       <c r="E27" s="17">
-        <f>P11/$M$13</f>
+        <f t="shared" si="6"/>
         <v>3.2678217237850356E-3</v>
       </c>
       <c r="F27" s="17">
-        <f>O11/$M$13</f>
+        <f t="shared" si="7"/>
         <v>2.6207570803391003E-2</v>
       </c>
       <c r="G27" s="17">
-        <f>M11/$M$13</f>
+        <f t="shared" si="8"/>
         <v>0.22294033393645563</v>
       </c>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.09</v>
       </c>
       <c r="B28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15943654.643048132</v>
       </c>
       <c r="D28" s="1">
         <v>0.09</v>
       </c>
       <c r="E28" s="17">
-        <f>P12/$M$13</f>
+        <f t="shared" si="6"/>
         <v>3.0275002698982459E-3</v>
       </c>
       <c r="F28" s="17">
-        <f>O12/$M$13</f>
+        <f t="shared" si="7"/>
         <v>2.7959102820049039E-2</v>
       </c>
       <c r="G28" s="17">
-        <f>M12/$M$13</f>
+        <f t="shared" si="8"/>
         <v>0.47629029741765888</v>
       </c>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.15</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>31529855.255795609</v>
       </c>
       <c r="D29" s="1">
         <v>0.15</v>
       </c>
       <c r="E29" s="17">
-        <f>P13/$M$13</f>
+        <f t="shared" si="6"/>
         <v>4.7270736367064203E-3</v>
       </c>
       <c r="F29" s="17">
-        <f>O13/$M$13</f>
+        <f t="shared" si="7"/>
         <v>2.4029975408827117E-2</v>
       </c>
       <c r="G29" s="17">
-        <f>M13/$M$13</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M29" s="7"/>

--- a/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9174CF0-9147-4345-9CC1-0883AAFE7DD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39955D89-1242-460E-B592-81812B2045AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10172" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'uptake area'!$E$52,'uptake area'!$F$52</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'vert + sloped intg uptk'!$F$35</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'vert + sloped intg uptk'!$F$32</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'verti intg uptk'!$I$49</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
@@ -64,7 +64,7 @@
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'uptake area'!$C$64</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'vert + sloped intg uptk'!$I$33</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'vert + sloped intg uptk'!$H$32</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'verti intg uptk'!$J$49</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="123">
   <si>
     <t>L</t>
   </si>
@@ -474,6 +474,15 @@
   <si>
     <t>Case 2b</t>
   </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>ML at 0.025L using CO</t>
+  </si>
+  <si>
+    <t>θgua</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -806,9 +815,15 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -3421,6 +3436,144 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>CO+f*GUA_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'verti intg uptk'!$A$17:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'verti intg uptk'!$K$17:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>414593.55904093076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500059.93120113597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>673152.23144687654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>708620.54534737347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>962563.44504935667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1174739.6922637075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1476666.8670730223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600000.6115143611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2127212.9691302609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3494819.727596554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6503298.6309170518</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CF31-4414-B9AB-D33561E8F639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
@@ -3865,7 +4018,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$I$1</c15:sqref>
@@ -3906,7 +4059,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$2:$C$13</c15:sqref>
@@ -3957,7 +4110,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$I$2:$I$13</c15:sqref>
@@ -4007,7 +4160,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
@@ -4020,7 +4173,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$J$1</c15:sqref>
@@ -4067,7 +4220,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$2:$C$13</c15:sqref>
@@ -4118,7 +4271,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$J$2:$J$13</c15:sqref>
@@ -4168,7 +4321,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
@@ -4181,7 +4334,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$K$1</c15:sqref>
@@ -4228,7 +4381,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$2:$C$13</c15:sqref>
@@ -4279,7 +4432,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$K$2:$K$13</c15:sqref>
@@ -4329,7 +4482,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
@@ -4342,7 +4495,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$L$1</c15:sqref>
@@ -4389,7 +4542,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$2:$C$13</c15:sqref>
@@ -4440,7 +4593,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$L$2:$L$13</c15:sqref>
@@ -4490,7 +4643,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
@@ -4588,7 +4741,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$3:$A$5</c15:sqref>
@@ -4612,7 +4765,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$O$3:$O$5</c15:sqref>
@@ -4635,7 +4788,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
@@ -4681,7 +4834,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$17:$A$28</c15:sqref>
@@ -4732,7 +4885,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$G$17:$G$28</c15:sqref>
@@ -4782,159 +4935,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-CF31-4414-B9AB-D33561E8F639}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="12"/>
-                <c:order val="12"/>
-                <c:tx>
-                  <c:v>CO+f*GUA_2</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="80000"/>
-                          <a:lumOff val="20000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'verti intg uptk'!$A$17:$A$28</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.5E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.5000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7.4999999999999997E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.4999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.5000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3.5000000000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'verti intg uptk'!$K$17:$K$28</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>414593.55904093076</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>500059.93120113597</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>673152.23144687654</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>708620.54534737347</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>962563.44504935667</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1174739.6922637075</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1476666.8670730223</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1600000.6115143611</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2127212.9691302609</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3494819.727596554</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>6503298.6309170518</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000D-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4981,7 +4984,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$17:$A$28</c15:sqref>
@@ -5032,7 +5035,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$G$17:$G$28</c15:sqref>
@@ -5082,7 +5085,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-CF31-4414-B9AB-D33561E8F639}"/>
                   </c:ext>
@@ -6483,7 +6486,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$H$1</c15:sqref>
@@ -6524,7 +6527,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$2:$C$13</c15:sqref>
@@ -6575,7 +6578,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$H$2:$H$13</c15:sqref>
@@ -6625,7 +6628,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D62A-4FA1-BCD7-CBF8127C26B8}"/>
                   </c:ext>
@@ -6638,7 +6641,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$I$1</c15:sqref>
@@ -6679,7 +6682,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$A$2:$C$13</c15:sqref>
@@ -6730,7 +6733,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'verti intg uptk'!$I$2:$I$13</c15:sqref>
@@ -6780,7 +6783,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D62A-4FA1-BCD7-CBF8127C26B8}"/>
                   </c:ext>
@@ -7802,167 +7805,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'vert + sloped intg uptk'!$I$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>GUA second + recom</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.5E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2.5000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.0000000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7.4999999999999997E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.01</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.4999999999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.5000000000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3.5000000000000003E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.09</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'vert + sloped intg uptk'!$I$2:$I$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>-1.4210854715202004E-14</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>331.12153575149</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>990.74102956659692</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1676.9380370154699</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1767.6644527446642</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3212.4570288802947</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4345.1299578032622</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5235.7569750857438</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5777.345741592203</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>5866.8134412203117</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>6167.6063970395126</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>5723.8335915159323</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-B95E-4EF6-88AA-01DC0792ED20}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$B$1</c15:sqref>
                         </c15:formulaRef>
@@ -8003,7 +7851,7 @@
                 <c:xVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
                         </c15:formulaRef>
@@ -8054,7 +7902,7 @@
                 <c:yVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$B$2:$B$13</c15:sqref>
                         </c15:formulaRef>
@@ -8116,7 +7964,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$D$1</c15:sqref>
@@ -8157,7 +8005,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
@@ -8208,7 +8056,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$E$2:$E$13</c15:sqref>
@@ -8258,7 +8106,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -8271,7 +8119,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$G$1</c15:sqref>
@@ -8312,7 +8160,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
@@ -8363,7 +8211,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$G$2:$G$13</c15:sqref>
@@ -8413,7 +8261,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -8426,7 +8274,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$H$1</c15:sqref>
@@ -8467,7 +8315,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
@@ -8518,7 +8366,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$H$2:$H$13</c15:sqref>
@@ -8568,9 +8416,164 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-B95E-4EF6-88AA-01DC0792ED20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GUA second + recom</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.4999999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$I$2:$I$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>-1.4210854715202004E-14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>331.12153575149</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>990.74102956659692</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1676.9380370154699</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1767.6644527446642</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3212.4570288802947</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4345.1299578032622</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5235.7569750857438</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5777.345741592203</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5866.8134412203117</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6167.6063970395126</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5723.8335915159323</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -8667,7 +8670,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$4</c15:sqref>
@@ -8691,7 +8694,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$C$2:$C$4</c15:sqref>
@@ -8714,7 +8717,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -8812,7 +8815,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$3:$A$5</c15:sqref>
@@ -8836,7 +8839,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$C$3:$C$5</c15:sqref>
@@ -8859,7 +8862,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -8872,7 +8875,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$C$18</c15:sqref>
@@ -8919,7 +8922,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -8970,7 +8973,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$C$19:$C$30</c15:sqref>
@@ -9020,7 +9023,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -9033,7 +9036,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$17</c15:sqref>
@@ -9083,7 +9086,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -9134,7 +9137,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$19:$K$30</c15:sqref>
@@ -9184,7 +9187,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -9197,7 +9200,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$L$17</c15:sqref>
@@ -9247,7 +9250,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -9298,7 +9301,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$L$19:$L$30</c15:sqref>
@@ -9348,7 +9351,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -9361,7 +9364,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$M$17</c15:sqref>
@@ -9411,7 +9414,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -9462,7 +9465,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$M$19:$M$30</c15:sqref>
@@ -9512,7 +9515,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -9526,6 +9529,7 @@
         <c:axId val="881002656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9643,6 +9647,7 @@
         <c:axId val="868150512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10972,7 +10977,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11127,7 +11132,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11282,7 +11287,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11437,7 +11442,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11583,7 +11588,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11728,7 +11733,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11889,7 +11894,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -11902,7 +11907,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$J$17</c15:sqref>
@@ -11952,7 +11957,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -12003,7 +12008,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$J$19:$J$30</c15:sqref>
@@ -12053,7 +12058,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -12066,7 +12071,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$L$17</c15:sqref>
@@ -12116,7 +12121,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -12167,7 +12172,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$L$19:$L$30</c15:sqref>
@@ -12217,7 +12222,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -12230,7 +12235,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$M$17</c15:sqref>
@@ -12280,7 +12285,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -12331,7 +12336,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$M$19:$M$30</c15:sqref>
@@ -12381,7 +12386,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-E73E-49B3-858A-C3E9FCC0F7E9}"/>
                   </c:ext>
@@ -12395,6 +12400,7 @@
         <c:axId val="881002656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12512,6 +12518,7 @@
         <c:axId val="868150512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13849,7 +13856,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14004,7 +14011,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14159,7 +14166,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14314,7 +14321,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14460,7 +14467,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14605,7 +14612,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14618,7 +14625,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$B$18</c15:sqref>
@@ -14665,7 +14672,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -14716,7 +14723,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$B$19:$B$30</c15:sqref>
@@ -14766,7 +14773,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14779,7 +14786,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$J$17</c15:sqref>
@@ -14829,7 +14836,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -14880,7 +14887,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$J$19:$J$30</c15:sqref>
@@ -14930,7 +14937,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -14943,7 +14950,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$17</c15:sqref>
@@ -14993,7 +15000,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -15044,7 +15051,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$19:$K$30</c15:sqref>
@@ -15094,7 +15101,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -15107,7 +15114,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$M$17</c15:sqref>
@@ -15157,7 +15164,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -15208,7 +15215,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$M$19:$M$30</c15:sqref>
@@ -15258,7 +15265,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
@@ -15272,6 +15279,7 @@
         <c:axId val="881002656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15389,6 +15397,8 @@
         <c:axId val="868150512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16726,7 +16736,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -16881,7 +16891,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17036,7 +17046,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17191,7 +17201,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17337,7 +17347,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17482,7 +17492,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17495,7 +17505,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$B$18</c15:sqref>
@@ -17542,7 +17552,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -17593,7 +17603,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$B$19:$B$30</c15:sqref>
@@ -17643,7 +17653,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17656,7 +17666,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$J$17</c15:sqref>
@@ -17706,7 +17716,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -17757,7 +17767,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$J$19:$J$30</c15:sqref>
@@ -17807,7 +17817,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17820,7 +17830,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$17</c15:sqref>
@@ -17870,7 +17880,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -17921,7 +17931,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$19:$K$30</c15:sqref>
@@ -17971,7 +17981,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -17984,7 +17994,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$L$17</c15:sqref>
@@ -18034,7 +18044,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$19:$A$30</c15:sqref>
@@ -18085,7 +18095,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$L$19:$L$30</c15:sqref>
@@ -18135,7 +18145,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-B1D9-43B6-AE65-3133EA9121F5}"/>
                   </c:ext>
@@ -18149,6 +18159,7 @@
         <c:axId val="881002656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18266,6 +18277,8 @@
         <c:axId val="868150512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1500000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -38938,16 +38951,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209261</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>20242</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>799465</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>178184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>415638</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>121438</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>448890</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38974,16 +38987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>515388</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153784</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>332508</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66502</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>357447</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39016,15 +39029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>432262</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>124693</xdr:rowOff>
+      <xdr:colOff>390698</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>124690</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74813</xdr:rowOff>
+      <xdr:colOff>83126</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39052,15 +39065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133002</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133005</xdr:rowOff>
+      <xdr:colOff>415635</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>58191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1213655</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>83125</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199503</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43621,8 +43634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D5658-95D9-452B-9C87-7CE505A65620}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -43718,7 +43731,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="9">
-        <f t="shared" ref="K2:M2" si="0">D2-D$2</f>
+        <f t="shared" ref="K2:L2" si="0">D2-D$2</f>
         <v>0</v>
       </c>
       <c r="L2" s="9">
@@ -43734,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>(H2/$Q$18)*$Q$19</f>
+        <f t="shared" ref="Q2:Q13" si="1">(H2/$Q$18)*$Q$19</f>
         <v>0</v>
       </c>
     </row>
@@ -43767,27 +43780,27 @@
         <v>61.702380744041022</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:J13" si="1">C3-C$2</f>
+        <f t="shared" ref="J3:J13" si="2">C3-C$2</f>
         <v>88.443560702123989</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" ref="K3:K13" si="2">D3-D$2</f>
+        <f t="shared" ref="K3:K13" si="3">D3-D$2</f>
         <v>936.81877980730917</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L13" si="3">E3-E$2</f>
+        <f t="shared" ref="L3:L13" si="4">E3-E$2</f>
         <v>664.39019843134042</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3:M13" si="4">F3-F$2</f>
+        <f t="shared" ref="M3:M13" si="5">F3-F$2</f>
         <v>1726.7175341507595</v>
       </c>
       <c r="O3" s="7">
-        <f t="shared" ref="O3:O13" si="5">M3+H3</f>
+        <f t="shared" ref="O3:O13" si="6">M3+H3</f>
         <v>371219.42262163665</v>
       </c>
       <c r="Q3">
-        <f>(H3/$Q$18)*$Q$19</f>
+        <f t="shared" si="1"/>
         <v>0.12625603209564973</v>
       </c>
     </row>
@@ -43820,27 +43833,27 @@
         <v>153.49410905686699</v>
       </c>
       <c r="J4" s="9">
+        <f t="shared" si="2"/>
+        <v>99.319682212585292</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="3"/>
+        <v>1318.520198774685</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="4"/>
+        <v>1505.9448113947897</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="5"/>
+        <v>2979.5296505011347</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="6"/>
+        <v>425215.88579695905</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="1"/>
-        <v>99.319682212585292</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" si="2"/>
-        <v>1318.520198774685</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" si="3"/>
-        <v>1505.9448113947897</v>
-      </c>
-      <c r="M4" s="9">
-        <f t="shared" si="4"/>
-        <v>2979.5296505011347</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="5"/>
-        <v>425215.88579695905</v>
-      </c>
-      <c r="Q4">
-        <f>(H4/$Q$18)*$Q$19</f>
         <v>0.14427859115907318</v>
       </c>
     </row>
@@ -43873,27 +43886,27 @@
         <v>229.73054905644801</v>
       </c>
       <c r="J5" s="9">
+        <f t="shared" si="2"/>
+        <v>515.38094202489287</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="3"/>
+        <v>1913.2837889054858</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="4"/>
+        <v>3187.328306859984</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="5"/>
+        <v>5801.0000325729079</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="6"/>
+        <v>527434.49718821782</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="1"/>
-        <v>515.38094202489287</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="2"/>
-        <v>1913.2837889054858</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="3"/>
-        <v>3187.328306859984</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="4"/>
-        <v>5801.0000325729079</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="5"/>
-        <v>527434.49718821782</v>
-      </c>
-      <c r="Q5">
-        <f>(H5/$Q$18)*$Q$19</f>
         <v>0.17824269505795895</v>
       </c>
     </row>
@@ -43926,27 +43939,27 @@
         <v>342.87304976849401</v>
       </c>
       <c r="J6" s="9">
+        <f t="shared" si="2"/>
+        <v>778.7480986484486</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="3"/>
+        <v>1999.3409708528811</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="4"/>
+        <v>3555.3050576372711</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="5"/>
+        <v>6538.1319505742376</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="6"/>
+        <v>544386.48763797118</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="1"/>
-        <v>778.7480986484486</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="2"/>
-        <v>1999.3409708528811</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="3"/>
-        <v>3555.3050576372711</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="4"/>
-        <v>6538.1319505742376</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="5"/>
-        <v>544386.48763797118</v>
-      </c>
-      <c r="Q6">
-        <f>(H6/$Q$18)*$Q$19</f>
         <v>0.18378332866458613</v>
       </c>
     </row>
@@ -43979,27 +43992,27 @@
         <v>547.75542111203504</v>
       </c>
       <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>3612.9412114549659</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="3"/>
+        <v>3193.0074205254159</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="4"/>
+        <v>7233.8487221567721</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="5"/>
+        <v>14532.764857944363</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="6"/>
+        <v>597508.87588496727</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>3612.9412114549659</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>3193.0074205254159</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="3"/>
-        <v>7233.8487221567721</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="4"/>
-        <v>14532.764857944363</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="5"/>
-        <v>597508.87588496727</v>
-      </c>
-      <c r="Q7">
-        <f>(H7/$Q$18)*$Q$19</f>
         <v>0.19920352843609554</v>
       </c>
     </row>
@@ -44032,27 +44045,27 @@
         <v>696.85043635950103</v>
       </c>
       <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>5596.7653614826413</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
+        <v>4951.1614391790408</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="4"/>
+        <v>9970.4491196380895</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="5"/>
+        <v>21201.078990986742</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="6"/>
+        <v>642180.96496523265</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="1"/>
-        <v>5596.7653614826413</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="2"/>
-        <v>4951.1614391790408</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="3"/>
-        <v>9970.4491196380895</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="4"/>
-        <v>21201.078990986742</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" si="5"/>
-        <v>642180.96496523265</v>
-      </c>
-      <c r="Q8">
-        <f>(H8/$Q$18)*$Q$19</f>
         <v>0.21218945688184485</v>
       </c>
     </row>
@@ -44085,27 +44098,27 @@
         <v>909.93309697389407</v>
       </c>
       <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>11200.618764440449</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="3"/>
+        <v>6324.6245208367454</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="4"/>
+        <v>14268.560136117139</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="5"/>
+        <v>32784.837376983247</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="6"/>
+        <v>653130.8915881702</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="1"/>
-        <v>11200.618764440449</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" si="2"/>
-        <v>6324.6245208367454</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" si="3"/>
-        <v>14268.560136117139</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="4"/>
-        <v>32784.837376983247</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" si="5"/>
-        <v>653130.8915881702</v>
-      </c>
-      <c r="Q9">
-        <f>(H9/$Q$18)*$Q$19</f>
         <v>0.21197287592552777</v>
       </c>
     </row>
@@ -44150,15 +44163,15 @@
         <v>16155.30408450072</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37549.209539675998</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>656786.3886903699</v>
       </c>
       <c r="Q10">
-        <f>(H10/$Q$18)*$Q$19</f>
+        <f t="shared" si="1"/>
         <v>0.21159397219265294</v>
       </c>
     </row>
@@ -44191,15 +44204,15 @@
         <v>1020.0124737153441</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23988.480803216229</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10525.039312210896</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21507.070842327761</v>
       </c>
       <c r="M11" s="9">
@@ -44207,11 +44220,11 @@
         <v>57878.526064943158</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>673338.18322139815</v>
       </c>
       <c r="Q11">
-        <f>(H11/$Q$18)*$Q$19</f>
+        <f t="shared" si="1"/>
         <v>0.21030318909577497</v>
       </c>
     </row>
@@ -44244,27 +44257,27 @@
         <v>1071.3432244094338</v>
       </c>
       <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>56027.682921549196</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="3"/>
+        <v>15875.794708432246</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="4"/>
+        <v>35002.597935338294</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="5"/>
+        <v>110133.35496122229</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="6"/>
+        <v>728334.1456035442</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="1"/>
-        <v>56027.682921549196</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="2"/>
-        <v>15875.794708432246</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="3"/>
-        <v>35002.597935338294</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="4"/>
-        <v>110133.35496122229</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="5"/>
-        <v>728334.1456035442</v>
-      </c>
-      <c r="Q12">
-        <f>(H12/$Q$18)*$Q$19</f>
         <v>0.21123983718815917</v>
       </c>
     </row>
@@ -44297,27 +44310,27 @@
         <v>1021.8198180778239</v>
       </c>
       <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>124221.42678498491</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="3"/>
+        <v>29699.793993883948</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="4"/>
+        <v>62843.873201213864</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="5"/>
+        <v>225142.8614983017</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="6"/>
+        <v>847841.38598878763</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="1"/>
-        <v>124221.42678498491</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="2"/>
-        <v>29699.793993883948</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="3"/>
-        <v>62843.873201213864</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="4"/>
-        <v>225142.8614983017</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" si="5"/>
-        <v>847841.38598878763</v>
-      </c>
-      <c r="Q13">
-        <f>(H13/$Q$18)*$Q$19</f>
         <v>0.21277671740601634</v>
       </c>
     </row>
@@ -44392,11 +44405,11 @@
         <v>1.5E-3</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G28" si="6">A18*$G$15+$H$15</f>
+        <f t="shared" ref="G18:G28" si="7">A18*$G$15+$H$15</f>
         <v>369552</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:H28" si="7">G18-O3</f>
+        <f t="shared" ref="H18:H28" si="8">G18-O3</f>
         <v>-1667.4226216366515</v>
       </c>
       <c r="I18">
@@ -44404,11 +44417,11 @@
         <v>-0.96566032872118213</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J28" si="8">(G18-(H3+$I$31*M3))^2</f>
+        <f t="shared" ref="J18:J28" si="9">(G18-(H3+$I$31*M3))^2</f>
         <v>2028742040.8376517</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" ref="K18:K28" si="9">H3+$I$31*M3</f>
+        <f t="shared" ref="K18:K28" si="10">H3+$I$31*M3</f>
         <v>414593.55904093076</v>
       </c>
       <c r="P18" t="s">
@@ -44423,23 +44436,23 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>409552</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-15663.885796959046</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I28" si="10">H19/(M4)</f>
+        <f t="shared" ref="I19:I28" si="11">H19/(M4)</f>
         <v>-5.2571672828711398</v>
       </c>
       <c r="J19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8191685610.3095627</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>500059.93120113597</v>
       </c>
       <c r="P19" t="s">
@@ -44454,15 +44467,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>509552</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-17882.497188217822</v>
       </c>
       <c r="I20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.0826576603700566</v>
       </c>
       <c r="J20">
@@ -44470,7 +44483,7 @@
         <v>26765035729.471573</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>673152.23144687654</v>
       </c>
     </row>
@@ -44479,23 +44492,23 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>609552</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65165.512362028821</v>
       </c>
       <c r="I21">
+        <f t="shared" si="11"/>
+        <v>9.9669925377240816</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>9814576677.2445927</v>
+      </c>
+      <c r="K21" s="7">
         <f t="shared" si="10"/>
-        <v>9.9669925377240816</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="8"/>
-        <v>9814576677.2445927</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" si="9"/>
         <v>708620.54534737347</v>
       </c>
     </row>
@@ -44504,23 +44517,23 @@
         <v>0.01</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>709552</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>112043.12411503273</v>
       </c>
       <c r="I22">
+        <f t="shared" si="11"/>
+        <v>7.7096908406788227</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>64014791325.963631</v>
+      </c>
+      <c r="K22" s="7">
         <f t="shared" si="10"/>
-        <v>7.7096908406788227</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="8"/>
-        <v>64014791325.963631</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="9"/>
         <v>962563.44504935667</v>
       </c>
     </row>
@@ -44529,23 +44542,23 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>909552</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>267371.03503476735</v>
       </c>
       <c r="I23">
+        <f t="shared" si="11"/>
+        <v>12.611199418125622</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>70324512128.150833</v>
+      </c>
+      <c r="K23" s="7">
         <f t="shared" si="10"/>
-        <v>12.611199418125622</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="8"/>
-        <v>70324512128.150833</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="9"/>
         <v>1174739.6922637075</v>
       </c>
     </row>
@@ -44554,23 +44567,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1309552</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>656421.1084118298</v>
       </c>
       <c r="I24">
+        <f t="shared" si="11"/>
+        <v>20.022094386616462</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>27927378796.833912</v>
+      </c>
+      <c r="K24" s="7">
         <f t="shared" si="10"/>
-        <v>20.022094386616462</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="8"/>
-        <v>27927378796.833912</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="9"/>
         <v>1476666.8670730223</v>
       </c>
     </row>
@@ -44579,23 +44592,23 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1709552.0000000002</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1052765.6113096303</v>
       </c>
       <c r="I25">
+        <f t="shared" si="11"/>
+        <v>28.036958013649688</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>12001506719.131424</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="10"/>
-        <v>28.036958013649688</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="8"/>
-        <v>12001506719.131424</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="9"/>
         <v>1600000.6115143611</v>
       </c>
       <c r="V25" t="s">
@@ -44610,23 +44623,23 @@
         <v>0.05</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2309552</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1636213.8167786018</v>
       </c>
       <c r="I26">
+        <f t="shared" si="11"/>
+        <v>28.269790680962959</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>33247522178.515678</v>
+      </c>
+      <c r="K26" s="7">
         <f t="shared" si="10"/>
-        <v>28.269790680962959</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="8"/>
-        <v>33247522178.515678</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="9"/>
         <v>2127212.9691302609</v>
       </c>
       <c r="U26">
@@ -44638,23 +44651,23 @@
         <v>0.09</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3909552</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3181217.8543964559</v>
       </c>
       <c r="I27">
+        <f t="shared" si="11"/>
+        <v>28.885144337213333</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>172002857772.92615</v>
+      </c>
+      <c r="K27" s="7">
         <f t="shared" si="10"/>
-        <v>28.885144337213333</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="8"/>
-        <v>172002857772.92615</v>
-      </c>
-      <c r="K27" s="7">
-        <f t="shared" si="9"/>
         <v>3494819.727596554</v>
       </c>
       <c r="V27" t="s">
@@ -44669,23 +44682,23 @@
         <v>0.15</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6309552</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5461710.6140112123</v>
       </c>
       <c r="I28">
+        <f t="shared" si="11"/>
+        <v>24.258866471111325</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>37537756991.708298</v>
+      </c>
+      <c r="K28" s="7">
         <f t="shared" si="10"/>
-        <v>24.258866471111325</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="8"/>
-        <v>37537756991.708298</v>
-      </c>
-      <c r="K28" s="7">
-        <f t="shared" si="9"/>
         <v>6503298.6309170518</v>
       </c>
     </row>
@@ -44791,11 +44804,11 @@
         <v>1.5E-3</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" ref="G36:G46" si="11">A36*$G$33</f>
+        <f t="shared" ref="G36:G46" si="12">A36*$G$33</f>
         <v>300000</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H46" si="12">G36-O3</f>
+        <f t="shared" ref="H36:H46" si="13">G36-O3</f>
         <v>-71219.422621636651</v>
       </c>
       <c r="I36">
@@ -44803,11 +44816,11 @@
         <v>-41.245554766816014</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J46" si="13">(G36-(H3+$I$49*M3))^2</f>
+        <f t="shared" ref="J36:J46" si="14">(G36-(H3+$I$49*M3))^2</f>
         <v>79172294166.790878</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" ref="K36:K46" si="14">H3+$I$49*M3</f>
+        <f t="shared" ref="K36:K46" si="15">H3+$I$49*M3</f>
         <v>581375.7170880083</v>
       </c>
     </row>
@@ -44816,19 +44829,19 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>500000</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>74784.114203040954</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:I46" si="15">H37/(M4)</f>
+        <f t="shared" ref="I37:I46" si="16">H37/(M4)</f>
         <v>25.099301895003066</v>
       </c>
       <c r="J37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>82857698225.580658</v>
       </c>
       <c r="K37" s="7">
@@ -44841,15 +44854,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>472565.50281178218</v>
       </c>
       <c r="I38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>81.462765067799182</v>
       </c>
       <c r="J38">
@@ -44857,7 +44870,7 @@
         <v>54506290808.123222</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1233465.8236404704</v>
       </c>
     </row>
@@ -44866,23 +44879,23 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1500000</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>955613.51236202882</v>
       </c>
       <c r="I39">
+        <f t="shared" si="16"/>
+        <v>146.16002240182661</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="14"/>
+        <v>25557434018.885662</v>
+      </c>
+      <c r="K39" s="7">
         <f t="shared" si="15"/>
-        <v>146.16002240182661</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="13"/>
-        <v>25557434018.885662</v>
-      </c>
-      <c r="K39" s="7">
-        <f t="shared" si="14"/>
         <v>1340133.0740306624</v>
       </c>
     </row>
@@ -44891,23 +44904,23 @@
         <v>0.01</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2000000</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1402491.1241150326</v>
       </c>
       <c r="I40">
+        <f t="shared" si="16"/>
+        <v>96.505457689859909</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="14"/>
+        <v>134154206783.20578</v>
+      </c>
+      <c r="K40" s="7">
         <f t="shared" si="15"/>
-        <v>96.505457689859909</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="13"/>
-        <v>134154206783.20578</v>
-      </c>
-      <c r="K40" s="7">
-        <f t="shared" si="14"/>
         <v>2366270.6742058471</v>
       </c>
     </row>
@@ -44916,23 +44929,23 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3000000</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2357819.0350347674</v>
       </c>
       <c r="I41">
+        <f t="shared" si="16"/>
+        <v>111.21221877608926</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="14"/>
+        <v>49521218652.920395</v>
+      </c>
+      <c r="K41" s="7">
         <f t="shared" si="15"/>
-        <v>111.21221877608926</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="13"/>
-        <v>49521218652.920395</v>
-      </c>
-      <c r="K41" s="7">
-        <f t="shared" si="14"/>
         <v>3222533.6348800343</v>
       </c>
     </row>
@@ -44941,23 +44954,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5000000</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4346869.1084118299</v>
       </c>
       <c r="I42">
+        <f t="shared" si="16"/>
+        <v>132.58778924014339</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="14"/>
+        <v>127216309452.45322</v>
+      </c>
+      <c r="K42" s="7">
         <f t="shared" si="15"/>
-        <v>132.58778924014339</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="13"/>
-        <v>127216309452.45322</v>
-      </c>
-      <c r="K42" s="7">
-        <f t="shared" si="14"/>
         <v>4643326.0460133748</v>
       </c>
     </row>
@@ -44966,23 +44979,23 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7000000.0000000009</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6343213.6113096308</v>
       </c>
       <c r="I43">
+        <f t="shared" si="16"/>
+        <v>168.93068293773635</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="14"/>
+        <v>3144073723388.3198</v>
+      </c>
+      <c r="K43" s="7">
         <f t="shared" si="15"/>
-        <v>168.93068293773635</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="13"/>
-        <v>3144073723388.3198</v>
-      </c>
-      <c r="K43" s="7">
-        <f t="shared" si="14"/>
         <v>5226846.3903574748</v>
       </c>
     </row>
@@ -44991,23 +45004,23 @@
         <v>0.05</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9326661.8167786021</v>
       </c>
       <c r="I44">
+        <f t="shared" si="16"/>
+        <v>161.14200638616006</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="14"/>
+        <v>5209121953595.668</v>
+      </c>
+      <c r="K44" s="7">
         <f t="shared" si="15"/>
-        <v>161.14200638616006</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="13"/>
-        <v>5209121953595.668</v>
-      </c>
-      <c r="K44" s="7">
-        <f t="shared" si="14"/>
         <v>7717649.905558819</v>
       </c>
     </row>
@@ -45016,23 +45029,23 @@
         <v>0.09</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18000000</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17271665.854396455</v>
       </c>
       <c r="I45">
+        <f t="shared" si="16"/>
+        <v>156.82502236019025</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="14"/>
+        <v>14957513405595.201</v>
+      </c>
+      <c r="K45" s="7">
         <f t="shared" si="15"/>
-        <v>156.82502236019025</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="13"/>
-        <v>14957513405595.201</v>
-      </c>
-      <c r="K45" s="7">
-        <f t="shared" si="14"/>
         <v>14132505.539034968</v>
       </c>
     </row>
@@ -45041,23 +45054,23 @@
         <v>0.15</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30000000</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29152158.614011213</v>
       </c>
       <c r="I46">
+        <f t="shared" si="16"/>
+        <v>129.48293550151539</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>3063712762062.7656</v>
+      </c>
+      <c r="K46" s="7">
         <f t="shared" si="15"/>
-        <v>129.48293550151539</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="13"/>
-        <v>3063712762062.7656</v>
-      </c>
-      <c r="K46" s="7">
-        <f t="shared" si="14"/>
         <v>28249653.530850887</v>
       </c>
     </row>
@@ -45092,10 +45105,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DA03A-D901-4E93-9092-92428B426BE7}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -45189,11 +45202,11 @@
         <v>-1.4210854715202004E-14</v>
       </c>
       <c r="J2" s="7">
-        <f>SUM(E2,G2,H2)</f>
+        <f t="shared" ref="J2:J13" si="0">SUM(E2,G2,H2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <f>C2+J2</f>
+        <f t="shared" ref="K2:K13" si="1">C2+J2</f>
         <v>0</v>
       </c>
     </row>
@@ -45231,11 +45244,11 @@
         <v>331.12153575149</v>
       </c>
       <c r="J3" s="7">
-        <f>SUM(E3,G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>419.56509645361393</v>
       </c>
       <c r="K3" s="7">
-        <f>C3+J3</f>
+        <f t="shared" si="1"/>
         <v>369912.27018393949</v>
       </c>
     </row>
@@ -45273,11 +45286,11 @@
         <v>990.74102956659692</v>
       </c>
       <c r="J4" s="7">
-        <f>SUM(E4,G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>1090.0607117791824</v>
       </c>
       <c r="K4" s="7">
-        <f>C4+J4</f>
+        <f t="shared" si="1"/>
         <v>423326.41685823706</v>
       </c>
     </row>
@@ -45315,11 +45328,11 @@
         <v>1676.9380370154699</v>
       </c>
       <c r="J5" s="7">
-        <f>SUM(E5,G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>2192.318979040363</v>
       </c>
       <c r="K5" s="7">
-        <f>C5+J5</f>
+        <f t="shared" si="1"/>
         <v>523825.81613468524</v>
       </c>
     </row>
@@ -45357,11 +45370,11 @@
         <v>1767.6644527446642</v>
       </c>
       <c r="J6" s="7">
-        <f>SUM(E6,G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>2546.4125513931126</v>
       </c>
       <c r="K6" s="7">
-        <f>C6+J6</f>
+        <f t="shared" si="1"/>
         <v>540394.7682387901</v>
       </c>
     </row>
@@ -45399,11 +45412,11 @@
         <v>3212.4570288802947</v>
       </c>
       <c r="J7" s="7">
-        <f>SUM(E7,G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>6825.3982403352602</v>
       </c>
       <c r="K7" s="7">
-        <f>C7+J7</f>
+        <f t="shared" si="1"/>
         <v>589801.50926735823</v>
       </c>
     </row>
@@ -45441,11 +45454,11 @@
         <v>4345.1299578032622</v>
       </c>
       <c r="J8" s="7">
-        <f>SUM(E8,G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>9941.8953192859026</v>
       </c>
       <c r="K8" s="7">
-        <f>C8+J8</f>
+        <f t="shared" si="1"/>
         <v>630921.78129353188</v>
       </c>
     </row>
@@ -45483,11 +45496,11 @@
         <v>5235.7569750857438</v>
       </c>
       <c r="J9" s="7">
-        <f>SUM(E9,G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>16436.375739526193</v>
       </c>
       <c r="K9" s="7">
-        <f>C9+J9</f>
+        <f t="shared" si="1"/>
         <v>636782.42995071318</v>
       </c>
     </row>
@@ -45525,11 +45538,11 @@
         <v>5777.345741592203</v>
       </c>
       <c r="J10" s="7">
-        <f>SUM(E10,G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>18424.113206563863</v>
       </c>
       <c r="K10" s="7">
-        <f>C10+J10</f>
+        <f t="shared" si="1"/>
         <v>637661.2923572578</v>
       </c>
     </row>
@@ -45567,11 +45580,11 @@
         <v>5866.8134412203117</v>
       </c>
       <c r="J11" s="7">
-        <f>SUM(E11,G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>29855.29424443654</v>
       </c>
       <c r="K11" s="7">
-        <f>C11+J11</f>
+        <f t="shared" si="1"/>
         <v>645314.95140089153</v>
       </c>
     </row>
@@ -45609,11 +45622,11 @@
         <v>6167.6063970395126</v>
       </c>
       <c r="J12" s="7">
-        <f>SUM(E12,G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>62195.289318588715</v>
       </c>
       <c r="K12" s="7">
-        <f>C12+J12</f>
+        <f t="shared" si="1"/>
         <v>680396.0799609106</v>
       </c>
     </row>
@@ -45651,11 +45664,11 @@
         <v>5723.8335915159323</v>
       </c>
       <c r="J13" s="7">
-        <f>SUM(E13,G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>129945.26037650084</v>
       </c>
       <c r="K13" s="7">
-        <f>C13+J13</f>
+        <f t="shared" si="1"/>
         <v>752643.7848669868</v>
       </c>
     </row>
@@ -45756,19 +45769,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="41">
-        <f>A19*$B$17</f>
+        <f t="shared" ref="B19:B30" si="2">A19*$B$17</f>
         <v>0</v>
       </c>
       <c r="C19" s="42">
-        <f>A19*$C$17+$C$16</f>
+        <f t="shared" ref="C19:C30" si="3">A19*$C$17+$C$16</f>
         <v>309521</v>
       </c>
       <c r="D19" s="42">
-        <f>B19-K2</f>
+        <f t="shared" ref="D19:D30" si="4">B19-K2</f>
         <v>0</v>
       </c>
       <c r="E19" s="42">
-        <f>C19-K2</f>
+        <f t="shared" ref="E19:E30" si="5">C19-K2</f>
         <v>309521</v>
       </c>
       <c r="F19" s="42">
@@ -45778,7 +45791,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="43">
-        <f>(B19-(C2+$F$33*J2))^2</f>
+        <f>(B19-(C2+$F$32*J2))^2</f>
         <v>0</v>
       </c>
       <c r="I19" s="44">
@@ -45807,19 +45820,19 @@
         <v>1.5E-3</v>
       </c>
       <c r="B20" s="45">
-        <f>A20*$B$17</f>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="C20" s="46">
-        <f>A20*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>369521</v>
       </c>
       <c r="D20" s="46">
-        <f>B20-K3</f>
+        <f t="shared" si="4"/>
         <v>-69912.270183939487</v>
       </c>
       <c r="E20" s="46">
-        <f>C20-K3</f>
+        <f t="shared" si="5"/>
         <v>-391.27018393948674</v>
       </c>
       <c r="F20" s="46">
@@ -45831,27 +45844,27 @@
         <v>-0.93256132897304678</v>
       </c>
       <c r="H20" s="43">
-        <f t="shared" ref="H20:H30" si="0">(B20-(C3+$F$33*J3))^2</f>
-        <v>29129825465.984989</v>
+        <f t="shared" ref="H20:H30" si="6">(B20-(C3+$F$32*J3))^2</f>
+        <v>31029540985.676144</v>
       </c>
       <c r="I20" s="44">
-        <f t="shared" ref="I20:I30" si="1">(C20-(C3+$F$35*J3))^2</f>
+        <f t="shared" ref="I20:I29" si="7">(C20-(C3+$F$35*J3))^2</f>
         <v>370350242.04066366</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" ref="J20:J35" si="2">C3+$F$32*J3</f>
+        <f t="shared" ref="J20:J35" si="8">C3+$F$32*J3</f>
         <v>476152.03940254607</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" ref="K20:K30" si="3">C3+$F$33*J3</f>
+        <f t="shared" ref="K20:K30" si="9">C3+$F$33*J3</f>
         <v>470674.61869295326</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" ref="L20:L30" si="4">C3+$F$34*J3</f>
+        <f t="shared" ref="L20:L30" si="10">C3+$F$34*J3</f>
         <v>384386.88498789747</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" ref="M20:M30" si="5">C3+$F$35*J3</f>
+        <f t="shared" ref="M20:M30" si="11">C3+$F$35*J3</f>
         <v>388765.48601653636</v>
       </c>
     </row>
@@ -45860,51 +45873,51 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="B21" s="45">
-        <f>A21*$B$17</f>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
       <c r="C21" s="46">
-        <f>A21*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>409521</v>
       </c>
       <c r="D21" s="46">
-        <f>B21-K4</f>
+        <f t="shared" si="4"/>
         <v>76673.583141762938</v>
       </c>
       <c r="E21" s="46">
-        <f>C21-K4</f>
+        <f t="shared" si="5"/>
         <v>-13805.416858237062</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" ref="F21:F30" si="6">D21/J4</f>
+        <f t="shared" ref="F21:F30" si="12">D21/J4</f>
         <v>70.338819033865875</v>
       </c>
       <c r="G21" s="46">
-        <f t="shared" ref="G21:G30" si="7">E21/J4</f>
+        <f t="shared" ref="G21:G30" si="13">E21/J4</f>
         <v>-12.664814637437988</v>
       </c>
       <c r="H21" s="43">
-        <f t="shared" si="0"/>
-        <v>34267320738.092007</v>
+        <f t="shared" si="6"/>
+        <v>39738462278.696556</v>
       </c>
       <c r="I21" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3942263401.6756787</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>699345.08340738318</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>685114.3450359588</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>460932.52148728672</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>472308.44621081254</v>
       </c>
     </row>
@@ -45913,51 +45926,51 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B22" s="45">
-        <f>A22*$B$17</f>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="C22" s="46">
-        <f>A22*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>509521</v>
       </c>
       <c r="D22" s="46">
-        <f>B22-K5</f>
+        <f t="shared" si="4"/>
         <v>476174.18386531476</v>
       </c>
       <c r="E22" s="46">
-        <f>C22-K5</f>
+        <f t="shared" si="5"/>
         <v>-14304.816134685243</v>
       </c>
       <c r="F22" s="46">
+        <f t="shared" si="12"/>
+        <v>217.20114108292262</v>
+      </c>
+      <c r="G22" s="46">
+        <f t="shared" si="13"/>
+        <v>-6.5249702581815194</v>
+      </c>
+      <c r="H22" s="43">
         <f t="shared" si="6"/>
-        <v>217.20114108292262</v>
-      </c>
-      <c r="G22" s="46">
+        <v>6233377473.4705591</v>
+      </c>
+      <c r="I22" s="44">
         <f t="shared" si="7"/>
-        <v>-6.5249702581815194</v>
-      </c>
-      <c r="H22" s="43">
-        <f t="shared" si="0"/>
-        <v>2533212141.8694215</v>
-      </c>
-      <c r="I22" s="44">
-        <f t="shared" si="1"/>
         <v>12727669552.138348</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1078951.7414213934</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1050331.0256389577</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>599458.82997982996</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>622337.97368808626</v>
       </c>
     </row>
@@ -45966,51 +45979,51 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="B23" s="45">
-        <f>A23*$B$17</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
       <c r="C23" s="46">
-        <f>A23*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>609521</v>
       </c>
       <c r="D23" s="46">
-        <f>B23-K6</f>
+        <f t="shared" si="4"/>
         <v>959605.2317612099</v>
       </c>
       <c r="E23" s="46">
-        <f>C23-K6</f>
+        <f t="shared" si="5"/>
         <v>69126.2317612099</v>
       </c>
       <c r="F23" s="46">
+        <f t="shared" si="12"/>
+        <v>376.8459400799847</v>
+      </c>
+      <c r="G23" s="46">
+        <f t="shared" si="13"/>
+        <v>27.146517057258354</v>
+      </c>
+      <c r="H23" s="43">
         <f t="shared" si="6"/>
-        <v>376.8459400799847</v>
-      </c>
-      <c r="G23" s="46">
+        <v>99110276015.425797</v>
+      </c>
+      <c r="I23" s="44">
         <f t="shared" si="7"/>
-        <v>27.146517057258354</v>
-      </c>
-      <c r="H23" s="43">
-        <f t="shared" si="0"/>
-        <v>121146634982.76881</v>
-      </c>
-      <c r="I23" s="44">
-        <f t="shared" si="1"/>
         <v>2051833574.1126113</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1185182.1542297422</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1151938.7482313367</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>628243.68876369868</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>654818.16960376897</v>
       </c>
     </row>
@@ -46019,51 +46032,51 @@
         <v>0.01</v>
       </c>
       <c r="B24" s="45">
-        <f>A24*$B$17</f>
+        <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
       <c r="C24" s="46">
-        <f>A24*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>709521</v>
       </c>
       <c r="D24" s="46">
-        <f>B24-K7</f>
+        <f t="shared" si="4"/>
         <v>1410198.4907326419</v>
       </c>
       <c r="E24" s="46">
-        <f>C24-K7</f>
+        <f t="shared" si="5"/>
         <v>119719.49073264177</v>
       </c>
       <c r="F24" s="46">
+        <f t="shared" si="12"/>
+        <v>206.61043371783882</v>
+      </c>
+      <c r="G24" s="46">
+        <f t="shared" si="13"/>
+        <v>17.540293843244115</v>
+      </c>
+      <c r="H24" s="43">
         <f t="shared" si="6"/>
-        <v>206.61043371783882</v>
-      </c>
-      <c r="G24" s="46">
+        <v>101180045029.55783</v>
+      </c>
+      <c r="I24" s="44">
         <f t="shared" si="7"/>
-        <v>17.540293843244115</v>
-      </c>
-      <c r="H24" s="43">
-        <f t="shared" si="0"/>
-        <v>52433013384.375496</v>
-      </c>
-      <c r="I24" s="44">
-        <f t="shared" si="1"/>
         <v>34961792031.58284</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2318088.1089093992</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2228982.561310628</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>825271.55014428799</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>896501.72636392992</v>
       </c>
     </row>
@@ -46072,51 +46085,51 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B25" s="45">
-        <f>A25*$B$17</f>
+        <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="C25" s="46">
-        <f>A25*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>909521</v>
       </c>
       <c r="D25" s="46">
-        <f>B25-K8</f>
+        <f t="shared" si="4"/>
         <v>2369078.2187064681</v>
       </c>
       <c r="E25" s="46">
-        <f>C25-K8</f>
+        <f t="shared" si="5"/>
         <v>278599.21870646812</v>
       </c>
       <c r="F25" s="46">
+        <f t="shared" si="12"/>
+        <v>238.29241232411528</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" si="13"/>
+        <v>28.022747148224759</v>
+      </c>
+      <c r="H25" s="43">
         <f t="shared" si="6"/>
-        <v>238.29241232411528</v>
-      </c>
-      <c r="G25" s="46">
+        <v>22007475644.885487</v>
+      </c>
+      <c r="I25" s="44">
         <f t="shared" si="7"/>
-        <v>28.022747148224759</v>
-      </c>
-      <c r="H25" s="43">
-        <f t="shared" si="0"/>
-        <v>344390571.21105129</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" si="1"/>
         <v>28271472254.749557</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>3148349.1679952587</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3018557.7630982576</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>973908.14117975277</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1077662.2271120606</v>
       </c>
     </row>
@@ -46125,51 +46138,51 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B26" s="45">
-        <f>A26*$B$17</f>
+        <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
       <c r="C26" s="46">
-        <f>A26*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>1309521</v>
       </c>
       <c r="D26" s="46">
-        <f>B26-K9</f>
+        <f t="shared" si="4"/>
         <v>4363217.5700492868</v>
       </c>
       <c r="E26" s="46">
-        <f>C26-K9</f>
+        <f t="shared" si="5"/>
         <v>672738.57004928682</v>
       </c>
       <c r="F26" s="46">
+        <f t="shared" si="12"/>
+        <v>265.46105048916729</v>
+      </c>
+      <c r="G26" s="46">
+        <f t="shared" si="13"/>
+        <v>40.929860737576426</v>
+      </c>
+      <c r="H26" s="43">
         <f t="shared" si="6"/>
-        <v>265.46105048916729</v>
-      </c>
-      <c r="G26" s="46">
+        <v>40520328726.549553</v>
+      </c>
+      <c r="I26" s="44">
         <f t="shared" si="7"/>
-        <v>40.929860737576426</v>
-      </c>
-      <c r="H26" s="43">
-        <f t="shared" si="0"/>
-        <v>172950718431.46527</v>
-      </c>
-      <c r="I26" s="44">
-        <f t="shared" si="1"/>
         <v>4333885758.6303024</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4798703.3812341858</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4584126.5595983975</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1203822.4664401743</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1375353.2546980605</v>
       </c>
     </row>
@@ -46178,51 +46191,51 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B27" s="45">
-        <f>A27*$B$17</f>
+        <f t="shared" si="2"/>
         <v>7000000.0000000009</v>
       </c>
       <c r="C27" s="46">
-        <f>A27*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>1709521.0000000002</v>
       </c>
       <c r="D27" s="46">
-        <f>B27-K10</f>
+        <f t="shared" si="4"/>
         <v>6362338.7076427434</v>
       </c>
       <c r="E27" s="46">
-        <f>C27-K10</f>
+        <f t="shared" si="5"/>
         <v>1071859.7076427424</v>
       </c>
       <c r="F27" s="46">
+        <f t="shared" si="12"/>
+        <v>345.32672679063143</v>
+      </c>
+      <c r="G27" s="46">
+        <f t="shared" si="13"/>
+        <v>58.177003996093369</v>
+      </c>
+      <c r="H27" s="43">
         <f t="shared" si="6"/>
-        <v>345.32672679063143</v>
-      </c>
-      <c r="G27" s="46">
+        <v>2880130557675.0469</v>
+      </c>
+      <c r="I27" s="44">
         <f t="shared" si="7"/>
-        <v>58.177003996093369</v>
-      </c>
-      <c r="H27" s="43">
-        <f t="shared" si="0"/>
-        <v>3754376949018.3662</v>
-      </c>
-      <c r="I27" s="44">
-        <f t="shared" si="1"/>
         <v>59521177421.921738</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5302905.2596643157</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5062378.5330931218</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1273276.4663163493</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1465551.3760261913</v>
       </c>
     </row>
@@ -46231,51 +46244,51 @@
         <v>0.05</v>
       </c>
       <c r="B28" s="45">
-        <f>A28*$B$17</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="C28" s="46">
-        <f>A28*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>2309521</v>
       </c>
       <c r="D28" s="46">
-        <f>B28-K11</f>
+        <f t="shared" si="4"/>
         <v>9354685.0485991091</v>
       </c>
       <c r="E28" s="46">
-        <f>C28-K11</f>
+        <f t="shared" si="5"/>
         <v>1664206.0485991086</v>
       </c>
       <c r="F28" s="46">
+        <f t="shared" si="12"/>
+        <v>313.33421040867256</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="13"/>
+        <v>55.742409871215031</v>
+      </c>
+      <c r="H28" s="43">
         <f t="shared" si="6"/>
-        <v>313.33421040867256</v>
-      </c>
-      <c r="G28" s="46">
+        <v>3221686310016.6226</v>
+      </c>
+      <c r="I28" s="44">
         <f t="shared" si="7"/>
-        <v>55.742409871215031</v>
-      </c>
-      <c r="H28" s="43">
-        <f t="shared" si="0"/>
-        <v>4772767304039.0576</v>
-      </c>
-      <c r="I28" s="44">
-        <f t="shared" si="1"/>
         <v>104105770642.6185</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8205094.3450931404</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7815333.5943354974</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1675295.4900580654</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1986866.7413226683</v>
       </c>
     </row>
@@ -46284,51 +46297,51 @@
         <v>0.09</v>
       </c>
       <c r="B29" s="45">
-        <f>A29*$B$17</f>
+        <f t="shared" si="2"/>
         <v>18000000</v>
       </c>
       <c r="C29" s="46">
-        <f>A29*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>3909521</v>
       </c>
       <c r="D29" s="46">
-        <f>B29-K12</f>
+        <f t="shared" si="4"/>
         <v>17319603.920039088</v>
       </c>
       <c r="E29" s="46">
-        <f>C29-K12</f>
+        <f t="shared" si="5"/>
         <v>3229124.9200390894</v>
       </c>
       <c r="F29" s="46">
+        <f t="shared" si="12"/>
+        <v>278.47131366044891</v>
+      </c>
+      <c r="G29" s="46">
+        <f t="shared" si="13"/>
+        <v>51.919123705627328</v>
+      </c>
+      <c r="H29" s="43">
         <f t="shared" si="6"/>
-        <v>278.47131366044891</v>
-      </c>
-      <c r="G29" s="46">
+        <v>2467676605710.5039</v>
+      </c>
+      <c r="I29" s="44">
         <f t="shared" si="7"/>
-        <v>51.919123705627328</v>
-      </c>
-      <c r="H29" s="43">
-        <f t="shared" si="0"/>
-        <v>5677942105037.2637</v>
-      </c>
-      <c r="I29" s="44">
-        <f t="shared" si="1"/>
         <v>188678134025.68134</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16429115.979548298</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15617156.71832215</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2826077.0794451539</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3475150.0363920704</v>
       </c>
     </row>
@@ -46337,32 +46350,32 @@
         <v>0.15</v>
       </c>
       <c r="B30" s="48">
-        <f>A30*$B$17</f>
+        <f t="shared" si="2"/>
         <v>30000000</v>
       </c>
       <c r="C30" s="49">
-        <f>A30*$C$17+$C$16</f>
+        <f t="shared" si="3"/>
         <v>6309521</v>
       </c>
       <c r="D30" s="49">
-        <f>B30-K13</f>
+        <f t="shared" si="4"/>
         <v>29247356.215133011</v>
       </c>
       <c r="E30" s="49">
-        <f>C30-K13</f>
+        <f t="shared" si="5"/>
         <v>5556877.2151330132</v>
       </c>
       <c r="F30" s="49">
+        <f t="shared" si="12"/>
+        <v>225.07443619253445</v>
+      </c>
+      <c r="G30" s="49">
+        <f t="shared" si="13"/>
+        <v>42.763215826669068</v>
+      </c>
+      <c r="H30" s="43">
         <f t="shared" si="6"/>
-        <v>225.07443619253445</v>
-      </c>
-      <c r="G30" s="49">
-        <f t="shared" si="7"/>
-        <v>42.763215826669068</v>
-      </c>
-      <c r="H30" s="43">
-        <f t="shared" si="0"/>
-        <v>3842274526449.1479</v>
+        <v>13370774288585.053</v>
       </c>
       <c r="I30" s="44">
         <f>(C30-(C13+$F$35*J13))^2</f>
@@ -46373,15 +46386,15 @@
         <v>33656606.936571807</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>31960172.065521073</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5235637.2594155082</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6591752.0925143538</v>
       </c>
     </row>
@@ -46408,6 +46421,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="5" t="s">
         <v>107</v>
       </c>
@@ -46422,14 +46437,14 @@
       </c>
       <c r="H32">
         <f>SUM(H19:H26)</f>
-        <v>412805115715.76709</v>
+        <v>339819506154.26196</v>
       </c>
       <c r="I32">
         <f>SUM(I19:I26)</f>
         <v>182462516255.92999</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="5" t="s">
         <v>108</v>
       </c>
@@ -46444,39 +46459,85 @@
       </c>
       <c r="H33">
         <f>SUM(H19:H30)</f>
-        <v>18460166000259.602</v>
+        <v>22280087268141.488</v>
       </c>
       <c r="I33">
         <f>SUM(I19:I30)</f>
         <v>614421987927.99731</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="59">
         <v>35.49909186036939</v>
       </c>
       <c r="I34" s="47"/>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F35" s="62">
         <v>45.935138770965942</v>
       </c>
-      <c r="I35" s="47"/>
-      <c r="J35" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="H35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H36" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="61">
+        <f>(B26/C9)*$J$35</f>
+        <v>0.60450130609251407</v>
+      </c>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61">
+        <f>(C26/C9)*J35</f>
+        <v>0.15832143097111501</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="G38" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="61">
+        <f>(B26/C9)</f>
+        <v>8.0600174145668539</v>
+      </c>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61">
+        <f>(C26/C9)</f>
+        <v>2.1109524129482002</v>
       </c>
     </row>
   </sheetData>

--- a/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39955D89-1242-460E-B592-81812B2045AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE0BA6-864E-46DB-BBB6-33BD91FBEE3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10172" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="verti intg uptk" sheetId="5" r:id="rId5"/>
     <sheet name="vert + sloped intg uptk" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'uptake area'!$E$52,'uptake area'!$F$52</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'vert + sloped intg uptk'!$F$32</definedName>
@@ -113,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
   <si>
     <t>L</t>
   </si>
@@ -483,15 +486,76 @@
   <si>
     <t>θgua</t>
   </si>
+  <si>
+    <t>ML at 0.015L using CO</t>
+  </si>
+  <si>
+    <t>Case 2 works if second peak is chemisorbed</t>
+  </si>
+  <si>
+    <t>Case 1 works if 2nd peak is physisorbed</t>
+  </si>
+  <si>
+    <t>supported by annealing to 191 K in IRAS</t>
+  </si>
+  <si>
+    <t>model 1a (7.15 Layers @ 0.015 L)</t>
+  </si>
+  <si>
+    <t>model 2a (7.15 Layers @ 0.015 L)</t>
+  </si>
+  <si>
+    <t>pros</t>
+  </si>
+  <si>
+    <t>leads to physisorbed seconds peak</t>
+  </si>
+  <si>
+    <t>leads to chemisorbed second peak</t>
+  </si>
+  <si>
+    <t>supported (somewhat) by IRAS between 100-191</t>
+  </si>
+  <si>
+    <t>agrees very well w/ TPD ratio: multi/(2nd peak + recomb)</t>
+  </si>
+  <si>
+    <t>no peak shifts in IRAS from 100 - 191 K</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase in intensity of peaks after desorbing 5 layers? </t>
+  </si>
+  <si>
+    <t>doesn't match TPD area ratio well: (multi + second)/recomb</t>
+  </si>
+  <si>
+    <t>no peak shifts in IRAS from 100-191 K</t>
+  </si>
+  <si>
+    <t>additional info</t>
+  </si>
+  <si>
+    <t>ratio of b(CCO) o.o.p mode decreases from 100-191 K suggesting that the ring is tilted away from the surface at 191 K</t>
+  </si>
+  <si>
+    <t>θGUA</t>
+  </si>
+  <si>
+    <t>Case 2 a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -545,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -796,7 +866,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -824,6 +893,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -7366,147 +7449,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'vert + sloped intg uptk'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO + GUA total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$K$2:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>369912.27018393949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>423326.41685823706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>523825.81613468524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>540394.7682387901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>589801.50926735823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>630921.78129353188</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>636782.42995071318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>637661.2923572578</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>645314.95140089153</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>680396.0799609106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>752643.7848669868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-B95E-4EF6-88AA-01DC0792ED20}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
@@ -8871,6 +8813,167 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CO + GUA total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.4999999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$K$2:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>369912.27018393949</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>423326.41685823706</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>523825.81613468524</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>540394.7682387901</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>589801.50926735823</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>630921.78129353188</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>636782.42995071318</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>637661.2923572578</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>645314.95140089153</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>680396.0799609106</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>752643.7848669868</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-B95E-4EF6-88AA-01DC0792ED20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="11"/>
                 <c:order val="11"/>
                 <c:tx>
@@ -9525,28 +9628,271 @@
           </c:ext>
         </c:extLst>
       </c:scatterChart>
-      <c:valAx>
-        <c:axId val="881002656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="3.0000000000000006E-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$A$19:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$N$19:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13639179981394384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17530099498283538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21891979265516875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23322426781711439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42085031876237511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53660391711807498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81872558441365972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9063695873915345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4110177225224736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8127628626255956</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7205919971853456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD9D-4427-94BE-F5EF2AA31305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4170101427511459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD9D-4427-94BE-F5EF2AA31305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="846570175"/>
+        <c:axId val="846571471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="881002656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -9647,24 +9993,11 @@
         <c:axId val="868150512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000000"/>
+          <c:max val="10000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -9792,6 +10125,70 @@
             </c:txPr>
           </c:dispUnitsLbl>
         </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="846571471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.4170101399999999"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846570175"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="846570175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="846571471"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -18423,6 +18820,1128 @@
             </c:txPr>
           </c:dispUnitsLbl>
         </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>748</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32591093117408909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32603950103950102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24724108658743638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1324125506680678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>760</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.46052631578947373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41767151767151772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40110356536502545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20267227143071612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>837</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1133603238866407E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9251559251559248E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6956706281833603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24771055397087521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1027</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26113360323886642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2354469854469855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21010186757215621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19876895361056901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1043</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22064777327935223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20270270270270271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21010186757215621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15298003302807384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25607287449392713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24532224532224531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23662988115449918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23244257618976133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1232</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28390688259109309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27546777546777551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24034380305602721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2867437321723465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1268</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.88765182186234814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87650727650727644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9433361629881154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66784266626632627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1458</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16093117408906882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18607068607068608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1467529711375212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43431917129560127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>raw 1508/ raw 1508</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>big dose</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-06F4-4F5D-A850-4A3CD1872F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1882411392"/>
+        <c:axId val="1891146816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1882411392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891146816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1891146816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882411392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -30001,6 +31520,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -33934,6 +35493,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -38952,15 +41027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>799465</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>178184</xdr:rowOff>
+      <xdr:colOff>782839</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>448890</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>88187</xdr:rowOff>
+      <xdr:colOff>432264</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38987,16 +41062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66501</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128846</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191191</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>357447</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>307570</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39029,15 +41104,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390698</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133005</xdr:rowOff>
+      <xdr:colOff>640079</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>83126</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>83126</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1230285</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>473824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39064,16 +41139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>415635</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>58191</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33249</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199503</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>8312</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>515386</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>116375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39102,16 +41177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>83125</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>764768</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>174565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>149627</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>33246</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1479662</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>124686</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39140,16 +41215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133005</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74814</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1496292</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1213658</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>24935</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>99750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39176,7 +41251,243 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1155471</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>232756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>407326</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>365758</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D5C2C4-D3F9-4145-ADDA-82CE97F435B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>big dose</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>100 K</v>
+          </cell>
+          <cell r="E2">
+            <v>191</v>
+          </cell>
+          <cell r="F2">
+            <v>249</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>748</v>
+          </cell>
+          <cell r="C3">
+            <v>0.32591093117408909</v>
+          </cell>
+          <cell r="D3">
+            <v>0.32603950103950102</v>
+          </cell>
+          <cell r="E3">
+            <v>0.24724108658743638</v>
+          </cell>
+          <cell r="F3">
+            <v>1.1324125506680678</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>760</v>
+          </cell>
+          <cell r="C4">
+            <v>0.46052631578947373</v>
+          </cell>
+          <cell r="D4">
+            <v>0.41767151767151772</v>
+          </cell>
+          <cell r="E4">
+            <v>0.40110356536502545</v>
+          </cell>
+          <cell r="F4">
+            <v>0.20267227143071612</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>837</v>
+          </cell>
+          <cell r="C5">
+            <v>6.1133603238866407E-2</v>
+          </cell>
+          <cell r="D5">
+            <v>5.9251559251559248E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>6.6956706281833603E-2</v>
+          </cell>
+          <cell r="F5">
+            <v>0.24771055397087521</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1027</v>
+          </cell>
+          <cell r="C6">
+            <v>0.26113360323886642</v>
+          </cell>
+          <cell r="D6">
+            <v>0.2354469854469855</v>
+          </cell>
+          <cell r="E6">
+            <v>0.21010186757215621</v>
+          </cell>
+          <cell r="F6">
+            <v>0.19876895361056901</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>1043</v>
+          </cell>
+          <cell r="C7">
+            <v>0.22064777327935223</v>
+          </cell>
+          <cell r="D7">
+            <v>0.20270270270270271</v>
+          </cell>
+          <cell r="E7">
+            <v>0.21010186757215621</v>
+          </cell>
+          <cell r="F7">
+            <v>0.15298003302807384</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>1112</v>
+          </cell>
+          <cell r="C8">
+            <v>0.25607287449392713</v>
+          </cell>
+          <cell r="D8">
+            <v>0.24532224532224531</v>
+          </cell>
+          <cell r="E8">
+            <v>0.23662988115449918</v>
+          </cell>
+          <cell r="F8">
+            <v>0.23244257618976133</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1232</v>
+          </cell>
+          <cell r="C9">
+            <v>0.28390688259109309</v>
+          </cell>
+          <cell r="D9">
+            <v>0.27546777546777551</v>
+          </cell>
+          <cell r="E9">
+            <v>0.24034380305602721</v>
+          </cell>
+          <cell r="F9">
+            <v>0.2867437321723465</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1268</v>
+          </cell>
+          <cell r="C10">
+            <v>0.88765182186234814</v>
+          </cell>
+          <cell r="D10">
+            <v>0.87650727650727644</v>
+          </cell>
+          <cell r="E10">
+            <v>0.9433361629881154</v>
+          </cell>
+          <cell r="F10">
+            <v>0.66784266626632627</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>1458</v>
+          </cell>
+          <cell r="C11">
+            <v>0.16093117408906882</v>
+          </cell>
+          <cell r="D11">
+            <v>0.18607068607068608</v>
+          </cell>
+          <cell r="E11">
+            <v>0.1467529711375212</v>
+          </cell>
+          <cell r="F11">
+            <v>0.43431917129560127</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>raw 1508/ raw 1508</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>1</v>
+          </cell>
+          <cell r="F13">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39809,7 +42120,7 @@
   <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="M16" sqref="M16:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -43634,8 +45945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D5658-95D9-452B-9C87-7CE505A65620}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -45105,10 +47416,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DA03A-D901-4E93-9092-92428B426BE7}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -45116,7 +47427,7 @@
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
@@ -45125,10 +47436,15 @@
     <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45167,8 +47483,17 @@
       <c r="K1" s="20" t="s">
         <v>91</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -45209,8 +47534,25 @@
         <f t="shared" ref="K2:K13" si="1">C2+J2</f>
         <v>0</v>
       </c>
+      <c r="M2" s="60">
+        <f t="shared" ref="M2:M7" si="2">E2/I2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>750000</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2253432</v>
+      </c>
+      <c r="S2" s="7">
+        <f>SUM(J14,M14)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.5E-3</v>
       </c>
@@ -45251,8 +47593,24 @@
         <f t="shared" si="1"/>
         <v>369912.27018393949</v>
       </c>
+      <c r="M3" s="60">
+        <f t="shared" si="2"/>
+        <v>0.26710301551784826</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>0.85</v>
+      </c>
+      <c r="R3">
+        <v>0.77</v>
+      </c>
+      <c r="S3">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -45293,8 +47651,12 @@
         <f t="shared" si="1"/>
         <v>423326.41685823706</v>
       </c>
+      <c r="M4" s="60">
+        <f t="shared" si="2"/>
+        <v>0.10024787431689695</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -45335,8 +47697,19 @@
         <f t="shared" si="1"/>
         <v>523825.81613468524</v>
       </c>
+      <c r="M5" s="60">
+        <f t="shared" si="2"/>
+        <v>0.30733451722649335</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="R5" s="69">
+        <f>Q5*R3/R2</f>
+        <v>3.4170101427511459</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -45377,8 +47750,12 @@
         <f t="shared" si="1"/>
         <v>540394.7682387901</v>
       </c>
+      <c r="M6" s="60">
+        <f t="shared" si="2"/>
+        <v>0.4405519935863853</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.01</v>
       </c>
@@ -45419,8 +47796,12 @@
         <f t="shared" si="1"/>
         <v>589801.50926735823</v>
       </c>
+      <c r="M7" s="60">
+        <f t="shared" si="2"/>
+        <v>1.1246660045486305</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -45461,8 +47842,20 @@
         <f t="shared" si="1"/>
         <v>630921.78129353188</v>
       </c>
+      <c r="M8" s="60">
+        <f>E8/I8</f>
+        <v>1.2880547684037877</v>
+      </c>
+      <c r="N8" s="60">
+        <f>(M8-(J42-1))/M8</f>
+        <v>5.8086818315190102E-2</v>
+      </c>
+      <c r="O8">
+        <f>(E8+G8)/H8</f>
+        <v>13.828360080217269</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -45503,8 +47896,12 @@
         <f t="shared" si="1"/>
         <v>636782.42995071318</v>
       </c>
+      <c r="M9" s="60">
+        <f t="shared" ref="M9:M13" si="3">E9/I9</f>
+        <v>2.1392549000533054</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -45545,8 +47942,12 @@
         <f t="shared" si="1"/>
         <v>637661.2923572578</v>
       </c>
+      <c r="M10" s="60">
+        <f t="shared" si="3"/>
+        <v>2.189027285302521</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.05</v>
       </c>
@@ -45587,8 +47988,12 @@
         <f t="shared" si="1"/>
         <v>645314.95140089153</v>
       </c>
+      <c r="M11" s="60">
+        <f t="shared" si="3"/>
+        <v>4.0888432951818157</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -45629,8 +48034,12 @@
         <f t="shared" si="1"/>
         <v>680396.0799609106</v>
       </c>
+      <c r="M12" s="60">
+        <f t="shared" si="3"/>
+        <v>9.0841858761354839</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.15</v>
       </c>
@@ -45671,8 +48080,12 @@
         <f t="shared" si="1"/>
         <v>752643.7848669868</v>
       </c>
+      <c r="M13" s="60">
+        <f t="shared" si="3"/>
+        <v>21.70248746733488</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -45683,7 +48096,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
@@ -45694,7 +48107,7 @@
         <v>309521</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
@@ -45704,26 +48117,32 @@
       <c r="C17" s="8">
         <v>40000000</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="54" t="s">
         <v>119</v>
       </c>
+      <c r="N17" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="54" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -45763,25 +48182,34 @@
       <c r="M18" s="5" t="s">
         <v>106</v>
       </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="41">
-        <f t="shared" ref="B19:B30" si="2">A19*$B$17</f>
+        <f t="shared" ref="B19:B30" si="4">A19*$B$17</f>
         <v>0</v>
       </c>
       <c r="C19" s="42">
-        <f t="shared" ref="C19:C30" si="3">A19*$C$17+$C$16</f>
+        <f t="shared" ref="C19:C30" si="5">A19*$C$17+$C$16</f>
         <v>309521</v>
       </c>
       <c r="D19" s="42">
-        <f t="shared" ref="D19:D30" si="4">B19-K2</f>
+        <f t="shared" ref="D19:D30" si="6">B19-K2</f>
         <v>0</v>
       </c>
       <c r="E19" s="42">
-        <f t="shared" ref="E19:E30" si="5">C19-K2</f>
+        <f t="shared" ref="E19:E30" si="7">C19-K2</f>
         <v>309521</v>
       </c>
       <c r="F19" s="42">
@@ -45814,25 +48242,35 @@
         <f>C2+$F$35*J2</f>
         <v>0</v>
       </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f>(C2/$R$2)*$R$3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.5E-3</v>
       </c>
       <c r="B20" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300000</v>
       </c>
       <c r="C20" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>369521</v>
       </c>
       <c r="D20" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-69912.270183939487</v>
       </c>
       <c r="E20" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-391.27018393948674</v>
       </c>
       <c r="F20" s="46">
@@ -45844,537 +48282,657 @@
         <v>-0.93256132897304678</v>
       </c>
       <c r="H20" s="43">
-        <f t="shared" ref="H20:H30" si="6">(B20-(C3+$F$32*J3))^2</f>
+        <f t="shared" ref="H20:H30" si="8">(B20-(C3+$F$32*J3))^2</f>
         <v>31029540985.676144</v>
       </c>
       <c r="I20" s="44">
-        <f t="shared" ref="I20:I29" si="7">(C20-(C3+$F$35*J3))^2</f>
+        <f t="shared" ref="I20:I29" si="9">(C20-(C3+$F$35*J3))^2</f>
         <v>370350242.04066366</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" ref="J20:J35" si="8">C3+$F$32*J3</f>
+        <f t="shared" ref="J20:J29" si="10">C3+$F$32*J3</f>
         <v>476152.03940254607</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" ref="K20:K30" si="9">C3+$F$33*J3</f>
+        <f t="shared" ref="K20:K30" si="11">C3+$F$33*J3</f>
         <v>470674.61869295326</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" ref="L20:L30" si="10">C3+$F$34*J3</f>
+        <f t="shared" ref="L20:L30" si="12">C3+$F$34*J3</f>
         <v>384386.88498789747</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" ref="M20:M30" si="11">C3+$F$35*J3</f>
+        <f t="shared" ref="M20:M30" si="13">C3+$F$35*J3</f>
         <v>388765.48601653636</v>
       </c>
+      <c r="N20" s="3">
+        <f t="shared" ref="N20:N30" si="14">(J20/C3)*($J$34/2)</f>
+        <v>0.13639179981394384</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" ref="O20:O30" si="15">(L20/C3)*($J$34/2)</f>
+        <v>0.11010604750146204</v>
+      </c>
+      <c r="P20" s="3">
+        <f>(C3/$R$2)*$R$3</f>
+        <v>0.12625603209564973</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="B21" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>500000</v>
       </c>
       <c r="C21" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>409521</v>
       </c>
       <c r="D21" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>76673.583141762938</v>
       </c>
       <c r="E21" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-13805.416858237062</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" ref="F21:F30" si="12">D21/J4</f>
+        <f t="shared" ref="F21:F30" si="16">D21/J4</f>
         <v>70.338819033865875</v>
       </c>
       <c r="G21" s="46">
-        <f t="shared" ref="G21:G30" si="13">E21/J4</f>
+        <f t="shared" ref="G21:G30" si="17">E21/J4</f>
         <v>-12.664814637437988</v>
       </c>
       <c r="H21" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>39738462278.696556</v>
       </c>
       <c r="I21" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3942263401.6756787</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>699345.08340738318</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>685114.3450359588</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>460932.52148728672</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>472308.44621081254</v>
       </c>
+      <c r="N21" s="3">
+        <f t="shared" si="14"/>
+        <v>0.17530099498283538</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="15"/>
+        <v>0.11553942617710476</v>
+      </c>
+      <c r="P21" s="3">
+        <f>(C4/$R$2)*$R$3</f>
+        <v>0.14427859115907318</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B22" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="C22" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>509521</v>
       </c>
       <c r="D22" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>476174.18386531476</v>
       </c>
       <c r="E22" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-14304.816134685243</v>
       </c>
       <c r="F22" s="46">
+        <f t="shared" si="16"/>
+        <v>217.20114108292262</v>
+      </c>
+      <c r="G22" s="46">
+        <f t="shared" si="17"/>
+        <v>-6.5249702581815194</v>
+      </c>
+      <c r="H22" s="43">
+        <f t="shared" si="8"/>
+        <v>6233377473.4705591</v>
+      </c>
+      <c r="I22" s="44">
+        <f t="shared" si="9"/>
+        <v>12727669552.138348</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="10"/>
+        <v>1078951.7414213934</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="11"/>
+        <v>1050331.0256389577</v>
+      </c>
+      <c r="L22" s="9">
         <f t="shared" si="12"/>
-        <v>217.20114108292262</v>
-      </c>
-      <c r="G22" s="46">
+        <v>599458.82997982996</v>
+      </c>
+      <c r="M22" s="9">
         <f t="shared" si="13"/>
-        <v>-6.5249702581815194</v>
-      </c>
-      <c r="H22" s="43">
-        <f t="shared" si="6"/>
-        <v>6233377473.4705591</v>
-      </c>
-      <c r="I22" s="44">
-        <f t="shared" si="7"/>
-        <v>12727669552.138348</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" si="8"/>
-        <v>1078951.7414213934</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="9"/>
-        <v>1050331.0256389577</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="10"/>
-        <v>599458.82997982996</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="11"/>
         <v>622337.97368808626</v>
       </c>
+      <c r="N22" s="3">
+        <f t="shared" si="14"/>
+        <v>0.21891979265516875</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="15"/>
+        <v>0.12163046568849288</v>
+      </c>
+      <c r="P22" s="3">
+        <f>(C5/$R$2)*$R$3</f>
+        <v>0.17824269505795895</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="B23" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1500000</v>
       </c>
       <c r="C23" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>609521</v>
       </c>
       <c r="D23" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>959605.2317612099</v>
       </c>
       <c r="E23" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69126.2317612099</v>
       </c>
       <c r="F23" s="46">
+        <f t="shared" si="16"/>
+        <v>376.8459400799847</v>
+      </c>
+      <c r="G23" s="46">
+        <f t="shared" si="17"/>
+        <v>27.146517057258354</v>
+      </c>
+      <c r="H23" s="43">
+        <f t="shared" si="8"/>
+        <v>99110276015.425797</v>
+      </c>
+      <c r="I23" s="44">
+        <f t="shared" si="9"/>
+        <v>2051833574.1126113</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="10"/>
+        <v>1185182.1542297422</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="11"/>
+        <v>1151938.7482313367</v>
+      </c>
+      <c r="L23" s="9">
         <f t="shared" si="12"/>
-        <v>376.8459400799847</v>
-      </c>
-      <c r="G23" s="46">
+        <v>628243.68876369868</v>
+      </c>
+      <c r="M23" s="9">
         <f t="shared" si="13"/>
-        <v>27.146517057258354</v>
-      </c>
-      <c r="H23" s="43">
-        <f t="shared" si="6"/>
-        <v>99110276015.425797</v>
-      </c>
-      <c r="I23" s="44">
-        <f t="shared" si="7"/>
-        <v>2051833574.1126113</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" si="8"/>
-        <v>1185182.1542297422</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" si="9"/>
-        <v>1151938.7482313367</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="10"/>
-        <v>628243.68876369868</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="11"/>
         <v>654818.16960376897</v>
       </c>
+      <c r="N23" s="3">
+        <f t="shared" si="14"/>
+        <v>0.23322426781711439</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="15"/>
+        <v>0.12362797887204278</v>
+      </c>
+      <c r="P23" s="3">
+        <f>(C6/$R$2)*$R$3</f>
+        <v>0.18378332866458613</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.01</v>
       </c>
       <c r="B24" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
       <c r="C24" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>709521</v>
       </c>
       <c r="D24" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1410198.4907326419</v>
       </c>
       <c r="E24" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>119719.49073264177</v>
       </c>
       <c r="F24" s="46">
+        <f t="shared" si="16"/>
+        <v>206.61043371783882</v>
+      </c>
+      <c r="G24" s="46">
+        <f t="shared" si="17"/>
+        <v>17.540293843244115</v>
+      </c>
+      <c r="H24" s="43">
+        <f t="shared" si="8"/>
+        <v>101180045029.55783</v>
+      </c>
+      <c r="I24" s="44">
+        <f t="shared" si="9"/>
+        <v>34961792031.58284</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="10"/>
+        <v>2318088.1089093992</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="11"/>
+        <v>2228982.561310628</v>
+      </c>
+      <c r="L24" s="9">
         <f t="shared" si="12"/>
-        <v>206.61043371783882</v>
-      </c>
-      <c r="G24" s="46">
+        <v>825271.55014428799</v>
+      </c>
+      <c r="M24" s="9">
         <f t="shared" si="13"/>
-        <v>17.540293843244115</v>
-      </c>
-      <c r="H24" s="43">
-        <f t="shared" si="6"/>
-        <v>101180045029.55783</v>
-      </c>
-      <c r="I24" s="44">
-        <f t="shared" si="7"/>
-        <v>34961792031.58284</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" si="8"/>
-        <v>2318088.1089093992</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="9"/>
-        <v>2228982.561310628</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="10"/>
-        <v>825271.55014428799</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="11"/>
         <v>896501.72636392992</v>
       </c>
+      <c r="N24" s="3">
+        <f t="shared" si="14"/>
+        <v>0.42085031876237511</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="15"/>
+        <v>0.14982855639044115</v>
+      </c>
+      <c r="P24" s="3">
+        <f>(C7/$R$2)*$R$3</f>
+        <v>0.19920352843609554</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B25" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3000000</v>
       </c>
       <c r="C25" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>909521</v>
       </c>
       <c r="D25" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2369078.2187064681</v>
       </c>
       <c r="E25" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>278599.21870646812</v>
       </c>
       <c r="F25" s="46">
+        <f t="shared" si="16"/>
+        <v>238.29241232411528</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" si="17"/>
+        <v>28.022747148224759</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="8"/>
+        <v>22007475644.885487</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="9"/>
+        <v>28271472254.749557</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="10"/>
+        <v>3148349.1679952587</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="11"/>
+        <v>3018557.7630982576</v>
+      </c>
+      <c r="L25" s="9">
         <f t="shared" si="12"/>
-        <v>238.29241232411528</v>
-      </c>
-      <c r="G25" s="46">
+        <v>973908.14117975277</v>
+      </c>
+      <c r="M25" s="9">
         <f t="shared" si="13"/>
-        <v>28.022747148224759</v>
-      </c>
-      <c r="H25" s="43">
-        <f t="shared" si="6"/>
-        <v>22007475644.885487</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" si="7"/>
-        <v>28271472254.749557</v>
-      </c>
-      <c r="J25" s="9">
-        <f t="shared" si="8"/>
-        <v>3148349.1679952587</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="9"/>
-        <v>3018557.7630982576</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="10"/>
-        <v>973908.14117975277</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="11"/>
         <v>1077662.2271120606</v>
       </c>
+      <c r="N25" s="3">
+        <f t="shared" si="14"/>
+        <v>0.53660391711807498</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="15"/>
+        <v>0.16599268238186268</v>
+      </c>
+      <c r="P25" s="3">
+        <f>(C8/$R$2)*$R$3</f>
+        <v>0.21218945688184485</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B26" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5000000</v>
       </c>
       <c r="C26" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1309521</v>
       </c>
       <c r="D26" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4363217.5700492868</v>
       </c>
       <c r="E26" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>672738.57004928682</v>
       </c>
       <c r="F26" s="46">
+        <f t="shared" si="16"/>
+        <v>265.46105048916729</v>
+      </c>
+      <c r="G26" s="46">
+        <f t="shared" si="17"/>
+        <v>40.929860737576426</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" si="8"/>
+        <v>40520328726.549553</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" si="9"/>
+        <v>4333885758.6303024</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="10"/>
+        <v>4798703.3812341858</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="11"/>
+        <v>4584126.5595983975</v>
+      </c>
+      <c r="L26" s="9">
         <f t="shared" si="12"/>
-        <v>265.46105048916729</v>
-      </c>
-      <c r="G26" s="46">
+        <v>1203822.4664401743</v>
+      </c>
+      <c r="M26" s="9">
         <f t="shared" si="13"/>
-        <v>40.929860737576426</v>
-      </c>
-      <c r="H26" s="43">
-        <f t="shared" si="6"/>
-        <v>40520328726.549553</v>
-      </c>
-      <c r="I26" s="44">
-        <f t="shared" si="7"/>
-        <v>4333885758.6303024</v>
-      </c>
-      <c r="J26" s="9">
-        <f t="shared" si="8"/>
-        <v>4798703.3812341858</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="9"/>
-        <v>4584126.5595983975</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="10"/>
-        <v>1203822.4664401743</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="11"/>
         <v>1375353.2546980605</v>
       </c>
+      <c r="N26" s="3">
+        <f t="shared" si="14"/>
+        <v>0.81872558441365972</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="15"/>
+        <v>0.20538886738047077</v>
+      </c>
+      <c r="P26" s="3">
+        <f>(C9/$R$2)*$R$3</f>
+        <v>0.21197287592552777</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B27" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7000000.0000000009</v>
       </c>
       <c r="C27" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1709521.0000000002</v>
       </c>
       <c r="D27" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6362338.7076427434</v>
       </c>
       <c r="E27" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1071859.7076427424</v>
       </c>
       <c r="F27" s="46">
+        <f t="shared" si="16"/>
+        <v>345.32672679063143</v>
+      </c>
+      <c r="G27" s="46">
+        <f t="shared" si="17"/>
+        <v>58.177003996093369</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" si="8"/>
+        <v>2880130557675.0469</v>
+      </c>
+      <c r="I27" s="44">
+        <f t="shared" si="9"/>
+        <v>59521177421.921738</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="10"/>
+        <v>5302905.2596643157</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="11"/>
+        <v>5062378.5330931218</v>
+      </c>
+      <c r="L27" s="9">
         <f t="shared" si="12"/>
-        <v>345.32672679063143</v>
-      </c>
-      <c r="G27" s="46">
+        <v>1273276.4663163493</v>
+      </c>
+      <c r="M27" s="9">
         <f t="shared" si="13"/>
-        <v>58.177003996093369</v>
-      </c>
-      <c r="H27" s="43">
-        <f t="shared" si="6"/>
-        <v>2880130557675.0469</v>
-      </c>
-      <c r="I27" s="44">
-        <f t="shared" si="7"/>
-        <v>59521177421.921738</v>
-      </c>
-      <c r="J27" s="9">
-        <f t="shared" si="8"/>
-        <v>5302905.2596643157</v>
-      </c>
-      <c r="K27" s="9">
-        <f t="shared" si="9"/>
-        <v>5062378.5330931218</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="10"/>
-        <v>1273276.4663163493</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="11"/>
         <v>1465551.3760261913</v>
       </c>
+      <c r="N27" s="3">
+        <f t="shared" si="14"/>
+        <v>0.9063695873915345</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="15"/>
+        <v>0.21762769819567826</v>
+      </c>
+      <c r="P27" s="3">
+        <f>(C10/$R$2)*$R$3</f>
+        <v>0.21159397219265294</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.05</v>
       </c>
       <c r="B28" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="C28" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2309521</v>
       </c>
       <c r="D28" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9354685.0485991091</v>
       </c>
       <c r="E28" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1664206.0485991086</v>
       </c>
       <c r="F28" s="46">
+        <f t="shared" si="16"/>
+        <v>313.33421040867256</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="17"/>
+        <v>55.742409871215031</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="8"/>
+        <v>3221686310016.6226</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="9"/>
+        <v>104105770642.6185</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="10"/>
+        <v>8205094.3450931404</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="11"/>
+        <v>7815333.5943354974</v>
+      </c>
+      <c r="L28" s="9">
         <f t="shared" si="12"/>
-        <v>313.33421040867256</v>
-      </c>
-      <c r="G28" s="46">
+        <v>1675295.4900580654</v>
+      </c>
+      <c r="M28" s="9">
         <f t="shared" si="13"/>
-        <v>55.742409871215031</v>
-      </c>
-      <c r="H28" s="43">
-        <f t="shared" si="6"/>
-        <v>3221686310016.6226</v>
-      </c>
-      <c r="I28" s="44">
-        <f t="shared" si="7"/>
-        <v>104105770642.6185</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" si="8"/>
-        <v>8205094.3450931404</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="9"/>
-        <v>7815333.5943354974</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="10"/>
-        <v>1675295.4900580654</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="11"/>
         <v>1986866.7413226683</v>
       </c>
+      <c r="N28" s="3">
+        <f t="shared" si="14"/>
+        <v>1.4110177225224736</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="15"/>
+        <v>0.28809804342439516</v>
+      </c>
+      <c r="P28" s="3">
+        <f>(C11/$R$2)*$R$3</f>
+        <v>0.21030318909577497</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.09</v>
       </c>
       <c r="B29" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18000000</v>
       </c>
       <c r="C29" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3909521</v>
       </c>
       <c r="D29" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17319603.920039088</v>
       </c>
       <c r="E29" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3229124.9200390894</v>
       </c>
       <c r="F29" s="46">
+        <f t="shared" si="16"/>
+        <v>278.47131366044891</v>
+      </c>
+      <c r="G29" s="46">
+        <f t="shared" si="17"/>
+        <v>51.919123705627328</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" si="8"/>
+        <v>2467676605710.5039</v>
+      </c>
+      <c r="I29" s="44">
+        <f t="shared" si="9"/>
+        <v>188678134025.68134</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="10"/>
+        <v>16429115.979548298</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="11"/>
+        <v>15617156.71832215</v>
+      </c>
+      <c r="L29" s="9">
         <f t="shared" si="12"/>
-        <v>278.47131366044891</v>
-      </c>
-      <c r="G29" s="46">
+        <v>2826077.0794451539</v>
+      </c>
+      <c r="M29" s="9">
         <f t="shared" si="13"/>
-        <v>51.919123705627328</v>
-      </c>
-      <c r="H29" s="43">
-        <f t="shared" si="6"/>
-        <v>2467676605710.5039</v>
-      </c>
-      <c r="I29" s="44">
-        <f t="shared" si="7"/>
-        <v>188678134025.68134</v>
-      </c>
-      <c r="J29" s="9">
-        <f t="shared" si="8"/>
-        <v>16429115.979548298</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" si="9"/>
-        <v>15617156.71832215</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" si="10"/>
-        <v>2826077.0794451539</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="11"/>
         <v>3475150.0363920704</v>
       </c>
+      <c r="N29" s="3">
+        <f t="shared" si="14"/>
+        <v>2.8127628626255956</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="15"/>
+        <v>0.48384128920120301</v>
+      </c>
+      <c r="P29" s="3">
+        <f>(C12/$R$2)*$R$3</f>
+        <v>0.21123983718815917</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.15</v>
       </c>
-      <c r="B30" s="48">
-        <f t="shared" si="2"/>
+      <c r="B30" s="47">
+        <f t="shared" si="4"/>
         <v>30000000</v>
       </c>
-      <c r="C30" s="49">
-        <f t="shared" si="3"/>
+      <c r="C30" s="48">
+        <f t="shared" si="5"/>
         <v>6309521</v>
       </c>
-      <c r="D30" s="49">
-        <f t="shared" si="4"/>
+      <c r="D30" s="48">
+        <f t="shared" si="6"/>
         <v>29247356.215133011</v>
       </c>
-      <c r="E30" s="49">
-        <f t="shared" si="5"/>
+      <c r="E30" s="48">
+        <f t="shared" si="7"/>
         <v>5556877.2151330132</v>
       </c>
-      <c r="F30" s="49">
-        <f t="shared" si="12"/>
+      <c r="F30" s="48">
+        <f t="shared" si="16"/>
         <v>225.07443619253445</v>
       </c>
-      <c r="G30" s="49">
-        <f t="shared" si="13"/>
+      <c r="G30" s="48">
+        <f t="shared" si="17"/>
         <v>42.763215826669068</v>
       </c>
       <c r="H30" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13370774288585.053</v>
       </c>
       <c r="I30" s="44">
@@ -46386,75 +48944,87 @@
         <v>33656606.936571807</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31960172.065521073</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5235637.2594155082</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6591752.0925143538</v>
       </c>
+      <c r="N30" s="3">
+        <f>(J30/C13)*($J$34/2)</f>
+        <v>5.7205919971853456</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="15"/>
+        <v>0.889897922949345</v>
+      </c>
+      <c r="P30" s="3">
+        <f>(C13/$R$2)*$R$3</f>
+        <v>0.21277671740601634</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D31" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="50">
         <f>AVERAGE(F19:F30)</f>
         <v>197.52717954019639</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="51">
         <f>AVERAGE(G19:G30)</f>
         <v>25.176568830109659</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="54" t="s">
+      <c r="I31" s="53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="56">
         <v>254.21403071085103</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="64">
         <f>SUM(H19:H26)</f>
         <v>339819506154.26196</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="64">
         <f>SUM(I19:I26)</f>
         <v>182462516255.92999</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="58">
         <v>241.15903458297754</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>113</v>
       </c>
       <c r="H33">
@@ -46466,78 +49036,230 @@
         <v>614421987927.99731</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="58">
         <v>35.49909186036939</v>
       </c>
-      <c r="I34" s="47"/>
+      <c r="I34" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.21167934144832934</v>
+      </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="61">
         <v>45.935138770965942</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="I35" s="63" t="s">
         <v>122</v>
       </c>
       <c r="J35">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="H36" s="55" t="s">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H36" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="55" t="s">
+      <c r="J36" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="55" t="s">
+      <c r="K36" s="54" t="s">
         <v>119</v>
       </c>
+      <c r="M36" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="63" t="s">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G37" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H37" s="61">
-        <f>(B26/C9)*$J$35</f>
-        <v>0.60450130609251407</v>
-      </c>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61">
-        <f>(C26/C9)*J35</f>
-        <v>0.15832143097111501</v>
+      <c r="H37" s="60">
+        <f>(J26/$C$9)*($J$34/2)</f>
+        <v>0.81872558441365972</v>
+      </c>
+      <c r="I37" s="60">
+        <f>(K26/$C$9)*($J$34/2)</f>
+        <v>0.78211579219720406</v>
+      </c>
+      <c r="J37" s="60">
+        <f>(L26/$C$9)*($J$34/2)</f>
+        <v>0.20538886738047077</v>
+      </c>
+      <c r="K37" s="60">
+        <f>(M26/$C$9)*($J$34/2)</f>
+        <v>0.2346544071949476</v>
+      </c>
+      <c r="M37" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="G38" s="63" t="s">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G38" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="61">
-        <f>(B26/C9)</f>
-        <v>8.0600174145668539</v>
-      </c>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61">
-        <f>(C26/C9)</f>
-        <v>2.1109524129482002</v>
+      <c r="H38" s="60">
+        <f>H37/$J$35</f>
+        <v>10.916341125515464</v>
+      </c>
+      <c r="I38" s="60">
+        <f>I37/$J$35</f>
+        <v>10.428210562629388</v>
+      </c>
+      <c r="J38" s="60">
+        <f>J37/$J$35</f>
+        <v>2.7385182317396102</v>
+      </c>
+      <c r="K38" s="60">
+        <f t="shared" ref="K38" si="18">K37/$J$35</f>
+        <v>3.1287254292659679</v>
+      </c>
+      <c r="M38" s="65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H40" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G41" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="60">
+        <f>(J25/$C$8)*($J$34/2)</f>
+        <v>0.53660391711807498</v>
+      </c>
+      <c r="I41" s="60">
+        <f t="shared" ref="I41:K41" si="19">(K25/$C$8)*($J$34/2)</f>
+        <v>0.51448229954655988</v>
+      </c>
+      <c r="J41" s="60">
+        <f>(L25/$C$8)*($J$34/2)</f>
+        <v>0.16599268238186268</v>
+      </c>
+      <c r="K41" s="60">
+        <f t="shared" si="19"/>
+        <v>0.18367650522281309</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G42" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="60">
+        <f>H41/$J$35</f>
+        <v>7.154718894907667</v>
+      </c>
+      <c r="I42" s="60">
+        <f>I41/$J$35</f>
+        <v>6.8597639939541324</v>
+      </c>
+      <c r="J42" s="60">
+        <f>J41/$J$35</f>
+        <v>2.2132357650915027</v>
+      </c>
+      <c r="K42" s="60">
+        <f t="shared" ref="K42" si="20">K41/$J$35</f>
+        <v>2.4490200696375082</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="90.35" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="D47" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="D48" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="66"/>
+    </row>
+    <row r="51" spans="3:5" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="D52" s="66" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE0BA6-864E-46DB-BBB6-33BD91FBEE3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4E951-9A59-49D0-84A5-7FA8B3BC19C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10172" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14138" windowHeight="10172" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uptake old" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="147">
   <si>
     <t>L</t>
   </si>
@@ -490,15 +490,6 @@
     <t>ML at 0.015L using CO</t>
   </si>
   <si>
-    <t>Case 2 works if second peak is chemisorbed</t>
-  </si>
-  <si>
-    <t>Case 1 works if 2nd peak is physisorbed</t>
-  </si>
-  <si>
-    <t>supported by annealing to 191 K in IRAS</t>
-  </si>
-  <si>
     <t>model 1a (7.15 Layers @ 0.015 L)</t>
   </si>
   <si>
@@ -546,6 +537,27 @@
   <si>
     <t>Case 2 a</t>
   </si>
+  <si>
+    <t>θGUA_multi</t>
+  </si>
+  <si>
+    <t>θGUA_phys</t>
+  </si>
+  <si>
+    <t>θGUA_recomb</t>
+  </si>
+  <si>
+    <t>θGUA_chemi</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>inverse</t>
+  </si>
+  <si>
+    <t>inverse 2</t>
+  </si>
 </sst>
 </file>
 
@@ -555,7 +567,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -609,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +643,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -894,9 +924,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -906,7 +933,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -7308,149 +7347,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'vert + sloped intg uptk'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GUA_total (m +s +r)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$J$2:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>419.56509645361393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1090.0607117791824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2192.318979040363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2546.4125513931126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6825.3982403352602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9941.8953192859026</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16436.375739526193</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18424.113206563863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29855.29424443654</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62195.289318588715</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129945.26037650084</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B95E-4EF6-88AA-01DC0792ED20}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>'vert + sloped intg uptk'!$B$18</c:f>
@@ -7591,7 +7489,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
               <c:f>'vert + sloped intg uptk'!$J$17</c:f>
@@ -8057,8 +7955,169 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multilayer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.4999999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$E$2:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>88.443560702123989</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>99.319682212585292</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>515.38094202489287</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>778.7480986484486</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3612.9412114549659</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5596.7653614826413</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>11200.618764440449</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12646.767464971659</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>23988.480803216229</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>56027.682921549196</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>124221.42678498491</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E115-4C56-B8A9-2ACC81E6E1EA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="3"/>
-                <c:order val="3"/>
+                <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -8213,7 +8272,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="4"/>
-                <c:order val="4"/>
+                <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -8368,7 +8427,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -8522,8 +8581,169 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GUA_total (m +s +r)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.4999999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$J$2:$J$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>419.56509645361393</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1090.0607117791824</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2192.318979040363</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2546.4125513931126</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6825.3982403352602</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9941.8953192859026</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16436.375739526193</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18424.113206563863</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>29855.29424443654</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>62195.289318588715</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>129945.26037650084</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-B95E-4EF6-88AA-01DC0792ED20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:v>trend1</c:v>
                 </c:tx>
@@ -8557,59 +8777,6 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:trendline>
-                  <c:spPr>
-                    <a:ln w="19050" cap="rnd">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:prstDash val="sysDot"/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:trendlineType val="linear"/>
-                  <c:intercept val="0"/>
-                  <c:dispRSqr val="0"/>
-                  <c:dispEq val="1"/>
-                  <c:trendlineLbl>
-                    <c:layout>
-                      <c:manualLayout>
-                        <c:x val="0.13337061858466925"/>
-                        <c:y val="0.16322491181573393"/>
-                      </c:manualLayout>
-                    </c:layout>
-                    <c:numFmt formatCode="General" sourceLinked="0"/>
-                    <c:spPr>
-                      <a:noFill/>
-                      <a:ln>
-                        <a:noFill/>
-                      </a:ln>
-                      <a:effectLst/>
-                    </c:spPr>
-                    <c:txPr>
-                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                      <a:lstStyle/>
-                      <a:p>
-                        <a:pPr>
-                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="65000"/>
-                                <a:lumOff val="35000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
-                      </a:p>
-                    </c:txPr>
-                  </c:trendlineLbl>
-                </c:trendline>
                 <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -8669,7 +8836,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="8"/>
-                <c:order val="8"/>
+                <c:order val="9"/>
                 <c:tx>
                   <c:v>trend2</c:v>
                 </c:tx>
@@ -8814,10 +8981,10 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="9"/>
-                <c:order val="9"/>
+                <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$1</c15:sqref>
@@ -8864,7 +9031,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
@@ -8915,7 +9082,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'vert + sloped intg uptk'!$K$2:$K$13</c15:sqref>
@@ -8965,7 +9132,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-B95E-4EF6-88AA-01DC0792ED20}"/>
                   </c:ext>
@@ -8975,7 +9142,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="11"/>
-                <c:order val="11"/>
+                <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -9136,7 +9303,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="13"/>
-                <c:order val="13"/>
+                <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -9300,7 +9467,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="14"/>
-                <c:order val="14"/>
+                <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -9464,7 +9631,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="15"/>
-                <c:order val="15"/>
+                <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -9633,7 +9800,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="16"/>
-          <c:order val="16"/>
+          <c:order val="17"/>
           <c:tx>
             <c:strRef>
               <c:f>'vert + sloped intg uptk'!$N$18</c:f>
@@ -9777,7 +9944,18 @@
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
-          <c:order val="17"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$R$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA_multi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -9813,7 +9991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$A$2:$A$13</c:f>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9858,12 +10036,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$R$5</c:f>
+              <c:f>'vert + sloped intg uptk'!$R$19:$R$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4170101427511459</c:v>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4403333512985696E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3288921221426857E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.658342162900084E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8956968197852243E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16674703984576325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24249766626548813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48579829691858856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5495035550063001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0486997175108159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4384906952030665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3674335102063599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9871,7 +10082,289 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AD9D-4427-94BE-F5EF2AA31305}"/>
+              <c16:uniqueId val="{00000003-E115-4C56-B8A9-2ACC81E6E1EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$S$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA_phys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$S$19:$S$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5221345343063599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7945221166163274E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.770954373415633E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3727287958354842E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12308259316597232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15921655409293373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1979668535054035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21466311680936448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22804358242822168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24220569623738039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20666463597615384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E115-4C56-B8A9-2ACC81E6E1EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$T$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA_recomb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$T$19:$T$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8904503954169885E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5187210970364727E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8787156567846894E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4700340936742643E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5181015026474938E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9050026035488525E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9120763265502902E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.636324485170514E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8434751859271287E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.622680046098402E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0654180278667573E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E115-4C56-B8A9-2ACC81E6E1EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9890,6 +10383,7 @@
         <c:axId val="881002656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9993,7 +10487,7 @@
         <c:axId val="868150512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000000"/>
+          <c:max val="1500000.0000000002"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10130,7 +10624,7 @@
         <c:axId val="846571471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.4170101399999999"/>
+          <c:max val="0.51255151999999993"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -10188,6 +10682,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="846571471"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -13369,288 +13864,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'vert + sloped intg uptk'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GUA_total (m +s +r)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$J$2:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>419.56509645361393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1090.0607117791824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2192.318979040363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2546.4125513931126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6825.3982403352602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9941.8953192859026</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16436.375739526193</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18424.113206563863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29855.29424443654</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62195.289318588715</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129945.26037650084</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-54C6-4D6F-91A0-B3C2A37E302A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'vert + sloped intg uptk'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO + GUA total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'vert + sloped intg uptk'!$K$2:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>369912.27018393949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>423326.41685823706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>523825.81613468524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>540394.7682387901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>589801.50926735823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>630921.78129353188</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>636782.42995071318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>637661.2923572578</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>645314.95140089153</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>680396.0799609106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>752643.7848669868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-54C6-4D6F-91A0-B3C2A37E302A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
@@ -14721,6 +14934,167 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-54C6-4D6F-91A0-B3C2A37E302A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GUA_total (m +s +r)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.4999999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$J$2:$J$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>419.56509645361393</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1090.0607117791824</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2192.318979040363</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2546.4125513931126</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6825.3982403352602</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9941.8953192859026</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16436.375739526193</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18424.113206563863</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>29855.29424443654</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>62195.289318588715</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>129945.26037650084</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-54C6-4D6F-91A0-B3C2A37E302A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -15018,6 +15392,167 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CO + GUA total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.4999999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'vert + sloped intg uptk'!$K$2:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>369912.27018393949</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>423326.41685823706</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>523825.81613468524</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>540394.7682387901</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>589801.50926735823</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>630921.78129353188</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>636782.42995071318</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>637661.2923572578</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>645314.95140089153</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>680396.0799609106</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>752643.7848669868</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-54C6-4D6F-91A0-B3C2A37E302A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
                 <c:idx val="10"/>
                 <c:order val="10"/>
                 <c:tx>
@@ -15671,6 +16206,590 @@
             </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$O$19:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11010604750146204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11553942617710476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12163046568849288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12362797887204278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14982855639044115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16599268238186268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20538886738047077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21762769819567826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28809804342439516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48384128920120301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.889897922949345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DCE-438B-B89C-FDB146A33719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$U$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA_multi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$U$19:$U$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9934447996378709E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.837825441423262E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7121764040010967E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4400498225451238E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3284979465442068E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3862989019969598E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7838106023106567E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6734069800245469E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14644308774681186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34051702397233069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74952202559568393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DCE-438B-B89C-FDB146A33719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$V$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA_chemi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$V$19:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1255472605539237E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6951922586022212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4551323784974554E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0295465441191433E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7187565410900121E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2233403339823096E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7644593409126238E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9976101953697414E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.184458410163437E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3822217584894634E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8859173808356339E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3DCE-438B-B89C-FDB146A33719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vert + sloped intg uptk'!$W$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>θGUA_recomb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vert + sloped intg uptk'!$W$19:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2414850367796543E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1207806501955381E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.623486181829662E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0527928841415468E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5163407899342978E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.056619297905302E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0664972240732908E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0778557175706861E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9707008517842384E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6623769198129842E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6770528211401196E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3DCE-438B-B89C-FDB146A33719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="706271359"/>
+        <c:axId val="706257967"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="881002656"/>
@@ -15940,6 +17059,70 @@
             </c:txPr>
           </c:dispUnitsLbl>
         </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="706257967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.51255151999999993"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706271359"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="706271359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="706257967"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -18986,7 +20169,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$3:$F$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.32591093117408909</c:v>
@@ -19072,7 +20255,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$4:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.46052631578947373</c:v>
@@ -19158,7 +20341,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$5:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6.1133603238866407E-2</c:v>
@@ -19244,7 +20427,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$6:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.26113360323886642</c:v>
@@ -19330,7 +20513,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$7:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.22064777327935223</c:v>
@@ -19416,7 +20599,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$8:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.25607287449392713</c:v>
@@ -19508,7 +20691,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$9:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.28390688259109309</c:v>
@@ -19600,7 +20783,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$10:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.88765182186234814</c:v>
@@ -19692,7 +20875,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$11:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.16093117408906882</c:v>
@@ -19784,7 +20967,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$C$13:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -19902,7 +21085,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -41103,16 +42286,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>640079</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>182883</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>716047</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>58766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1230285</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>473824</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>889628</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>16461</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41139,16 +42322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33249</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>166255</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77188</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>134190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>515386</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>116375</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>684016</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>84310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41177,16 +42360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>764768</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>174565</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>288066</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1479662</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>124686</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527077</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>362139</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41215,16 +42398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1496292</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>149629</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182881</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>16625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>473825</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>99750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1263534</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>157938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41253,16 +42436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1155471</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>722081</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>232756</xdr:rowOff>
+      <xdr:rowOff>624290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>407326</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>365758</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>191807</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165406</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41756,7 +42939,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -42119,8 +43302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:Q18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -45945,8 +47128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D5658-95D9-452B-9C87-7CE505A65620}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -47416,10 +48599,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DA03A-D901-4E93-9092-92428B426BE7}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="101" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -47440,8 +48623,12 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -47531,11 +48718,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="7">
-        <f t="shared" ref="K2:K13" si="1">C2+J2</f>
+        <f>C2+J2</f>
         <v>0</v>
       </c>
       <c r="M2" s="60">
-        <f t="shared" ref="M2:M7" si="2">E2/I2</f>
+        <f t="shared" ref="M2:M7" si="1">E2/I2</f>
         <v>0</v>
       </c>
       <c r="P2" t="s">
@@ -47590,11 +48777,11 @@
         <v>419.56509645361393</v>
       </c>
       <c r="K3" s="7">
+        <f t="shared" ref="K2:K13" si="2">C3+J3</f>
+        <v>369912.27018393949</v>
+      </c>
+      <c r="M3" s="60">
         <f t="shared" si="1"/>
-        <v>369912.27018393949</v>
-      </c>
-      <c r="M3" s="60">
-        <f t="shared" si="2"/>
         <v>0.26710301551784826</v>
       </c>
       <c r="P3" t="s">
@@ -47648,11 +48835,11 @@
         <v>1090.0607117791824</v>
       </c>
       <c r="K4" s="7">
+        <f t="shared" si="2"/>
+        <v>423326.41685823706</v>
+      </c>
+      <c r="M4" s="60">
         <f t="shared" si="1"/>
-        <v>423326.41685823706</v>
-      </c>
-      <c r="M4" s="60">
-        <f t="shared" si="2"/>
         <v>0.10024787431689695</v>
       </c>
     </row>
@@ -47694,19 +48881,19 @@
         <v>2192.318979040363</v>
       </c>
       <c r="K5" s="7">
+        <f t="shared" si="2"/>
+        <v>523825.81613468524</v>
+      </c>
+      <c r="M5" s="60">
         <f t="shared" si="1"/>
-        <v>523825.81613468524</v>
-      </c>
-      <c r="M5" s="60">
-        <f t="shared" si="2"/>
         <v>0.30733451722649335</v>
       </c>
       <c r="Q5" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="R5" s="69">
+        <v>1500000</v>
+      </c>
+      <c r="R5" s="68">
         <f>Q5*R3/R2</f>
-        <v>3.4170101427511459</v>
+        <v>0.51255152141267191</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -47747,11 +48934,11 @@
         <v>2546.4125513931126</v>
       </c>
       <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>540394.7682387901</v>
+      </c>
+      <c r="M6" s="60">
         <f t="shared" si="1"/>
-        <v>540394.7682387901</v>
-      </c>
-      <c r="M6" s="60">
-        <f t="shared" si="2"/>
         <v>0.4405519935863853</v>
       </c>
     </row>
@@ -47793,11 +48980,11 @@
         <v>6825.3982403352602</v>
       </c>
       <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>589801.50926735823</v>
+      </c>
+      <c r="M7" s="60">
         <f t="shared" si="1"/>
-        <v>589801.50926735823</v>
-      </c>
-      <c r="M7" s="60">
-        <f t="shared" si="2"/>
         <v>1.1246660045486305</v>
       </c>
     </row>
@@ -47839,7 +49026,7 @@
         <v>9941.8953192859026</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>630921.78129353188</v>
       </c>
       <c r="M8" s="60">
@@ -47893,7 +49080,7 @@
         <v>16436.375739526193</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>636782.42995071318</v>
       </c>
       <c r="M9" s="60">
@@ -47939,7 +49126,7 @@
         <v>18424.113206563863</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>637661.2923572578</v>
       </c>
       <c r="M10" s="60">
@@ -47985,7 +49172,7 @@
         <v>29855.29424443654</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>645314.95140089153</v>
       </c>
       <c r="M11" s="60">
@@ -48031,7 +49218,7 @@
         <v>62195.289318588715</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>680396.0799609106</v>
       </c>
       <c r="M12" s="60">
@@ -48077,7 +49264,7 @@
         <v>129945.26037650084</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>752643.7848669868</v>
       </c>
       <c r="M13" s="60">
@@ -48107,7 +49294,7 @@
         <v>309521</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
@@ -48139,10 +49326,20 @@
         <v>116</v>
       </c>
       <c r="O17" s="54" t="s">
-        <v>142</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="R17" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -48183,16 +49380,37 @@
         <v>106</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P18" t="s">
         <v>81</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="S18" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="U18" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="V18" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="W18" s="72" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -48205,11 +49423,11 @@
         <v>309521</v>
       </c>
       <c r="D19" s="42">
-        <f t="shared" ref="D19:D30" si="6">B19-K2</f>
+        <f>B19-K2</f>
         <v>0</v>
       </c>
       <c r="E19" s="42">
-        <f t="shared" ref="E19:E30" si="7">C19-K2</f>
+        <f t="shared" ref="E19:E30" si="6">C19-K2</f>
         <v>309521</v>
       </c>
       <c r="F19" s="42">
@@ -48249,11 +49467,32 @@
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <f>(C2/$R$2)*$R$3</f>
+        <f t="shared" ref="P19:P30" si="7">(C2/$R$2)*$R$3</f>
         <v>0</v>
       </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.5E-3</v>
       </c>
@@ -48266,11 +49505,11 @@
         <v>369521</v>
       </c>
       <c r="D20" s="46">
+        <f t="shared" ref="D19:D30" si="8">B20-K3</f>
+        <v>-69912.270183939487</v>
+      </c>
+      <c r="E20" s="46">
         <f t="shared" si="6"/>
-        <v>-69912.270183939487</v>
-      </c>
-      <c r="E20" s="46">
-        <f t="shared" si="7"/>
         <v>-391.27018393948674</v>
       </c>
       <c r="F20" s="46">
@@ -48282,31 +49521,31 @@
         <v>-0.93256132897304678</v>
       </c>
       <c r="H20" s="43">
-        <f t="shared" ref="H20:H30" si="8">(B20-(C3+$F$32*J3))^2</f>
+        <f t="shared" ref="H20:H30" si="9">(B20-(C3+$F$32*J3))^2</f>
         <v>31029540985.676144</v>
       </c>
       <c r="I20" s="44">
-        <f t="shared" ref="I20:I29" si="9">(C20-(C3+$F$35*J3))^2</f>
+        <f t="shared" ref="I20:I29" si="10">(C20-(C3+$F$35*J3))^2</f>
         <v>370350242.04066366</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" ref="J20:J29" si="10">C3+$F$32*J3</f>
+        <f t="shared" ref="J20:J29" si="11">C3+$F$32*J3</f>
         <v>476152.03940254607</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" ref="K20:K30" si="11">C3+$F$33*J3</f>
+        <f t="shared" ref="K20:K30" si="12">C3+$F$33*J3</f>
         <v>470674.61869295326</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" ref="L20:L30" si="12">C3+$F$34*J3</f>
+        <f t="shared" ref="L20:L30" si="13">C3+$F$34*J3</f>
         <v>384386.88498789747</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" ref="M20:M30" si="13">C3+$F$35*J3</f>
+        <f t="shared" ref="M20:M30" si="14">C3+$F$35*J3</f>
         <v>388765.48601653636</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" ref="N20:N30" si="14">(J20/C3)*($J$34/2)</f>
+        <f>(J20/C3)*($J$34/2)</f>
         <v>0.13639179981394384</v>
       </c>
       <c r="O20" s="3">
@@ -48314,11 +49553,38 @@
         <v>0.11010604750146204</v>
       </c>
       <c r="P20" s="3">
-        <f>(C3/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.12625603209564973</v>
       </c>
+      <c r="Q20" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R20" s="3">
+        <f>(($F$32*E3)/C3)*$J$34/2</f>
+        <v>6.4403333512985696E-3</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" ref="S20:S30" si="16">(($F$32*G3)/C3)*$J$34/2</f>
+        <v>1.5221345343063599E-2</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" ref="T20:T30" si="17">(($F$32*H3)/C3)*$J$34/2</f>
+        <v>8.8904503954169885E-3</v>
+      </c>
+      <c r="U20" s="3">
+        <f>(($F$34*E3)/C3)*$J$34/2</f>
+        <v>8.9934447996378709E-4</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" ref="V20:V30" si="18">(($F$34*G3)/C3)*$J$34/2</f>
+        <v>2.1255472605539237E-3</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" ref="W20:W30" si="19">(($F$34*H3)/C3)*$J$34/2</f>
+        <v>1.2414850367796543E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -48331,47 +49597,47 @@
         <v>409521</v>
       </c>
       <c r="D21" s="46">
+        <f t="shared" si="8"/>
+        <v>76673.583141762938</v>
+      </c>
+      <c r="E21" s="46">
         <f t="shared" si="6"/>
-        <v>76673.583141762938</v>
-      </c>
-      <c r="E21" s="46">
-        <f t="shared" si="7"/>
         <v>-13805.416858237062</v>
       </c>
       <c r="F21" s="46">
-        <f t="shared" ref="F21:F30" si="16">D21/J4</f>
+        <f t="shared" ref="F21:F30" si="20">D21/J4</f>
         <v>70.338819033865875</v>
       </c>
       <c r="G21" s="46">
-        <f t="shared" ref="G21:G30" si="17">E21/J4</f>
+        <f t="shared" ref="G21:G30" si="21">E21/J4</f>
         <v>-12.664814637437988</v>
       </c>
       <c r="H21" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39738462278.696556</v>
       </c>
       <c r="I21" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3942263401.6756787</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>699345.08340738318</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>685114.3450359588</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>460932.52148728672</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>472308.44621081254</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="N21:N29" si="22">(J21/C4)*($J$34/2)</f>
         <v>0.17530099498283538</v>
       </c>
       <c r="O21" s="3">
@@ -48379,11 +49645,38 @@
         <v>0.11553942617710476</v>
       </c>
       <c r="P21" s="3">
-        <f>(C4/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.14427859115907318</v>
       </c>
+      <c r="Q21" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R21" s="3">
+        <f>(($F$32*E4)/C4)*$J$34/2</f>
+        <v>6.3288921221426857E-3</v>
+      </c>
+      <c r="S21" s="3">
+        <f>(($F$32*G4)/C4)*$J$34/2</f>
+        <v>4.7945221166163274E-2</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5187210970364727E-2</v>
+      </c>
+      <c r="U21" s="3">
+        <f>(($F$34*E4)/C4)*$J$34/2</f>
+        <v>8.837825441423262E-4</v>
+      </c>
+      <c r="V21" s="3">
+        <f>(($F$34*G4)/C4)*$J$34/2</f>
+        <v>6.6951922586022212E-3</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="19"/>
+        <v>2.1207806501955381E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -48396,47 +49689,47 @@
         <v>509521</v>
       </c>
       <c r="D22" s="46">
+        <f t="shared" si="8"/>
+        <v>476174.18386531476</v>
+      </c>
+      <c r="E22" s="46">
         <f t="shared" si="6"/>
-        <v>476174.18386531476</v>
-      </c>
-      <c r="E22" s="46">
-        <f t="shared" si="7"/>
         <v>-14304.816134685243</v>
       </c>
       <c r="F22" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>217.20114108292262</v>
       </c>
       <c r="G22" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-6.5249702581815194</v>
       </c>
       <c r="H22" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6233377473.4705591</v>
       </c>
       <c r="I22" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12727669552.138348</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1078951.7414213934</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1050331.0256389577</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>599458.82997982996</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>622337.97368808626</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="14"/>
+        <f>(J22/C5)*($J$34/2)</f>
         <v>0.21891979265516875</v>
       </c>
       <c r="O22" s="3">
@@ -48444,11 +49737,38 @@
         <v>0.12163046568849288</v>
       </c>
       <c r="P22" s="3">
-        <f>(C5/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.17824269505795895</v>
       </c>
+      <c r="Q22" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" ref="R20:R31" si="23">(($F$32*E5)/C5)*$J$34/2</f>
+        <v>2.658342162900084E-2</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="16"/>
+        <v>6.770954373415633E-2</v>
+      </c>
+      <c r="T22" s="3">
+        <f>(($F$32*H5)/C5)*$J$34/2</f>
+        <v>1.8787156567846894E-2</v>
+      </c>
+      <c r="U22" s="3">
+        <f>(($F$34*E5)/C5)*$J$34/2</f>
+        <v>3.7121764040010967E-3</v>
+      </c>
+      <c r="V22" s="3">
+        <f>(($F$34*G5)/C5)*$J$34/2</f>
+        <v>9.4551323784974554E-3</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="19"/>
+        <v>2.623486181829662E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -48461,47 +49781,47 @@
         <v>609521</v>
       </c>
       <c r="D23" s="46">
+        <f t="shared" si="8"/>
+        <v>959605.2317612099</v>
+      </c>
+      <c r="E23" s="46">
         <f t="shared" si="6"/>
-        <v>959605.2317612099</v>
-      </c>
-      <c r="E23" s="46">
-        <f t="shared" si="7"/>
         <v>69126.2317612099</v>
       </c>
       <c r="F23" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>376.8459400799847</v>
       </c>
       <c r="G23" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>27.146517057258354</v>
       </c>
       <c r="H23" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99110276015.425797</v>
       </c>
       <c r="I23" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2051833574.1126113</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1185182.1542297422</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1151938.7482313367</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>628243.68876369868</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>654818.16960376897</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="14"/>
+        <f>(J23/C6)*($J$34/2)</f>
         <v>0.23322426781711439</v>
       </c>
       <c r="O23" s="3">
@@ -48509,11 +49829,38 @@
         <v>0.12362797887204278</v>
       </c>
       <c r="P23" s="3">
-        <f>(C6/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.18378332866458613</v>
       </c>
+      <c r="Q23" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="23"/>
+        <v>3.8956968197852243E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <f>(($F$32*G6)/C6)*$J$34/2</f>
+        <v>7.3727287958354842E-2</v>
+      </c>
+      <c r="T23" s="3">
+        <f>(($F$32*H6)/C6)*$J$34/2</f>
+        <v>1.4700340936742643E-2</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" ref="U20:U30" si="24">(($F$34*E6)/C6)*$J$34/2</f>
+        <v>5.4400498225451238E-3</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="18"/>
+        <v>1.0295465441191433E-2</v>
+      </c>
+      <c r="W23" s="3">
+        <f>(($F$34*H6)/C6)*$J$34/2</f>
+        <v>2.0527928841415468E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.01</v>
       </c>
@@ -48526,47 +49873,47 @@
         <v>709521</v>
       </c>
       <c r="D24" s="46">
+        <f t="shared" si="8"/>
+        <v>1410198.4907326419</v>
+      </c>
+      <c r="E24" s="46">
         <f t="shared" si="6"/>
-        <v>1410198.4907326419</v>
-      </c>
-      <c r="E24" s="46">
-        <f t="shared" si="7"/>
         <v>119719.49073264177</v>
       </c>
       <c r="F24" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>206.61043371783882</v>
       </c>
       <c r="G24" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17.540293843244115</v>
       </c>
       <c r="H24" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101180045029.55783</v>
       </c>
       <c r="I24" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34961792031.58284</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2318088.1089093992</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2228982.561310628</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>825271.55014428799</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>896501.72636392992</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.42085031876237511</v>
       </c>
       <c r="O24" s="3">
@@ -48574,11 +49921,38 @@
         <v>0.14982855639044115</v>
       </c>
       <c r="P24" s="3">
-        <f>(C7/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.19920352843609554</v>
       </c>
+      <c r="Q24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="R24" s="3">
+        <f>(($F$32*E7)/C7)*$J$34/2</f>
+        <v>0.16674703984576325</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="16"/>
+        <v>0.12308259316597232</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="17"/>
+        <v>2.5181015026474938E-2</v>
+      </c>
+      <c r="U24" s="3">
+        <f>(($F$34*E7)/C7)*$J$34/2</f>
+        <v>2.3284979465442068E-2</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="18"/>
+        <v>1.7187565410900121E-2</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="19"/>
+        <v>3.5163407899342978E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -48591,59 +49965,86 @@
         <v>909521</v>
       </c>
       <c r="D25" s="46">
+        <f t="shared" si="8"/>
+        <v>2369078.2187064681</v>
+      </c>
+      <c r="E25" s="46">
         <f t="shared" si="6"/>
-        <v>2369078.2187064681</v>
-      </c>
-      <c r="E25" s="46">
-        <f t="shared" si="7"/>
         <v>278599.21870646812</v>
       </c>
       <c r="F25" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>238.29241232411528</v>
       </c>
       <c r="G25" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>28.022747148224759</v>
       </c>
       <c r="H25" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22007475644.885487</v>
       </c>
       <c r="I25" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28271472254.749557</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3148349.1679952587</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3018557.7630982576</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>973908.14117975277</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1077662.2271120606</v>
       </c>
-      <c r="N25" s="3">
-        <f t="shared" si="14"/>
+      <c r="N25" s="74">
+        <f>(J25/C8)*($J$34/2)</f>
         <v>0.53660391711807498</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="74">
         <f t="shared" si="15"/>
         <v>0.16599268238186268</v>
       </c>
       <c r="P25" s="3">
-        <f>(C8/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.21218945688184485</v>
       </c>
+      <c r="Q25" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="23"/>
+        <v>0.24249766626548813</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="16"/>
+        <v>0.15921655409293373</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="17"/>
+        <v>2.9050026035488525E-2</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="24"/>
+        <v>3.3862989019969598E-2</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="18"/>
+        <v>2.2233403339823096E-2</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="19"/>
+        <v>4.056619297905302E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -48656,59 +50057,86 @@
         <v>1309521</v>
       </c>
       <c r="D26" s="46">
+        <f t="shared" si="8"/>
+        <v>4363217.5700492868</v>
+      </c>
+      <c r="E26" s="46">
         <f t="shared" si="6"/>
-        <v>4363217.5700492868</v>
-      </c>
-      <c r="E26" s="46">
-        <f t="shared" si="7"/>
         <v>672738.57004928682</v>
       </c>
       <c r="F26" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>265.46105048916729</v>
       </c>
       <c r="G26" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>40.929860737576426</v>
       </c>
       <c r="H26" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40520328726.549553</v>
       </c>
       <c r="I26" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4333885758.6303024</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4798703.3812341858</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4584126.5595983975</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1203822.4664401743</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1375353.2546980605</v>
       </c>
-      <c r="N26" s="3">
-        <f t="shared" si="14"/>
+      <c r="N26" s="74">
+        <f t="shared" si="22"/>
         <v>0.81872558441365972</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="74">
         <f t="shared" si="15"/>
         <v>0.20538886738047077</v>
       </c>
       <c r="P26" s="3">
-        <f>(C9/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.21197287592552777</v>
       </c>
+      <c r="Q26" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="23"/>
+        <v>0.48579829691858856</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="16"/>
+        <v>0.1979668535054035</v>
+      </c>
+      <c r="T26" s="3">
+        <f t="shared" si="17"/>
+        <v>2.9120763265502902E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="24"/>
+        <v>6.7838106023106567E-2</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="18"/>
+        <v>2.7644593409126238E-2</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="19"/>
+        <v>4.0664972240732908E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -48721,59 +50149,86 @@
         <v>1709521.0000000002</v>
       </c>
       <c r="D27" s="46">
+        <f t="shared" si="8"/>
+        <v>6362338.7076427434</v>
+      </c>
+      <c r="E27" s="46">
         <f t="shared" si="6"/>
-        <v>6362338.7076427434</v>
-      </c>
-      <c r="E27" s="46">
-        <f t="shared" si="7"/>
         <v>1071859.7076427424</v>
       </c>
       <c r="F27" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>345.32672679063143</v>
       </c>
       <c r="G27" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>58.177003996093369</v>
       </c>
       <c r="H27" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2880130557675.0469</v>
       </c>
       <c r="I27" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59521177421.921738</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5302905.2596643157</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5062378.5330931218</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1273276.4663163493</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1465551.3760261913</v>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" si="14"/>
+      <c r="N27" s="74">
+        <f t="shared" si="22"/>
         <v>0.9063695873915345</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="74">
         <f t="shared" si="15"/>
         <v>0.21762769819567826</v>
       </c>
       <c r="P27" s="3">
-        <f>(C10/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.21159397219265294</v>
       </c>
+      <c r="Q27" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="23"/>
+        <v>0.5495035550063001</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="16"/>
+        <v>0.21466311680936448</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="17"/>
+        <v>3.636324485170514E-2</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="24"/>
+        <v>7.6734069800245469E-2</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="18"/>
+        <v>2.9976101953697414E-2</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="19"/>
+        <v>5.0778557175706861E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.05</v>
       </c>
@@ -48786,59 +50241,86 @@
         <v>2309521</v>
       </c>
       <c r="D28" s="46">
+        <f t="shared" si="8"/>
+        <v>9354685.0485991091</v>
+      </c>
+      <c r="E28" s="46">
         <f t="shared" si="6"/>
-        <v>9354685.0485991091</v>
-      </c>
-      <c r="E28" s="46">
-        <f t="shared" si="7"/>
         <v>1664206.0485991086</v>
       </c>
       <c r="F28" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>313.33421040867256</v>
       </c>
       <c r="G28" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>55.742409871215031</v>
       </c>
       <c r="H28" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3221686310016.6226</v>
       </c>
       <c r="I28" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>104105770642.6185</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8205094.3450931404</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7815333.5943354974</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1675295.4900580654</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1986866.7413226683</v>
       </c>
-      <c r="N28" s="3">
-        <f t="shared" si="14"/>
+      <c r="N28" s="74">
+        <f t="shared" si="22"/>
         <v>1.4110177225224736</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="74">
         <f t="shared" si="15"/>
         <v>0.28809804342439516</v>
       </c>
       <c r="P28" s="3">
-        <f>(C11/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.21030318909577497</v>
       </c>
+      <c r="Q28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="23"/>
+        <v>1.0486997175108159</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="16"/>
+        <v>0.22804358242822168</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="17"/>
+        <v>2.8434751859271287E-2</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="24"/>
+        <v>0.14644308774681186</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="18"/>
+        <v>3.184458410163437E-2</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="19"/>
+        <v>3.9707008517842384E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.09</v>
       </c>
@@ -48851,59 +50333,86 @@
         <v>3909521</v>
       </c>
       <c r="D29" s="46">
+        <f t="shared" si="8"/>
+        <v>17319603.920039088</v>
+      </c>
+      <c r="E29" s="46">
         <f t="shared" si="6"/>
-        <v>17319603.920039088</v>
-      </c>
-      <c r="E29" s="46">
-        <f t="shared" si="7"/>
         <v>3229124.9200390894</v>
       </c>
       <c r="F29" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>278.47131366044891</v>
       </c>
       <c r="G29" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>51.919123705627328</v>
       </c>
       <c r="H29" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2467676605710.5039</v>
       </c>
       <c r="I29" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>188678134025.68134</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16429115.979548298</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15617156.71832215</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2826077.0794451539</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3475150.0363920704</v>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" si="14"/>
+      <c r="N29" s="74">
+        <f t="shared" si="22"/>
         <v>2.8127628626255956</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="74">
         <f t="shared" si="15"/>
         <v>0.48384128920120301</v>
       </c>
       <c r="P29" s="3">
-        <f>(C12/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.21123983718815917</v>
       </c>
+      <c r="Q29" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="23"/>
+        <v>2.4384906952030665</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="16"/>
+        <v>0.24220569623738039</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="17"/>
+        <v>2.622680046098402E-2</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="24"/>
+        <v>0.34051702397233069</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3822217584894634E-2</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="19"/>
+        <v>3.6623769198129842E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.15</v>
       </c>
@@ -48916,23 +50425,23 @@
         <v>6309521</v>
       </c>
       <c r="D30" s="48">
+        <f t="shared" si="8"/>
+        <v>29247356.215133011</v>
+      </c>
+      <c r="E30" s="48">
         <f t="shared" si="6"/>
-        <v>29247356.215133011</v>
-      </c>
-      <c r="E30" s="48">
-        <f t="shared" si="7"/>
         <v>5556877.2151330132</v>
       </c>
       <c r="F30" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>225.07443619253445</v>
       </c>
       <c r="G30" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>42.763215826669068</v>
       </c>
       <c r="H30" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13370774288585.053</v>
       </c>
       <c r="I30" s="44">
@@ -48944,31 +50453,58 @@
         <v>33656606.936571807</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31960172.065521073</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5235637.2594155082</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6591752.0925143538</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="74">
         <f>(J30/C13)*($J$34/2)</f>
         <v>5.7205919971853456</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="74">
         <f t="shared" si="15"/>
         <v>0.889897922949345</v>
       </c>
       <c r="P30" s="3">
-        <f>(C13/$R$2)*$R$3</f>
+        <f t="shared" si="7"/>
         <v>0.21277671740601634</v>
       </c>
+      <c r="Q30" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="23"/>
+        <v>5.3674335102063599</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="16"/>
+        <v>0.20666463597615384</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="17"/>
+        <v>4.0654180278667573E-2</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="24"/>
+        <v>0.74952202559568393</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="18"/>
+        <v>2.8859173808356339E-2</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="19"/>
+        <v>5.6770528211401196E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D31" s="34" t="s">
         <v>111</v>
       </c>
@@ -48990,7 +50526,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="5" t="s">
@@ -49013,8 +50549,20 @@
         <f>SUM(I19:I26)</f>
         <v>182462516255.92999</v>
       </c>
+      <c r="P32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>144</v>
+      </c>
+      <c r="R32" t="s">
+        <v>145</v>
+      </c>
+      <c r="S32" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D33" s="5" t="s">
         <v>108</v>
       </c>
@@ -49035,8 +50583,32 @@
         <f>SUM(I19:I30)</f>
         <v>614421987927.99731</v>
       </c>
+      <c r="N33" s="3">
+        <f>SUM(R19:T19)+P19</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <f>SUM(U19:W19) + P19/2</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f>N19-N33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>O19-O33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <f>N19</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D34" s="5" t="s">
         <v>109</v>
       </c>
@@ -49052,8 +50624,32 @@
       <c r="J34" s="3">
         <v>0.21167934144832934</v>
       </c>
+      <c r="N34" s="3">
+        <f>SUM(R20:T20)+P20/2</f>
+        <v>9.3680145137604018E-2</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:O43" si="25">SUM(U20:W20) + P20/2</f>
+        <v>6.7394392825122232E-2</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" ref="P34:P44" si="26">N20-N34</f>
+        <v>4.2711654676339819E-2</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" ref="Q34:Q44" si="27">O20-O34</f>
+        <v>4.2711654676339805E-2</v>
+      </c>
+      <c r="R34">
+        <f>2*P34*C3/($F$32*P20)</f>
+        <v>983.40091412091169</v>
+      </c>
+      <c r="S34">
+        <f>2*Q34*C3/($F$34*P20)</f>
+        <v>7042.2733958020472</v>
+      </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D35" s="5" t="s">
         <v>110</v>
       </c>
@@ -49072,8 +50668,32 @@
       <c r="J35">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="N35" s="3">
+        <f t="shared" ref="N35:N41" si="28">SUM(R21:T21)+P21/2</f>
+        <v>0.14160061983820726</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="25"/>
+        <v>8.1839051032476684E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="26"/>
+        <v>3.370037514462812E-2</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="27"/>
+        <v>3.3700375144628078E-2</v>
+      </c>
+      <c r="R35">
+        <f>2*P35*C4/($F$32*P21)</f>
+        <v>775.92357342698403</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:S44" si="29">2*Q35*C4/($F$34*P21)</f>
+        <v>5556.4987380606153</v>
+      </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H36" s="54" t="s">
         <v>116</v>
       </c>
@@ -49086,11 +50706,32 @@
       <c r="K36" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="M36" t="s">
-        <v>125</v>
+      <c r="N36" s="3">
+        <f t="shared" si="28"/>
+        <v>0.20220146945998355</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="25"/>
+        <v>0.10491214249330769</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="26"/>
+        <v>1.6718323195185208E-2</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="27"/>
+        <v>1.6718323195185195E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R35:R42" si="30">2*P36*C5/($F$32*P22)</f>
+        <v>384.92571728487468</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="29"/>
+        <v>2756.5076453264287</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
       <c r="G37" s="62" t="s">
         <v>120</v>
       </c>
@@ -49110,11 +50751,32 @@
         <f>(M26/$C$9)*($J$34/2)</f>
         <v>0.2346544071949476</v>
       </c>
-      <c r="M37" t="s">
-        <v>126</v>
+      <c r="N37" s="3">
+        <f>SUM(R23:T23)+P23/2</f>
+        <v>0.21927626142524279</v>
+      </c>
+      <c r="O37" s="3">
+        <f>SUM(U23:W23) + P23/2</f>
+        <v>0.10967997248017117</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="26"/>
+        <v>1.3948006391871604E-2</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="27"/>
+        <v>1.3948006391871617E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="30"/>
+        <v>321.14143879162611</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="29"/>
+        <v>2299.7393821964633</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
       <c r="G38" s="62" t="s">
         <v>86</v>
       </c>
@@ -49131,14 +50793,36 @@
         <v>2.7385182317396102</v>
       </c>
       <c r="K38" s="60">
-        <f t="shared" ref="K38" si="18">K37/$J$35</f>
+        <f t="shared" ref="K38" si="31">K37/$J$35</f>
         <v>3.1287254292659679</v>
       </c>
-      <c r="M38" s="65" t="s">
-        <v>124</v>
+      <c r="M38" s="73"/>
+      <c r="N38" s="3">
+        <f t="shared" si="28"/>
+        <v>0.41461241225625833</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="25"/>
+        <v>0.14359064988432427</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="26"/>
+        <v>6.2379065061167749E-3</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="27"/>
+        <v>6.2379065061168859E-3</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="30"/>
+        <v>143.62269518240319</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="29"/>
+        <v>1028.5024864153067</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H39" s="20" t="s">
         <v>123</v>
       </c>
@@ -49148,8 +50832,32 @@
       <c r="J39">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="N39" s="74">
+        <f>SUM(R25:T25)+P25/2</f>
+        <v>0.5368589748348328</v>
+      </c>
+      <c r="O39" s="74">
+        <f t="shared" si="25"/>
+        <v>0.16624774009862042</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="26"/>
+        <v>-2.5505771675782274E-4</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="27"/>
+        <v>-2.5505771675773947E-4</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="30"/>
+        <v>-5.8724953110322788</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="29"/>
+        <v>-42.053771663218733</v>
+      </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H40" s="54" t="s">
         <v>116</v>
       </c>
@@ -49162,8 +50870,32 @@
       <c r="K40" s="54" t="s">
         <v>119</v>
       </c>
+      <c r="N40" s="74">
+        <f t="shared" si="28"/>
+        <v>0.81887235165225891</v>
+      </c>
+      <c r="O40" s="74">
+        <f>SUM(U26:W26) + P26/2</f>
+        <v>0.20553563461906998</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="26"/>
+        <v>-1.4676723859918805E-4</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="27"/>
+        <v>-1.4676723859921581E-4</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="30"/>
+        <v>-3.3791956245936752</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="29"/>
+        <v>-24.198899049798218</v>
+      </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
       <c r="G41" s="62" t="s">
         <v>120</v>
       </c>
@@ -49172,7 +50904,7 @@
         <v>0.53660391711807498</v>
       </c>
       <c r="I41" s="60">
-        <f t="shared" ref="I41:K41" si="19">(K25/$C$8)*($J$34/2)</f>
+        <f t="shared" ref="I41:K41" si="32">(K25/$C$8)*($J$34/2)</f>
         <v>0.51448229954655988</v>
       </c>
       <c r="J41" s="60">
@@ -49180,11 +50912,35 @@
         <v>0.16599268238186268</v>
       </c>
       <c r="K41" s="60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>0.18367650522281309</v>
       </c>
+      <c r="N41" s="74">
+        <f t="shared" si="28"/>
+        <v>0.90632690276369621</v>
+      </c>
+      <c r="O41" s="74">
+        <f t="shared" si="25"/>
+        <v>0.21758501356784005</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="26"/>
+        <v>4.2684627838296407E-5</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="27"/>
+        <v>4.2684627838213141E-5</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="30"/>
+        <v>0.98277864328080755</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="29"/>
+        <v>7.0378172260620939</v>
+      </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
       <c r="G42" s="62" t="s">
         <v>86</v>
       </c>
@@ -49201,69 +50957,145 @@
         <v>2.2132357650915027</v>
       </c>
       <c r="K42" s="60">
-        <f t="shared" ref="K42" si="20">K41/$J$35</f>
+        <f t="shared" ref="K42" si="33">K41/$J$35</f>
         <v>2.4490200696375082</v>
       </c>
+      <c r="N42" s="74">
+        <f>SUM(R28:T28)+P28/2</f>
+        <v>1.4103296463461965</v>
+      </c>
+      <c r="O42" s="74">
+        <f t="shared" si="25"/>
+        <v>0.28740996724811796</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="26"/>
+        <v>6.8807617627708595E-4</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="27"/>
+        <v>6.8807617627719697E-4</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="30"/>
+        <v>15.84239116614093</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="29"/>
+        <v>113.44960964872999</v>
+      </c>
     </row>
-    <row r="43" spans="3:13" ht="90.35" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:19" ht="90.35" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="N43" s="74">
+        <f>SUM(R29:T29)+P29/2</f>
+        <v>2.8125431104955103</v>
+      </c>
+      <c r="O43" s="74">
+        <f>SUM(U29:W29) + P29/2</f>
+        <v>0.48362153707111788</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="26"/>
+        <v>2.1975213008529337E-4</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="27"/>
+        <v>2.1975213008512684E-4</v>
+      </c>
+      <c r="R43" s="3">
+        <f>N29</f>
+        <v>2.8127628626255956</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="29"/>
+        <v>36.232606558944433</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="N44" s="74">
+        <f>SUM(R30:T30)+P30/2</f>
+        <v>5.7211406851641895</v>
+      </c>
+      <c r="O44" s="74">
+        <f>SUM(U30:W30) + P30/2</f>
+        <v>0.89044661092818855</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="26"/>
+        <v>-5.4868797884388698E-4</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="27"/>
+        <v>-5.4868797884355391E-4</v>
+      </c>
+      <c r="R44">
+        <f>2*P44*C13/($F$32*P30)</f>
+        <v>-12.63309192891408</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="29"/>
+        <v>-90.467362720715002</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="3:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" s="65" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="3:13" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+    <row r="47" spans="3:19" ht="45.2" x14ac:dyDescent="0.3">
+      <c r="D47" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="E47" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="66" t="s">
+    </row>
+    <row r="48" spans="3:19" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="D48" s="66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="3:13" ht="45.2" x14ac:dyDescent="0.3">
-      <c r="D47" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="D48" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="66"/>
+      <c r="E48" s="65"/>
     </row>
     <row r="51" spans="3:5" ht="45.2" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="65" t="s">
         <v>135</v>
-      </c>
-      <c r="D51" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="66" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="52" spans="3:5" ht="45.2" x14ac:dyDescent="0.3">
-      <c r="D52" s="66" t="s">
-        <v>137</v>
+      <c r="D52" s="65" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DDA570-89AB-436E-B6D3-E687545E12D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B829B-5A2A-4E0C-9504-0DB069EF092A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14138" windowHeight="10172" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14138" windowHeight="10172" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uptake old" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="149">
   <si>
     <t>L</t>
   </si>
@@ -561,6 +561,9 @@
   <si>
     <t>θH2</t>
   </si>
+  <si>
+    <t>layers case 2a</t>
+  </si>
 </sst>
 </file>
 
@@ -813,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -951,6 +954,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -50752,16 +50761,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1131464</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39863</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225376</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>413936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1271847</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>415636</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>24939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -50826,16 +50835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1282410</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>41237</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>650644</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>282632</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>415636</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>232756</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>307571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -57143,8 +57152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DA03A-D901-4E93-9092-92428B426BE7}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="K39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -57337,7 +57346,7 @@
         <v>0.77</v>
       </c>
       <c r="T3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -57527,7 +57536,7 @@
         <v>589801.50926735823</v>
       </c>
       <c r="M7" s="60">
-        <f t="shared" si="1"/>
+        <f>E7/I7</f>
         <v>1.1246660045486305</v>
       </c>
     </row>
@@ -57578,7 +57587,7 @@
       </c>
       <c r="N8" s="60">
         <f>(M8-(J42-1))/M8</f>
-        <v>5.8086818315190102E-2</v>
+        <v>0.51292502894473602</v>
       </c>
       <c r="O8">
         <f>(E8+G8)/H8</f>
@@ -57991,7 +58000,7 @@
         <v>95803249441</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" ref="J19:J22" si="7">C2+($F$32*J2)</f>
+        <f t="shared" ref="J19:J21" si="7">C2+($F$32*J2)</f>
         <v>0</v>
       </c>
       <c r="K19" s="9">
@@ -58214,23 +58223,23 @@
         <v>4.3137116391841947E-3</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" ref="T21:T30" si="19">(($F$32*G4)/C4)*P21/2</f>
+        <f>(($F$32*G4)/C4)*P21/2</f>
         <v>3.2678998882622462E-2</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" ref="U21:U30" si="20">(($F$32*H4)/C4)*P21/2</f>
+        <f t="shared" ref="U21:U30" si="19">(($F$32*H4)/C4)*P21/2</f>
         <v>1.0351456062965456E-2</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" ref="V21:V30" si="21">(($F$34*E4)/C4)*P21/2</f>
+        <f t="shared" ref="V21:V30" si="20">(($F$34*E4)/C4)*P21/2</f>
         <v>6.0237763159784528E-4</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" ref="W21:W30" si="22">(($F$34*G4)/C4)*P21/2</f>
+        <f>(($F$34*G4)/C4)*P21/2</f>
         <v>4.5633782682853556E-3</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" ref="X21:X30" si="23">(($F$34*H4)/C4)*P21/2</f>
+        <f t="shared" ref="X21:X30" si="21">(($F$34*H4)/C4)*P21/2</f>
         <v>1.445503572876173E-3</v>
       </c>
     </row>
@@ -58310,23 +58319,23 @@
         <v>2.2384332276334865E-2</v>
       </c>
       <c r="T22" s="3">
+        <f t="shared" ref="T21:T30" si="22">(($F$32*G5)/C5)*P22/2</f>
+        <v>5.7014215339793679E-2</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="19"/>
-        <v>5.7014215339793679E-2</v>
-      </c>
-      <c r="U22" s="3">
+        <v>1.5819557053687601E-2</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" si="20"/>
-        <v>1.5819557053687601E-2</v>
-      </c>
-      <c r="V22" s="3">
+        <v>3.1258049191410136E-3</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" ref="W21:W30" si="23">(($F$34*G5)/C5)*P22/2</f>
+        <v>7.961609601306029E-3</v>
+      </c>
+      <c r="X22" s="3">
         <f t="shared" si="21"/>
-        <v>3.1258049191410136E-3</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="22"/>
-        <v>7.961609601306029E-3</v>
-      </c>
-      <c r="X22" s="3">
-        <f t="shared" si="23"/>
         <v>2.2090830607141617E-3</v>
       </c>
     </row>
@@ -58406,23 +58415,23 @@
         <v>3.3823051607657084E-2</v>
       </c>
       <c r="T23" s="3">
+        <f t="shared" si="22"/>
+        <v>6.4011189290790624E-2</v>
+      </c>
+      <c r="U23" s="3">
         <f t="shared" si="19"/>
-        <v>6.4011189290790624E-2</v>
-      </c>
-      <c r="U23" s="3">
+        <v>1.2763066869793333E-2</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" si="20"/>
-        <v>1.2763066869793333E-2</v>
-      </c>
-      <c r="V23" s="3">
+        <v>4.7231366917899328E-3</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="23"/>
+        <v>8.9386847860883061E-3</v>
+      </c>
+      <c r="X23" s="3">
         <f t="shared" si="21"/>
-        <v>4.7231366917899328E-3</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="22"/>
-        <v>8.9386847860883061E-3</v>
-      </c>
-      <c r="X23" s="3">
-        <f t="shared" si="23"/>
         <v>1.7822670210763127E-3</v>
       </c>
     </row>
@@ -58502,23 +58511,23 @@
         <v>0.15691941625611297</v>
       </c>
       <c r="T24" s="3">
+        <f t="shared" si="22"/>
+        <v>0.11582843502804017</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="19"/>
-        <v>0.11582843502804017</v>
-      </c>
-      <c r="U24" s="3">
+        <v>2.3696913494511151E-2</v>
+      </c>
+      <c r="V24" s="3">
         <f t="shared" si="20"/>
-        <v>2.3696913494511151E-2</v>
-      </c>
-      <c r="V24" s="3">
+        <v>2.1912625187424484E-2</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="23"/>
+        <v>1.6174576374110867E-2</v>
+      </c>
+      <c r="X24" s="3">
         <f t="shared" si="21"/>
-        <v>2.1912625187424484E-2</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" si="22"/>
-        <v>1.6174576374110867E-2</v>
-      </c>
-      <c r="X24" s="3">
-        <f t="shared" si="23"/>
         <v>3.3090970887665145E-3</v>
       </c>
     </row>
@@ -58598,23 +58607,23 @@
         <v>0.24308204923506438</v>
       </c>
       <c r="T25" s="3">
+        <f t="shared" si="22"/>
+        <v>0.15960024208514997</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="19"/>
-        <v>0.15960024208514997</v>
-      </c>
-      <c r="U25" s="3">
+        <v>2.9120032236959761E-2</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" si="20"/>
-        <v>2.9120032236959761E-2</v>
-      </c>
-      <c r="V25" s="3">
+        <v>3.3944593739664311E-2</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="23"/>
+        <v>2.2286982503975906E-2</v>
+      </c>
+      <c r="X25" s="3">
         <f t="shared" si="21"/>
-        <v>3.3944593739664311E-2</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="22"/>
-        <v>2.2286982503975906E-2</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" si="23"/>
         <v>4.0663951413938528E-3</v>
       </c>
     </row>
@@ -58675,7 +58684,7 @@
         <v>0.81986090628657138</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="18"/>
+        <f>(L26/C9)*(P26/2)</f>
         <v>0.20567367889488877</v>
       </c>
       <c r="P26" s="3">
@@ -58694,59 +58703,59 @@
         <v>0.4864719505124358</v>
       </c>
       <c r="T26" s="3">
+        <f t="shared" si="22"/>
+        <v>0.19824137295755564</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="19"/>
-        <v>0.19824137295755564</v>
-      </c>
-      <c r="U26" s="3">
+        <v>2.9161144853816021E-2</v>
+      </c>
+      <c r="V26" s="3">
         <f t="shared" si="20"/>
-        <v>2.9161144853816021E-2</v>
-      </c>
-      <c r="V26" s="3">
+        <v>6.7932176719138496E-2</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="23"/>
+        <v>2.7682928001525241E-2</v>
+      </c>
+      <c r="X26" s="3">
         <f t="shared" si="21"/>
-        <v>6.7932176719138496E-2</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="22"/>
-        <v>2.7682928001525241E-2</v>
-      </c>
-      <c r="X26" s="3">
-        <f t="shared" si="23"/>
         <v>4.0721362114611494E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="77">
         <f t="shared" si="4"/>
         <v>7000000.0000000009</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="78">
         <f t="shared" si="5"/>
         <v>1709521.0000000002</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="78">
         <f t="shared" si="8"/>
         <v>6362338.7076427434</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="78">
         <f t="shared" si="6"/>
         <v>1071859.7076427424</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="78">
         <f t="shared" si="16"/>
         <v>345.32672679063143</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="78">
         <f t="shared" si="17"/>
         <v>58.177003996093369</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="79">
         <f t="shared" si="9"/>
         <v>2880130557675.0469</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="80">
         <f t="shared" si="10"/>
         <v>59521177421.921738</v>
       </c>
@@ -58766,47 +58775,47 @@
         <f t="shared" si="13"/>
         <v>1465551.3760261913</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="81">
         <f t="shared" si="26"/>
         <v>0.90600405291606823</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="81">
         <f t="shared" si="18"/>
         <v>0.21753992999646515</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="81">
         <f t="shared" si="14"/>
         <v>0.21159397219265294</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="81">
         <f t="shared" si="15"/>
         <v>0.78097464862076282</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="81">
         <f t="shared" si="24"/>
         <v>0.54928194287749499</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="81">
+        <f t="shared" si="22"/>
+        <v>0.2145765442115011</v>
+      </c>
+      <c r="U27" s="81">
         <f t="shared" si="19"/>
-        <v>0.2145765442115011</v>
-      </c>
-      <c r="U27" s="3">
+        <v>3.634857973074563E-2</v>
+      </c>
+      <c r="V27" s="81">
         <f t="shared" si="20"/>
-        <v>3.634857973074563E-2</v>
-      </c>
-      <c r="V27" s="3">
+        <v>7.6703123320636044E-2</v>
+      </c>
+      <c r="W27" s="81">
+        <f t="shared" si="23"/>
+        <v>2.9964012736609161E-2</v>
+      </c>
+      <c r="X27" s="81">
         <f t="shared" si="21"/>
-        <v>7.6703123320636044E-2</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="22"/>
-        <v>2.9964012736609161E-2</v>
-      </c>
-      <c r="X27" s="3">
-        <f t="shared" si="23"/>
         <v>5.0758078428934728E-3</v>
       </c>
     </row>
@@ -58886,23 +58895,23 @@
         <v>1.0418819970214128</v>
       </c>
       <c r="T28" s="3">
+        <f t="shared" si="22"/>
+        <v>0.22656104421596004</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="19"/>
-        <v>0.22656104421596004</v>
-      </c>
-      <c r="U28" s="3">
+        <v>2.8249894185406181E-2</v>
+      </c>
+      <c r="V28" s="3">
         <f t="shared" si="20"/>
-        <v>2.8249894185406181E-2</v>
-      </c>
-      <c r="V28" s="3">
+        <v>0.14549104396994056</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="23"/>
+        <v>3.1637558706393919E-2</v>
+      </c>
+      <c r="X28" s="3">
         <f t="shared" si="21"/>
-        <v>0.14549104396994056</v>
-      </c>
-      <c r="W28" s="3">
-        <f t="shared" si="22"/>
-        <v>3.1637558706393919E-2</v>
-      </c>
-      <c r="X28" s="3">
-        <f t="shared" si="23"/>
         <v>3.9448868574611011E-3</v>
       </c>
     </row>
@@ -58982,23 +58991,23 @@
         <v>2.4334277209818023</v>
       </c>
       <c r="T29" s="3">
+        <f t="shared" si="22"/>
+        <v>0.24170281090806359</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="19"/>
-        <v>0.24170281090806359</v>
-      </c>
-      <c r="U29" s="3">
+        <v>2.617234644362754E-2</v>
+      </c>
+      <c r="V29" s="3">
         <f t="shared" si="20"/>
-        <v>2.617234644362754E-2</v>
-      </c>
-      <c r="V29" s="3">
+        <v>0.33981001741386202</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3751993402339753E-2</v>
+      </c>
+      <c r="X29" s="3">
         <f t="shared" si="21"/>
-        <v>0.33981001741386202</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="22"/>
-        <v>3.3751993402339753E-2</v>
-      </c>
-      <c r="X29" s="3">
-        <f t="shared" si="23"/>
         <v>3.6547728227499764E-3</v>
       </c>
     </row>
@@ -59078,23 +59087,23 @@
         <v>5.395259052596483</v>
       </c>
       <c r="T30" s="3">
+        <f t="shared" si="22"/>
+        <v>0.20773601498400909</v>
+      </c>
+      <c r="U30" s="3">
         <f t="shared" si="19"/>
-        <v>0.20773601498400909</v>
-      </c>
-      <c r="U30" s="3">
+        <v>4.086493735922176E-2</v>
+      </c>
+      <c r="V30" s="3">
         <f t="shared" si="20"/>
-        <v>4.086493735922176E-2</v>
-      </c>
-      <c r="V30" s="3">
+        <v>0.75340765489242056</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="23"/>
+        <v>2.900878388971485E-2</v>
+      </c>
+      <c r="X30" s="3">
         <f t="shared" si="21"/>
-        <v>0.75340765489242056</v>
-      </c>
-      <c r="W30" s="3">
-        <f t="shared" si="22"/>
-        <v>2.900878388971485E-2</v>
-      </c>
-      <c r="X30" s="3">
-        <f t="shared" si="23"/>
         <v>5.7064834742865866E-3</v>
       </c>
     </row>
@@ -59218,6 +59227,9 @@
       <c r="J34" s="3">
         <v>0.21167934144832934</v>
       </c>
+      <c r="L34" t="s">
+        <v>148</v>
+      </c>
       <c r="N34" s="3">
         <f>SUM(S20:U20)+P20/2</f>
         <v>8.1350817406507167E-2</v>
@@ -59260,7 +59272,11 @@
         <v>122</v>
       </c>
       <c r="J35">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L35" s="60">
+        <f>O19/$J$35</f>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" ref="N35:N41" si="32">SUM(S21:U21)+P21/2</f>
@@ -59300,6 +59316,10 @@
       <c r="K36" s="54" t="s">
         <v>119</v>
       </c>
+      <c r="L36" s="60">
+        <f t="shared" ref="L36:L45" si="33">O20/$J$35</f>
+        <v>0.64384994350204128</v>
+      </c>
       <c r="N36" s="3">
         <f t="shared" si="32"/>
         <v>0.18433945219879561</v>
@@ -59345,6 +59365,10 @@
         <f>(M26/$C$9)*($J$34/2)</f>
         <v>0.2346544071949476</v>
       </c>
+      <c r="L37" s="60">
+        <f t="shared" si="33"/>
+        <v>0.77206426521858784</v>
+      </c>
       <c r="N37" s="3">
         <f>SUM(S23:U23)+P23/2</f>
         <v>0.20248897210053413</v>
@@ -59376,19 +59400,23 @@
       </c>
       <c r="H38" s="60">
         <f>H37/$J$35</f>
-        <v>10.916341125515464</v>
+        <v>8.0267214158201945</v>
       </c>
       <c r="I38" s="60">
         <f>I37/$J$35</f>
-        <v>10.428210562629388</v>
+        <v>7.6678018842863152</v>
       </c>
       <c r="J38" s="60">
         <f>J37/$J$35</f>
-        <v>2.7385182317396102</v>
+        <v>2.0136163468673605</v>
       </c>
       <c r="K38" s="60">
-        <f t="shared" ref="K38" si="33">K37/$J$35</f>
-        <v>3.1287254292659679</v>
+        <f t="shared" ref="K38" si="34">K37/$J$35</f>
+        <v>2.3005334038720355</v>
+      </c>
+      <c r="L38" s="60">
+        <f t="shared" si="33"/>
+        <v>1.0040965206876538</v>
       </c>
       <c r="M38" s="73"/>
       <c r="N38" s="3">
@@ -59396,7 +59424,7 @@
         <v>0.39604652899671206</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="27"/>
+        <f>SUM(V24:X24) + P24/2</f>
         <v>0.14099806286834962</v>
       </c>
       <c r="P38" s="75">
@@ -59424,7 +59452,11 @@
         <v>122</v>
       </c>
       <c r="J39">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L39" s="60">
+        <f>O23/$J$35</f>
+        <v>1.0523113022671335</v>
       </c>
       <c r="N39" s="74">
         <f>SUM(S25:U25)+P25/2</f>
@@ -59464,6 +59496,10 @@
       <c r="K40" s="54" t="s">
         <v>119</v>
       </c>
+      <c r="L40" s="60">
+        <f>O24/$J$35</f>
+        <v>1.3823339496897022</v>
+      </c>
       <c r="N40" s="74">
         <f t="shared" si="32"/>
         <v>0.81986090628657138</v>
@@ -59498,7 +59534,7 @@
         <v>0.53660391711807498</v>
       </c>
       <c r="I41" s="60">
-        <f t="shared" ref="I41:K41" si="34">(K25/$C$8)*($J$34/2)</f>
+        <f t="shared" ref="I41:K41" si="35">(K25/$C$8)*($J$34/2)</f>
         <v>0.51448229954655988</v>
       </c>
       <c r="J41" s="60">
@@ -59506,8 +59542,12 @@
         <v>0.16599268238186268</v>
       </c>
       <c r="K41" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.18367650522281309</v>
+      </c>
+      <c r="L41" s="60">
+        <f>O25/$J$35</f>
+        <v>1.6313009786858481</v>
       </c>
       <c r="N41" s="74">
         <f t="shared" si="32"/>
@@ -59540,19 +59580,23 @@
       </c>
       <c r="H42" s="60">
         <f>H41/$J$35</f>
-        <v>7.154718894907667</v>
+        <v>5.2608227168438724</v>
       </c>
       <c r="I42" s="60">
         <f>I41/$J$35</f>
-        <v>6.8597639939541324</v>
+        <v>5.0439441132015679</v>
       </c>
       <c r="J42" s="60">
         <f>J41/$J$35</f>
-        <v>2.2132357650915027</v>
+        <v>1.6273792390378696</v>
       </c>
       <c r="K42" s="60">
-        <f t="shared" ref="K42" si="35">K41/$J$35</f>
-        <v>2.4490200696375082</v>
+        <f t="shared" ref="K42" si="36">K41/$J$35</f>
+        <v>1.80075005120405</v>
+      </c>
+      <c r="L42" s="60">
+        <f t="shared" si="33"/>
+        <v>2.0164086166165567</v>
       </c>
       <c r="N42" s="74">
         <f>SUM(S28:U28)+P28/2</f>
@@ -59586,6 +59630,10 @@
       <c r="D43" s="67" t="s">
         <v>137</v>
       </c>
+      <c r="L43" s="82">
+        <f>O27/$J$35</f>
+        <v>2.1327444117300507</v>
+      </c>
       <c r="N43" s="74">
         <f>SUM(S29:U29)+P29/2</f>
         <v>2.8069227969275725</v>
@@ -59612,6 +59660,10 @@
       </c>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="L44" s="60">
+        <f t="shared" si="33"/>
+        <v>2.8061282753106185</v>
+      </c>
       <c r="N44" s="74">
         <f>SUM(S30:U30)+P30/2</f>
         <v>5.7502483636427222</v>
@@ -59643,6 +59695,10 @@
       </c>
       <c r="E45" t="s">
         <v>125</v>
+      </c>
+      <c r="L45" s="60">
+        <f>O29/$J$35</f>
+        <v>4.7336931591473661</v>
       </c>
       <c r="N45" s="3"/>
     </row>
@@ -59655,6 +59711,10 @@
       </c>
       <c r="E46" s="65" t="s">
         <v>128</v>
+      </c>
+      <c r="L46" s="60">
+        <f>O30/$J$35</f>
+        <v>8.7697184407787283</v>
       </c>
     </row>
     <row r="47" spans="3:19" ht="45.2" x14ac:dyDescent="0.3">

--- a/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
+++ b/GUA work/Pt(100)/IR chamber/plot_GUA area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B829B-5A2A-4E0C-9504-0DB069EF092A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17161766-54AE-4349-8705-F3F76148A4AE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14138" windowHeight="10172" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14138" windowHeight="10172" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uptake old" sheetId="1" r:id="rId1"/>
@@ -50643,16 +50643,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>166253</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>54033</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147781</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>192580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>290944</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>74814</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355598</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19396</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -50835,16 +50835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>650644</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>124365</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>226694</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>232756</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>307571</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>349134</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -54920,8 +54920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -55563,7 +55563,7 @@
         <v>1041.8256310315001</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="5"/>
+        <f>((F13-$F$2)/$M$16)*$M$17</f>
         <v>0.79688102422343443</v>
       </c>
       <c r="N13" s="3">
@@ -55579,7 +55579,7 @@
         <v>6.1484910382375031E-2</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="3"/>
+        <f>((K13-$K$2)/$O$16)*$O$17</f>
         <v>1.2095047705168168E-2</v>
       </c>
       <c r="R13" s="3">
@@ -55627,7 +55627,11 @@
         <v>5834.2995908334397</v>
       </c>
     </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f>K9/D9</f>
+        <v>2.615877781277973E-2</v>
+      </c>
       <c r="L17" t="s">
         <v>18</v>
       </c>
@@ -55641,7 +55645,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
         <v>22</v>
       </c>
@@ -55652,7 +55656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="M20">
         <v>0.1</v>
       </c>
@@ -55660,7 +55664,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="M21">
         <v>0.2</v>
       </c>
@@ -57152,8 +57156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DA03A-D901-4E93-9092-92428B426BE7}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -57274,7 +57278,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="60">
-        <f t="shared" ref="M2:M7" si="1">E2/I2</f>
+        <f t="shared" ref="M2:M6" si="1">E2/I2</f>
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -58319,7 +58323,7 @@
         <v>2.2384332276334865E-2</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" ref="T21:T30" si="22">(($F$32*G5)/C5)*P22/2</f>
+        <f t="shared" ref="T22:T30" si="22">(($F$32*G5)/C5)*P22/2</f>
         <v>5.7014215339793679E-2</v>
       </c>
       <c r="U22" s="3">
@@ -58331,7 +58335,7 @@
         <v>3.1258049191410136E-3</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" ref="W21:W30" si="23">(($F$34*G5)/C5)*P22/2</f>
+        <f t="shared" ref="W22:W30" si="23">(($F$34*G5)/C5)*P22/2</f>
         <v>7.961609601306029E-3</v>
       </c>
       <c r="X22" s="3">
@@ -58588,7 +58592,7 @@
         <v>0.53789705199809645</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="18"/>
+        <f>(L25/C8)*(P25/2)</f>
         <v>0.1663926998259565</v>
       </c>
       <c r="P25" s="3">
@@ -59317,7 +59321,7 @@
         <v>119</v>
       </c>
       <c r="L36" s="60">
-        <f t="shared" ref="L36:L45" si="33">O20/$J$35</f>
+        <f t="shared" ref="L36:L44" si="33">O20/$J$35</f>
         <v>0.64384994350204128</v>
       </c>
       <c r="N36" s="3">
